--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -16,6 +16,7 @@
     <sheet name="任务拆分" sheetId="11" r:id="rId7"/>
     <sheet name="策划验收" sheetId="12" r:id="rId8"/>
     <sheet name="评审问题" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_1_、基础聊天框显示规则">UI逻辑相关!#REF!</definedName>
@@ -79,688 +80,913 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>mt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>签到系统设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>签到系统相关逻辑说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/活动相关/签到系统设计.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到分为两部分内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>分别为日常签到与连续登陆奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日常签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>玩家每日登陆游戏，即可进行签到操作，每天只能签到一次，每次签到获得一定奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连续登陆奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日常签到每个月最多可签到30天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每个月第一天00：00刷新，每个月的签到奖励内容不同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到方式为累计签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>玩家从特定的一天起，连续登陆N天，则会在每天第一次登陆的时候获得当日的登录奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特定的一天是指</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>固定日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>玩家首次登陆游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>根据账号的登录天数进行判断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>类似国庆七天乐的形式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他事件触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>达到某个等级或者任务等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日常签到界面样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到界面包括内容为： 签到标题、签到次数、奖励内容、补签相关、关闭按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>显示当月签到标题，根据现实月份现实签到标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当前日期为1月份，则显示为： 一月份签到奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当前日期为6月份，则现实为：六月份签到奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前月份，玩家实际已经签到的次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每签到成功一次，次数+1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>签到内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>显示当前月份，玩家签到后可以获得的内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每行显示6个格子，每个格子中显示对应奖励内容（只有一种）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若对应奖励内容超过1个，则显示对应数字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当页最多可以显示下3行半奖励内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>超过3行半可以拖动显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>显示内容根据当年当月现实天数进行显示，最多显示30天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当月为31天，则显示5行，共30天奖励内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当月为28天，则显示4行又4列，共28天奖励内容，剩余2个空余部分不显示格子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且不可领取的奖励显示为彩色样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且可领取的奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如果为补签的则显示为彩色样式，同时奖励内容左上角显示补签的标签进行提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如果为当日签到的则显示为彩色样式，同时奖励框周边有特效环绕提示可以领取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已领取的奖励显示为灰色遮罩同时右下角有绿色对勾提示已经领取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>奖励框打开后有成功领取奖励的特效效果（类似任务领取奖励的界面即可）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若弹出奖励领取框后没有其他可以补签的内容，则点击【确定】按钮后，签到界面随同奖励领取框一同关闭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若弹出奖励领取框后仍有其他可以补签的内容，则点击【确定】按钮后，签到界面不随奖励领取框一同关闭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补签相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>包括当月可以补签的次数以及补签按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当月有可以补签的内容，则根据可以补签的天数，显示对应可以补签的次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如当月无可以补签的内容，则不显示补签相关内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补签次数根据补签操作实时变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补签按钮显示在补签次数右侧，按钮上包含补签文本以及当次补签所需消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补签所需消耗根据当月已经补签的次数确定，具体公式见配置相关分页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>具体签到内容显示方式，详见配置相关分页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>补签内容显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当当前月份可签到次数大于已签到次数时，显示补签相关内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当日为一月份第六天，则当前已签到次数为6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当前已经登录了3天同时成功签到了3次，则已签到次数为3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第四天登录时，前三个内容项显示为已经签到的样式，第四个内容项为可签到的样式，第五、六个内容项为可补签的样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>同时可补签的次数显示为2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如小于等于持有钻石，则进行一次补签操作，补签成功后弹出奖励框，奖励框样式同正常签到的样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如大于持有钻石，则进行充值相关流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1次补签成功后，可补签次数-1，同时当月已签到次数+1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击【补签】按钮后，判断当日是否已经完成签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如已经完成签到，则判断当前所需钻石是否小于等于持有钻石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如未完成签到，则弹出提示信息，提示信息ID：Sign_buqian_001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Sign_buqian_001</t>
   </si>
   <si>
     <t>当日未签到成功点击补签按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>个人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当签到内容中，一行内容均已经签到成功，则该行内容整体向上移动一层，默认打开界面后该行默认不显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>即保证当前可签到的内容始终显示在可见范围内</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击签到界面中的内容项，可以显示对应内容项的tips内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六列内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励数量配置表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励内容配置表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物/碎片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物/碎片一项填写宠物ID，若数量内容为-1则给予整只宠物，若数量内容为非-1，则给予对应碎片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动中制作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到界面打开后，如当日签到奖励未领取，则点击对应奖励的内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若奖励内容非整只宠物，即可弹出奖励领取框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若奖励内容为整只宠物，则弹出宠物获得界面（样式同抽蛋）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面结构</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励项样式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取确认框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>请先完成当日签到后再进行补签操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当签到内容中，一行内容均已经签到成功，则该行内容整体向上移动一层，默认打开界面后该行默认不显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>即保证当前可签到的内容始终显示在可见范围内</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击签到界面中的内容项，可以显示对应内容项的tips内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>八月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>十月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六列内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励数量配置表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励内容配置表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物/碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物/碎片一项填写宠物ID，若数量内容为-1则给予整只宠物，若数量内容为非-1，则给予对应碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动中制作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到界面打开后，如当日签到奖励未领取，则点击对应奖励的内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若奖励内容非整只宠物，即可弹出奖励领取框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>若奖励内容为整只宠物，则弹出宠物获得界面（样式同抽蛋）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励项样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>1.最后一次补签的时候，领完奖励后，直接关闭了签到界面，这不是一个友好的操作</t>
+  </si>
+  <si>
+    <t>2.一定要限制先签到然后才能补签么？</t>
+  </si>
+  <si>
+    <t>小星 吉</t>
+  </si>
+  <si>
+    <t>1.在签到奖励列表中，仅有金币和钻石能看到数量，其余道具看不到数量么？</t>
+  </si>
+  <si>
+    <t>2.在主界面若今日签到未领取是否有红点，若仍有补签机会是否有红点</t>
+  </si>
+  <si>
+    <t>3.点击可补签Icon是否能算是补签，若算是是否应该添加补签确认二级防止误操作</t>
+  </si>
+  <si>
+    <t>祖光 华</t>
+  </si>
+  <si>
+    <t>1、能够理解补签是坑，但是签到的真正目的难道不是让玩家每天上线么？有了补签，会减少每天上线的玩家数量啊，不是很赞同这个功能</t>
+  </si>
+  <si>
+    <t>2、单个的框框有点丑</t>
+  </si>
+  <si>
+    <t>long xue</t>
+  </si>
+  <si>
+    <t>1.签到是越往后奖励越好么？否则为什么签到一直从前往后记录。</t>
+  </si>
+  <si>
+    <t>2.是否签到对应当天签到位置好一些。补签感觉应该是漏签的某天可以补签（现在补签全排在后面的）</t>
+  </si>
+  <si>
+    <t>3.是否有签到按钮会好一些，现在点那个可以签到不明显</t>
+  </si>
+  <si>
+    <t>Kathy Guo</t>
+  </si>
+  <si>
+    <t>1    每月可以签到多少天</t>
+  </si>
+  <si>
+    <t>2    当月已签没有总次数么？</t>
+  </si>
+  <si>
+    <t>3    补签在按钮上，多语言会不会太长</t>
+  </si>
+  <si>
+    <t>4    弹出界面中的信息有点多余，如：标题，签到成功</t>
+  </si>
+  <si>
+    <t>5    界面略丑，没有吸引力。为啥还用黑框，新的不都是全屏界面了么？</t>
+  </si>
+  <si>
+    <t>吴涛</t>
+  </si>
+  <si>
+    <t>1这个界面下面还有的话应该最下面一排应该显示一半</t>
+  </si>
+  <si>
+    <t>2弹出界面信息希望和获得奖励界面统一下</t>
+  </si>
+  <si>
+    <t>解：与雷神确认了下，确实在最后一次签到后会出现不知道是否签上的问题，故改成不自动关闭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个其实并不是特别限制，可以不限制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：其余也是现实数量的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个可以有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：补签的成本其实挺高的，对于一般玩家来说远不如上线划算，应该不会对上线玩家数量有很大影响</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：框框是我自己加的，不代表铁马的审美</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是越往后越好或者给的东西越多，因为签到累计到15天的时候会给一个宠物，为了避免玩家只在这一天登录，所以需要累计签到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个问题同上个问题的回答哈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：每天签到的icon上会有特效，应该会比较明显哈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：每个月是30天，应该是3行半显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：右上角</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是的应该显示三行半</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是与任务奖励界面使用一样的界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：界面是我拼的，不代表铁马审美，界面结构应该是这样</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：可以考虑将签到成功放在标题位置，中间只显示奖励内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：应该和商店的刷新按钮是一样的大小，可以显示下</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric Lee</t>
+  </si>
+  <si>
+    <t>可签到物品效果表现不明显，感觉不出需要点击物品才能签到</t>
+  </si>
+  <si>
+    <t>walker zhou</t>
+  </si>
+  <si>
+    <t>1. 点击图标签到缺少提示，看不出来要点</t>
+  </si>
+  <si>
+    <t>2. 排布列间距大于行间距，没有显现出类似日历的章法，看着乱</t>
+  </si>
+  <si>
+    <t>3. 补签可以提前签未来的？</t>
+  </si>
+  <si>
+    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是我拼的图，不代表铁马的审美哈，每一行连在一起的话是不是会好一些</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：补签的意思是，当前已签到次数，小于可签到次数时，可以补签</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前月份，玩家实际已经签到的次数/当月共可签到次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当月共可签到28次，已签到10次，则显示为10/28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励内容图标下侧显示对应奖励内容数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：点击补签icon无法补签=。=</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标样式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标显示在主界面左侧，玩家头像下方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当前有可以进行的签到或者补签时，图标右上角有红点显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当前无可以进行的签到或者补签时，图标右上角无红点显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据UI评审回归文档</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面显示，代表签到的意思，常见有日历、笔记本等样式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考样式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -931,8 +1157,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,6 +1211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,212 +1494,225 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1876,66 +2134,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331303</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2393673" y="1532282"/>
-          <a:ext cx="4671391" cy="2650435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2049,66 +2247,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>132520</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>207064</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4944716" y="4207564"/>
-          <a:ext cx="2136913" cy="414131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2172,7 +2310,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>207064</xdr:colOff>
+      <xdr:colOff>207065</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>117531</xdr:rowOff>
     </xdr:from>
@@ -2192,8 +2330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7081629" y="4258835"/>
-          <a:ext cx="1192698" cy="155795"/>
+          <a:off x="7081630" y="4258835"/>
+          <a:ext cx="1192697" cy="155795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2225,13 +2363,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
+      <xdr:colOff>66260</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
@@ -2242,8 +2380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5565913" y="1267239"/>
-          <a:ext cx="1192696" cy="240196"/>
+          <a:off x="5565912" y="1267239"/>
+          <a:ext cx="1424609" cy="240196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,8 +2482,8 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>144946</xdr:rowOff>
     </xdr:from>
@@ -2365,8 +2503,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6758609" y="1387337"/>
-          <a:ext cx="1714501" cy="22280"/>
+          <a:off x="6990521" y="1387337"/>
+          <a:ext cx="1482589" cy="22280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2399,13 +2537,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409883</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>173841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2437,7 +2575,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543931" cy="264560"/>
@@ -2495,13 +2633,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>150234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2533,14 +2671,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>204058</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>192888</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>192887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2571,13 +2709,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2631,13 +2769,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>160163</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>169280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2669,13 +2807,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>159756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2707,14 +2845,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>267412</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2745,14 +2883,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>434300</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2782,11 +2920,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="334451"/>
+    <xdr:ext cx="748923" cy="334451"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2794,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4166153" y="16126240"/>
-          <a:ext cx="1172116" cy="334451"/>
+          <a:off x="4986132" y="16540370"/>
+          <a:ext cx="748923" cy="334451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2830,7 +2968,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>一月份签到奖励</a:t>
+            <a:t>签到成功</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2841,13 +2979,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>82824</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>397563</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>124599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2875,75 +3013,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="334451"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4282109" y="16706023"/>
-          <a:ext cx="889987" cy="334451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>签到成功！</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2974,15 +3054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>91109</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>356034</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>8234</xdr:rowOff>
+      <xdr:colOff>298056</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>165604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2999,7 +3079,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4215848" y="17227826"/>
+          <a:off x="4845327" y="17385195"/>
           <a:ext cx="952381" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3013,14 +3093,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>173077</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>99344</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>99343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3051,14 +3131,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>319176</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3085,41 +3165,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173936</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430824" cy="356316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6659218" y="1209262"/>
+          <a:ext cx="430824" cy="356316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>/30</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>4413</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="36" name="图片 35"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685801" y="428625"/>
-          <a:ext cx="9605612" cy="5572125"/>
+          <a:off x="3578087" y="4180269"/>
+          <a:ext cx="3420717" cy="366833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3128,6 +3268,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901110" y="4207564"/>
+          <a:ext cx="3180520" cy="414131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331303</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393673" y="1532282"/>
+          <a:ext cx="4671391" cy="2650435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3149,7 +3414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3187,7 +3452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3225,7 +3490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3234,6 +3499,196 @@
         <a:xfrm>
           <a:off x="752475" y="16068675"/>
           <a:ext cx="7247619" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570126</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="504825"/>
+          <a:ext cx="10990476" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76021</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="21516975"/>
+          <a:ext cx="1428571" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295641</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="21640800"/>
+          <a:ext cx="981441" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590420</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>9405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="21526500"/>
+          <a:ext cx="1038095" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218960</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>161815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="21555075"/>
+          <a:ext cx="923810" cy="876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3535,7 +3990,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -3594,17 +4049,17 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
@@ -3613,76 +4068,76 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -3730,8 +4185,21 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="56"/>
-      <c r="C24" s="58"/>
+      <c r="B24" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="58">
+        <v>42395</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="56"/>
@@ -3798,8 +4266,285 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="78" customFormat="1">
+      <c r="A1" s="77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="78" customFormat="1">
+      <c r="A6" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="78" customFormat="1">
+      <c r="A13" s="77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="78" customFormat="1">
+      <c r="A18" s="77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="78" customFormat="1">
+      <c r="A25" s="77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="78" customFormat="1">
+      <c r="A36" s="77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="78" customFormat="1">
+      <c r="A41" s="77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="78" customFormat="1">
+      <c r="A44" s="77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="75"/>
+      <c r="B46" s="97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="75"/>
+      <c r="B48" s="97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="75"/>
+      <c r="B50" s="97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="97"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3993,7 +4738,7 @@
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
       <c r="K20" s="59" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
@@ -5608,13 +6353,13 @@
       <c r="G189" s="12"/>
       <c r="H189" s="11"/>
       <c r="I189" s="12"/>
-      <c r="J189" s="88"/>
-      <c r="K189" s="89"/>
-      <c r="L189" s="89"/>
-      <c r="M189" s="89"/>
-      <c r="N189" s="89"/>
-      <c r="O189" s="89"/>
-      <c r="P189" s="90"/>
+      <c r="J189" s="94"/>
+      <c r="K189" s="95"/>
+      <c r="L189" s="95"/>
+      <c r="M189" s="95"/>
+      <c r="N189" s="95"/>
+      <c r="O189" s="95"/>
+      <c r="P189" s="96"/>
       <c r="Q189" s="49"/>
       <c r="R189" s="48"/>
       <c r="S189" s="48"/>
@@ -5804,7 +6549,7 @@
   <mergeCells count="1">
     <mergeCell ref="J189:P189"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5812,10 +6557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5861,246 +6606,261 @@
     </row>
     <row r="33" spans="3:4">
       <c r="D33" s="56" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="D34" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="56" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="D37" s="56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="D39" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="D40" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="D42" s="56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="D47" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="56" t="s">
-        <v>82</v>
+    <row r="43" spans="3:4">
+      <c r="D43" s="56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" s="56" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="4:5">
-      <c r="E50" s="56" t="s">
-        <v>83</v>
+      <c r="D50" s="56" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="4:5">
       <c r="E51" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="E52" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="56" t="s">
+    <row r="60" spans="4:5">
+      <c r="E60" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="E66" s="56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
-      <c r="D58" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5">
-      <c r="E59" s="56" t="s">
+    <row r="71" spans="4:6">
+      <c r="D71" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="4:6">
-      <c r="E65" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6">
-      <c r="D70" s="56" t="s">
+    <row r="78" spans="4:6">
+      <c r="E78" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="F79" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="F92" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="56" t="s">
+    <row r="96" spans="3:6">
+      <c r="C96" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
-      <c r="E77" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="F78" s="56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="F91" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" s="56" t="s">
+    <row r="97" spans="4:4">
+      <c r="D97" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="5:6">
-      <c r="E95" s="56" t="s">
+    <row r="101" spans="4:4">
+      <c r="D101" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="5:6">
-      <c r="E96" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="56" t="s">
+    <row r="103" spans="4:4">
+      <c r="D103" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
-      <c r="D99" s="56" t="s">
+    <row r="105" spans="4:4">
+      <c r="D105" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
-      <c r="D103" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="D104" s="56" t="s">
+    <row r="106" spans="4:4">
+      <c r="D106" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="3:4">
-      <c r="D105" s="56" t="s">
+    <row r="108" spans="4:4">
+      <c r="D108" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
-      <c r="D107" s="56" t="s">
+    <row r="120" spans="5:7">
+      <c r="E120" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="3:4">
-      <c r="D108" s="56" t="s">
+    <row r="121" spans="5:7">
+      <c r="F121" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="3:4">
-      <c r="D110" s="56" t="s">
+    <row r="122" spans="5:7">
+      <c r="G122" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="G123" s="56" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="5:7">
-      <c r="E122" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="5:7">
-      <c r="F123" s="56" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="G124" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="5:7">
       <c r="G125" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7">
+      <c r="F128" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="F129" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="G130" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="G131" s="56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="5:7">
-      <c r="G126" s="56" t="s">
+    <row r="132" spans="1:7">
+      <c r="E132" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="5:7">
-      <c r="G127" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="3:7">
-      <c r="E129" s="56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="3:7">
-      <c r="F130" s="56" t="s">
+    <row r="134" spans="1:7">
+      <c r="C134" s="56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="D135" s="56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="3:7">
-      <c r="F131" s="56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="132" spans="3:7">
-      <c r="G132" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="3:7">
-      <c r="G133" s="56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="3:7">
-      <c r="E134" s="56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="136" spans="3:7">
-      <c r="C136" s="56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="3:7">
-      <c r="D137" s="56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="138" spans="3:7">
+    <row r="136" spans="1:7">
+      <c r="D136" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="D138" s="56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="3:7">
-      <c r="D140" s="56" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142" s="56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="B144" s="56" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6112,7 +6872,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6124,32 +6884,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="69" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="69" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="69">
         <v>10</v>
@@ -6172,7 +6932,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="69">
         <v>20</v>
@@ -6195,7 +6955,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="69">
         <v>30</v>
@@ -6218,7 +6978,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B6" s="69">
         <v>40</v>
@@ -6241,7 +7001,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="69">
         <v>50</v>
@@ -6264,114 +7024,114 @@
     </row>
     <row r="9" spans="1:7">
       <c r="D9" s="71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="69" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="69" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="69" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="69" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="69" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="69" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="69" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="69" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="69" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6381,13 +7141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="91"/>
+    <col min="1" max="1" width="9" style="74"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -6396,7 +7156,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6816,8 +7576,8 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="91" t="s">
-        <v>166</v>
+      <c r="A34" s="74" t="s">
+        <v>161</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7382,8 +8142,8 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="91" t="s">
-        <v>167</v>
+      <c r="A76" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="1"/>
@@ -7716,7 +8476,9 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="35"/>
+      <c r="A100" s="55" t="s">
+        <v>225</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="8"/>
@@ -7731,6 +8493,9 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
+      <c r="B101" s="98" t="s">
+        <v>226</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="8"/>
@@ -7745,6 +8510,9 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
+      <c r="B102" s="98" t="s">
+        <v>227</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -8313,7 +9081,7 @@
       <c r="L151" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8325,7 +9093,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="B32:C32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8399,16 +9167,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -8600,7 +9368,7 @@
       <c r="J18" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8626,7 +9394,7 @@
       <c r="A1" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8673,7 +9441,7 @@
       <c r="B2" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8691,7 +9459,7 @@
     <col min="1" max="16384" width="9" style="24"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_1_、基础聊天框显示规则">UI逻辑相关!#REF!</definedName>
     <definedName name="_1_查看公会">#REF!</definedName>
-    <definedName name="_1_当提示范围为“玩家自己”时_提示位置如上图">整体说明!$D$157</definedName>
+    <definedName name="_1_当提示范围为“玩家自己”时_提示位置如上图">整体说明!$E$148</definedName>
     <definedName name="_2_当目标玩家没有公会时_点击按钮_弹出IM提示信息im_record_005">#REF!</definedName>
     <definedName name="_3、功能界面">UI逻辑相关!#REF!</definedName>
     <definedName name="_3_、左侧聊天框按钮">UI逻辑相关!#REF!</definedName>
@@ -31,7 +31,7 @@
     <definedName name="【聊天频道名称】玩家名称_具体内容">UI逻辑相关!#REF!</definedName>
     <definedName name="此处聊天记录仅显示一条_显示不下时截断。">UI逻辑相关!#REF!</definedName>
     <definedName name="从上到下依次显示选项_邀请入会、屏蔽">#REF!</definedName>
-    <definedName name="当提示方式选择为“系统提示”时_可以设定提示范围_包含玩家自己_玩家所在公会">整体说明!$E$201</definedName>
+    <definedName name="当提示方式选择为“系统提示”时_可以设定提示范围_包含玩家自己_玩家所在公会">整体说明!$F$192</definedName>
     <definedName name="当玩家没有加入公会时_点击公会页签_不会切换到公会页且弹出提示信息im_record_002">UI逻辑相关!#REF!</definedName>
     <definedName name="当新的信息出现时_顶替掉旧信息显示在基础聊天框">UI逻辑相关!#REF!</definedName>
     <definedName name="当由于玩家手拖动信息到某个位置后_关闭左侧聊天框_收到新消息打开后_需显示最新消息。若没有收到新消息_打开后仍显示在那个”某个位置“。">UI逻辑相关!#REF!</definedName>
@@ -39,17 +39,20 @@
     <definedName name="当有信息触发时_会显示走马灯底色及边框_文字信息由界面下方滑入界面">#REF!</definedName>
     <definedName name="当有信息触发时_会显示走马灯底色及边框_文字信息由界面右侧向左侧移动出现">#REF!</definedName>
     <definedName name="点击按钮_判断点击玩家是否已经加入了公会">#REF!</definedName>
-    <definedName name="对应英文">整体说明!$Q$188</definedName>
+    <definedName name="对应英文">整体说明!$R$179</definedName>
     <definedName name="二、聊天框玩家名称">#REF!</definedName>
     <definedName name="该菜单为模态显示">#REF!</definedName>
     <definedName name="该信息存在时间为1秒">#REF!</definedName>
     <definedName name="基础聊天框对于其他系统而言_若其他系统全屏显示_则不显示基础聊天框_若其他非全屏显示_则显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="基础聊天框高约占屏幕高的5_。">UI逻辑相关!#REF!</definedName>
-    <definedName name="基础聊天框位于界面左下角_只显示聊天内容以及底色_玩家不能进行聊天内容的输入。">整体说明!$D$24</definedName>
+    <definedName name="基础聊天框位于界面左下角_只显示聊天内容以及底色_玩家不能进行聊天内容的输入。">整体说明!$E$15</definedName>
+    <definedName name="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2">UI逻辑相关!$E$50</definedName>
     <definedName name="进入对局后_若在进入对局前左侧聊天框为开启状态_则自动关闭。">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天记客户端">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天内容保存在客户端即可_玩家退出游戏后_聊天内容消失_再次登录不会显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="默认显示”请输入信息“">UI逻辑相关!#REF!</definedName>
+    <definedName name="签到刷新规则">UI逻辑相关!$B$154:$J$161</definedName>
+    <definedName name="日常签到界面入口">UI逻辑相关!$B$1:$H$6</definedName>
     <definedName name="如果公会标签页不可用_则点击时会弹出提示信息im_record_004">UI逻辑相关!#REF!</definedName>
     <definedName name="若2行仍显示不下提示信息_则提示信息向两侧扩展_先扩充第二行_当第二行已达屏幕最长位置_则扩充第一行">#REF!</definedName>
     <definedName name="若玩家手指拖动信息且手指未离开频幕_则信息会根据玩家手指拖动频幕的位置显示对应信息_信息不会刷新。">UI逻辑相关!#REF!</definedName>
@@ -64,11 +67,11 @@
     <definedName name="五、提示信息">#REF!</definedName>
     <definedName name="显示格式">UI逻辑相关!#REF!</definedName>
     <definedName name="显示世界聊天频道信息以及标注显示在世界频道的系统提示信息">UI逻辑相关!#REF!</definedName>
-    <definedName name="效果如下图所示">整体说明!$D$80</definedName>
+    <definedName name="效果如下图所示">整体说明!$E$71</definedName>
     <definedName name="需要背景色_待美术设计后回归">UI逻辑相关!#REF!</definedName>
     <definedName name="游戏的聊天输入框最多输入100个汉字或者字符_在输入模式_当输入达到100个时不可以继续输入">UI逻辑相关!#REF!</definedName>
     <definedName name="长按才能录音_松手后直接发送录音内容。">UI逻辑相关!#REF!</definedName>
-    <definedName name="主界面">整体说明!$D$62</definedName>
+    <definedName name="主界面">整体说明!$E$53</definedName>
     <definedName name="左侧聊天框向上滑动进入界面">UI逻辑相关!#REF!</definedName>
     <definedName name="左侧聊天框向下滑动离开界面">UI逻辑相关!#REF!</definedName>
     <definedName name="左侧聊天框左侧">UI逻辑相关!#REF!</definedName>
@@ -80,899 +83,1219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>mt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到系统设计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到系统相关逻辑说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/活动相关/签到系统设计.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到分为两部分内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分别为日常签到与连续登陆奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日常签到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>玩家每日登陆游戏，即可进行签到操作，每天只能签到一次，每次签到获得一定奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续登陆奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日常签到每个月最多可签到30天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每个月第一天00：00刷新，每个月的签到奖励内容不同</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到方式为累计签到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家从特定的一天起，连续登陆N天，则会在每天第一次登陆的时候获得当日的登录奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定的一天是指</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家首次登陆游戏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据账号的登录天数进行判断</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似国庆七天乐的形式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他事件触发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到某个等级或者任务等</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日常签到界面样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到界面包括内容为： 签到标题、签到次数、奖励内容、补签相关、关闭按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到标题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>显示当月签到标题，根据现实月份现实签到标题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当前日期为1月份，则显示为： 一月份签到奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当前日期为6月份，则现实为：六月份签到奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每签到成功一次，次数+1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>显示当前月份，玩家签到后可以获得的内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每行显示6个格子，每个格子中显示对应奖励内容（只有一种）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当页最多可以显示下3行半奖励内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>超过3行半可以拖动显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>显示内容根据当年当月现实天数进行显示，最多显示30天</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当月为31天，则显示5行，共30天奖励内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当月为28天，则显示4行又4列，共28天奖励内容，剩余2个空余部分不显示格子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且不可领取的奖励显示为彩色样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且可领取的奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如果为补签的则显示为彩色样式，同时奖励内容左上角显示补签的标签进行提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如果为当日签到的则显示为彩色样式，同时奖励框周边有特效环绕提示可以领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>已领取的奖励显示为灰色遮罩同时右下角有绿色对勾提示已经领取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取方式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>奖励框打开后有成功领取奖励的特效效果（类似任务领取奖励的界面即可）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补签相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包括当月可以补签的次数以及补签按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当月有可以补签的内容，则根据可以补签的天数，显示对应可以补签的次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如当月无可以补签的内容，则不显示补签相关内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补签次数根据补签操作实时变化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补签按钮显示在补签次数右侧，按钮上包含补签文本以及当次补签所需消耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补签所需消耗根据当月已经补签的次数确定，具体公式见配置相关分页</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>具体签到内容显示方式，详见配置相关分页</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>补签内容显示规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当当前月份可签到次数大于已签到次数时，显示补签相关内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如，</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日为一月份第六天，则当前已签到次数为6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当前已经登录了3天同时成功签到了3次，则已签到次数为3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第四天登录时，前三个内容项显示为已经签到的样式，第四个内容项为可签到的样式，第五、六个内容项为可补签的样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>同时可补签的次数显示为2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如小于等于持有钻石，则进行一次补签操作，补签成功后弹出奖励框，奖励框样式同正常签到的样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如大于持有钻石，则进行充值相关流程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1次补签成功后，可补签次数-1，同时当月已签到次数+1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>点击【补签】按钮后，判断当日是否已经完成签到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如已经完成签到，则判断当前所需钻石是否小于等于持有钻石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>如未完成签到，则弹出提示信息，提示信息ID：Sign_buqian_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Sign_buqian_001</t>
   </si>
   <si>
     <t>当日未签到成功点击补签按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>个人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当签到内容中，一行内容均已经签到成功，则该行内容整体向上移动一层，默认打开界面后该行默认不显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>即保证当前可签到的内容始终显示在可见范围内</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>界面显示规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击签到界面中的内容项，可以显示对应内容项的tips内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第一列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到界面打开后，如当日签到奖励未领取，则点击对应奖励的内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若奖励内容非整只宠物，即可弹出奖励领取框</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若奖励内容为整只宠物，则弹出宠物获得界面（样式同抽蛋）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面结构</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励项样式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取确认框</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先完成当日签到后再进行补签操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>1.最后一次补签的时候，领完奖励后，直接关闭了签到界面，这不是一个友好的操作</t>
+  </si>
+  <si>
+    <t>2.一定要限制先签到然后才能补签么？</t>
+  </si>
+  <si>
+    <t>小星 吉</t>
+  </si>
+  <si>
+    <t>1.在签到奖励列表中，仅有金币和钻石能看到数量，其余道具看不到数量么？</t>
+  </si>
+  <si>
+    <t>2.在主界面若今日签到未领取是否有红点，若仍有补签机会是否有红点</t>
+  </si>
+  <si>
+    <t>3.点击可补签Icon是否能算是补签，若算是是否应该添加补签确认二级防止误操作</t>
+  </si>
+  <si>
+    <t>祖光 华</t>
+  </si>
+  <si>
+    <t>1、能够理解补签是坑，但是签到的真正目的难道不是让玩家每天上线么？有了补签，会减少每天上线的玩家数量啊，不是很赞同这个功能</t>
+  </si>
+  <si>
+    <t>2、单个的框框有点丑</t>
+  </si>
+  <si>
+    <t>long xue</t>
+  </si>
+  <si>
+    <t>1.签到是越往后奖励越好么？否则为什么签到一直从前往后记录。</t>
+  </si>
+  <si>
+    <t>2.是否签到对应当天签到位置好一些。补签感觉应该是漏签的某天可以补签（现在补签全排在后面的）</t>
+  </si>
+  <si>
+    <t>3.是否有签到按钮会好一些，现在点那个可以签到不明显</t>
+  </si>
+  <si>
+    <t>Kathy Guo</t>
+  </si>
+  <si>
+    <t>1    每月可以签到多少天</t>
+  </si>
+  <si>
+    <t>2    当月已签没有总次数么？</t>
+  </si>
+  <si>
+    <t>3    补签在按钮上，多语言会不会太长</t>
+  </si>
+  <si>
+    <t>4    弹出界面中的信息有点多余，如：标题，签到成功</t>
+  </si>
+  <si>
+    <t>5    界面略丑，没有吸引力。为啥还用黑框，新的不都是全屏界面了么？</t>
+  </si>
+  <si>
+    <t>吴涛</t>
+  </si>
+  <si>
+    <t>1这个界面下面还有的话应该最下面一排应该显示一半</t>
+  </si>
+  <si>
+    <t>2弹出界面信息希望和获得奖励界面统一下</t>
+  </si>
+  <si>
+    <t>解：与雷神确认了下，确实在最后一次签到后会出现不知道是否签上的问题，故改成不自动关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个其实并不是特别限制，可以不限制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：其余也是现实数量的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个可以有</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：补签的成本其实挺高的，对于一般玩家来说远不如上线划算，应该不会对上线玩家数量有很大影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：框框是我自己加的，不代表铁马的审美</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是越往后越好或者给的东西越多，因为签到累计到15天的时候会给一个宠物，为了避免玩家只在这一天登录，所以需要累计签到</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：这个问题同上个问题的回答哈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：每天签到的icon上会有特效，应该会比较明显哈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：每个月是30天，应该是3行半显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：右上角</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是的应该显示三行半</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是与任务奖励界面使用一样的界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：界面是我拼的，不代表铁马审美，界面结构应该是这样</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：可以考虑将签到成功放在标题位置，中间只显示奖励内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：应该和商店的刷新按钮是一样的大小，可以显示下</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric Lee</t>
+  </si>
+  <si>
+    <t>可签到物品效果表现不明显，感觉不出需要点击物品才能签到</t>
+  </si>
+  <si>
+    <t>walker zhou</t>
+  </si>
+  <si>
+    <t>1. 点击图标签到缺少提示，看不出来要点</t>
+  </si>
+  <si>
+    <t>2. 排布列间距大于行间距，没有显现出类似日历的章法，看着乱</t>
+  </si>
+  <si>
+    <t>3. 补签可以提前签未来的？</t>
+  </si>
+  <si>
+    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：是我拼的图，不代表铁马的审美哈，每一行连在一起的话是不是会好一些</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：补签的意思是，当前已签到次数，小于可签到次数时，可以补签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前月份，玩家实际已经签到的次数/当月共可签到次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当月共可签到28次，已签到10次，则显示为10/28</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解：点击补签icon无法补签=。=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标样式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标显示在主界面左侧，玩家头像下方</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当前有可以进行的签到或者补签时，图标右上角有红点显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当前无可以进行的签到或者补签时，图标右上角无红点显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fat</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据UI评审回归文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到图标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面显示，代表签到的意思，常见有日历、笔记本等样式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考样式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议跟魔灵一样，最多签到少于28天，避免不必要的麻烦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不要拖动显示，一页显示全吧，一目了然。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议固定数量，方便制作和配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应补签次数指的是漏签到的那些次么？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果中间漏签了，再签到是跳过那些漏的么？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮不是通用的，商店刷新的是消耗在前，按钮文案在后</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可签次数为6吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签从正常理解上来讲应该是在今天可签到的前面吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面说的如果补签在可签到的前面，就不用判断这个是否已经签到了。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然有了补签，那就有一键补全部的需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面说的如果整个页面固定，这个移动也不用做了</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不要算上补签了吧。不然漏一天，就一直有红点，不太爽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个配置方式看程序吧，我感觉可能还会用reward的写法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少补签的配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次登陆签到界面要自动弹出么，签到有签到入口么</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0点仍在线，签到刷新么，另外此时界面默认弹出来么，还是重登弹出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与签到方式冲突，都是点对应内容，一个是签到一个是出tips
+金币经验宠物体力都是没有tips的，不影响么</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个数值要求不能少了</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不弹出，开着界面不刷新，打开刷新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示不下</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置不会变，程序限制下即可</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与商店刷新一致</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不跳过，依次向后排</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当日为一月份第六天，则当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到次数为6</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为是累计签到，所以每个格子其实并不代表是固定哪天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是对应的，见上面解释</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗是不固定的，所以一键补的需求其实并没有</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示不下，所以要做</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实我认为补签的红点其实是一种提示，如果都不建议有，可以搞掉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击签到界面中的内容项，若该项内容非今日签到项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（即已签到、不可签到、补签）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以显示对应内容项的tips内容</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础消耗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数消耗加成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数翻倍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格内容为上述三项，具体计算规则请参照 钻石兑换金币的计算规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签消耗配置表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补充</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补充；奖励没有经验、体力，金币和钻石可能需要补充下tips，因为用到的地方还挺多的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常签到界面入口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动弹出（写后面了）；有入口（写后面了）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日刷新后，玩家首次登录游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当日仍可签到，则自动弹出签到界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当日已签到或者无签到，则不自动弹出签到界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击主界面中签到图标，可以打开签到界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到刷新规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月1日0点刷新当月签到</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日0点刷新当日签到，若本月上一日没有进行签到，则可补签次数+1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家跨刷新点的情况处理方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后不会自动弹出签到界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家打开签到界面跨刷新点则界面不会自动刷新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家跨刷新点后点击图标打开签到界面，则界面界面刷新，同时可以进行下次签到操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充签到刷新规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充签到入口规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答qa文档分析问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月份2</t>
+  </si>
+  <si>
+    <t>一月份3</t>
+  </si>
+  <si>
+    <t>一月份4</t>
+  </si>
+  <si>
+    <t>一月份5</t>
+  </si>
+  <si>
+    <t>二月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月份2</t>
+  </si>
+  <si>
+    <t>二月份3</t>
+  </si>
+  <si>
+    <t>二月份4</t>
+  </si>
+  <si>
+    <t>二月份5</t>
+  </si>
+  <si>
+    <t>三月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月份2</t>
+  </si>
+  <si>
+    <t>三月份3</t>
+  </si>
+  <si>
+    <t>三月份4</t>
+  </si>
+  <si>
+    <t>三月份5</t>
+  </si>
+  <si>
+    <t>四月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月份2</t>
+  </si>
+  <si>
+    <t>四月份3</t>
+  </si>
+  <si>
+    <t>四月份4</t>
+  </si>
+  <si>
+    <t>四月份5</t>
+  </si>
+  <si>
+    <t>五月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月份2</t>
+  </si>
+  <si>
+    <t>五月份3</t>
+  </si>
+  <si>
+    <t>五月份4</t>
+  </si>
+  <si>
+    <t>五月份5</t>
+  </si>
+  <si>
+    <t>六月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月份2</t>
+  </si>
+  <si>
+    <t>六月份3</t>
+  </si>
+  <si>
+    <t>六月份4</t>
+  </si>
+  <si>
+    <t>六月份5</t>
+  </si>
+  <si>
+    <t>七月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月份2</t>
+  </si>
+  <si>
+    <t>七月份3</t>
+  </si>
+  <si>
+    <t>七月份4</t>
+  </si>
+  <si>
+    <t>七月份5</t>
+  </si>
+  <si>
+    <t>八月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月份2</t>
+  </si>
+  <si>
+    <t>八月份3</t>
+  </si>
+  <si>
+    <t>八月份4</t>
+  </si>
+  <si>
+    <t>八月份5</t>
+  </si>
+  <si>
+    <t>九月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月份2</t>
+  </si>
+  <si>
+    <t>九月份3</t>
+  </si>
+  <si>
+    <t>九月份4</t>
+  </si>
+  <si>
+    <t>九月份5</t>
+  </si>
+  <si>
+    <t>十月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月份2</t>
+  </si>
+  <si>
+    <t>十月份3</t>
+  </si>
+  <si>
+    <t>十月份4</t>
+  </si>
+  <si>
+    <t>十月份5</t>
+  </si>
+  <si>
+    <t>十一月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月份2</t>
+  </si>
+  <si>
+    <t>十一月份3</t>
+  </si>
+  <si>
+    <t>十一月份4</t>
+  </si>
+  <si>
+    <t>十一月份5</t>
+  </si>
+  <si>
+    <t>十二月份1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月份2</t>
+  </si>
+  <si>
+    <t>十二月份3</t>
+  </si>
+  <si>
+    <t>十二月份4</t>
+  </si>
+  <si>
+    <t>十二月份5</t>
+  </si>
+  <si>
+    <t>奖励配置表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第二列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第三列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第四列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第五列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>第六列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>二月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>三月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>四月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>六月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>七月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>八月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>十月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二月份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六列内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励数量配置表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励内容配置表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物/碎片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物/碎片一项填写宠物ID，若数量内容为-1则给予整只宠物，若数量内容为非-1，则给予对应碎片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动中制作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到界面打开后，如当日签到奖励未领取，则点击对应奖励的内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若奖励内容非整只宠物，即可弹出奖励领取框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若奖励内容为整只宠物，则弹出宠物获得界面（样式同抽蛋）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面结构</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励项样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取确认框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先完成当日签到后再进行补签操作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王磊</t>
-  </si>
-  <si>
-    <t>1.最后一次补签的时候，领完奖励后，直接关闭了签到界面，这不是一个友好的操作</t>
-  </si>
-  <si>
-    <t>2.一定要限制先签到然后才能补签么？</t>
-  </si>
-  <si>
-    <t>小星 吉</t>
-  </si>
-  <si>
-    <t>1.在签到奖励列表中，仅有金币和钻石能看到数量，其余道具看不到数量么？</t>
-  </si>
-  <si>
-    <t>2.在主界面若今日签到未领取是否有红点，若仍有补签机会是否有红点</t>
-  </si>
-  <si>
-    <t>3.点击可补签Icon是否能算是补签，若算是是否应该添加补签确认二级防止误操作</t>
-  </si>
-  <si>
-    <t>祖光 华</t>
-  </si>
-  <si>
-    <t>1、能够理解补签是坑，但是签到的真正目的难道不是让玩家每天上线么？有了补签，会减少每天上线的玩家数量啊，不是很赞同这个功能</t>
-  </si>
-  <si>
-    <t>2、单个的框框有点丑</t>
-  </si>
-  <si>
-    <t>long xue</t>
-  </si>
-  <si>
-    <t>1.签到是越往后奖励越好么？否则为什么签到一直从前往后记录。</t>
-  </si>
-  <si>
-    <t>2.是否签到对应当天签到位置好一些。补签感觉应该是漏签的某天可以补签（现在补签全排在后面的）</t>
-  </si>
-  <si>
-    <t>3.是否有签到按钮会好一些，现在点那个可以签到不明显</t>
-  </si>
-  <si>
-    <t>Kathy Guo</t>
-  </si>
-  <si>
-    <t>1    每月可以签到多少天</t>
-  </si>
-  <si>
-    <t>2    当月已签没有总次数么？</t>
-  </si>
-  <si>
-    <t>3    补签在按钮上，多语言会不会太长</t>
-  </si>
-  <si>
-    <t>4    弹出界面中的信息有点多余，如：标题，签到成功</t>
-  </si>
-  <si>
-    <t>5    界面略丑，没有吸引力。为啥还用黑框，新的不都是全屏界面了么？</t>
-  </si>
-  <si>
-    <t>吴涛</t>
-  </si>
-  <si>
-    <t>1这个界面下面还有的话应该最下面一排应该显示一半</t>
-  </si>
-  <si>
-    <t>2弹出界面信息希望和获得奖励界面统一下</t>
-  </si>
-  <si>
-    <t>解：与雷神确认了下，确实在最后一次签到后会出现不知道是否签上的问题，故改成不自动关闭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：这个其实并不是特别限制，可以不限制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：其余也是现实数量的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：这个可以有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：补签的成本其实挺高的，对于一般玩家来说远不如上线划算，应该不会对上线玩家数量有很大影响</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：框框是我自己加的，不代表铁马的审美</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：是越往后越好或者给的东西越多，因为签到累计到15天的时候会给一个宠物，为了避免玩家只在这一天登录，所以需要累计签到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：这个问题同上个问题的回答哈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：每天签到的icon上会有特效，应该会比较明显哈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：每个月是30天，应该是3行半显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：右上角</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：是的应该显示三行半</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：是与任务奖励界面使用一样的界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：界面是我拼的，不代表铁马审美，界面结构应该是这样</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：可以考虑将签到成功放在标题位置，中间只显示奖励内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：应该和商店的刷新按钮是一样的大小，可以显示下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eric Lee</t>
-  </si>
-  <si>
-    <t>可签到物品效果表现不明显，感觉不出需要点击物品才能签到</t>
-  </si>
-  <si>
-    <t>walker zhou</t>
-  </si>
-  <si>
-    <t>1. 点击图标签到缺少提示，看不出来要点</t>
-  </si>
-  <si>
-    <t>2. 排布列间距大于行间距，没有显现出类似日历的章法，看着乱</t>
-  </si>
-  <si>
-    <t>3. 补签可以提前签未来的？</t>
-  </si>
-  <si>
-    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：是我拼的图，不代表铁马的审美哈，每一行连在一起的话是不是会好一些</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：补签的意思是，当前已签到次数，小于可签到次数时，可以补签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前月份，玩家实际已经签到的次数/当月共可签到次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当月共可签到28次，已签到10次，则显示为10/28</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励内容图标下侧显示对应奖励内容数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解：点击补签icon无法补签=。=</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到图标样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到图标显示在主界面左侧，玩家头像下方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当当前有可以进行的签到或者补签时，图标右上角有红点显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当当前无可以进行的签到或者补签时，图标右上角无红点显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3fat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据UI评审回归文档</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到图标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面显示，代表签到的意思，常见有日历、笔记本等样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一项按照reward的配置方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，但是漏签只记录次数，不记录位置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>删掉暂时不做的内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>奖励内容图标下侧显示对应奖励内容数量，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量显示采用通用显示规则2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表格式修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充道具数量显示规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1152,13 +1475,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1170,8 +1486,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,13 +1547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,225 +1837,237 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1721,10 +2076,26 @@
     <cellStyle name="常规 4" xfId="3"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF9933"/>
@@ -1734,7 +2105,6 @@
       <color rgb="FFFF9999"/>
       <color rgb="FF0CEE62"/>
       <color rgb="FFFFCC99"/>
-      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1752,15 +2122,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>8281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>504589</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>99390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1790,15 +2160,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>331304</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1850,9 +2220,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>140805</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -1910,15 +2280,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>525946</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>77691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>515267</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1963,15 +2333,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>530087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>44727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2023,9 +2393,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>624510</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2083,15 +2453,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>39591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>311515</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2136,9 +2506,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2196,15 +2566,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>117530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2249,9 +2619,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>24849</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2309,15 +2679,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>117531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>24849</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2362,15 +2732,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>66260</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2422,9 +2792,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>223632</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2482,15 +2852,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>144946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>223632</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>167226</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2535,15 +2905,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>409883</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>173841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2573,9 +2943,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543931" cy="264560"/>
@@ -2631,16 +3001,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>150234</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>150233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2669,16 +3039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>204058</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>192887</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>192888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2707,15 +3077,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,15 +3137,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>160163</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>169280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2805,15 +3175,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>159756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2843,16 +3213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>267412</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2881,16 +3251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>434300</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>66259</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2919,9 +3289,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2977,16 +3347,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>82824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>397563</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>124599</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>124598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3015,16 +3385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3053,15 +3423,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>298056</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>165604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3091,16 +3461,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>173077</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>99343</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>306409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3129,16 +3499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>319176</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3167,9 +3537,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>472109</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>173936</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430824" cy="356316"/>
@@ -3232,16 +3602,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>198732</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3270,26 +3640,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463827</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>331303</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3901110" y="4207564"/>
-          <a:ext cx="3180520" cy="414131"/>
+          <a:off x="2393673" y="1532282"/>
+          <a:ext cx="4671391" cy="2650435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3328,28 +3698,142 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>143455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>255473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6990521" y="20228781"/>
+          <a:ext cx="670892" cy="319083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612914</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>258789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677979" y="20266041"/>
+          <a:ext cx="496957" cy="285139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>195417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642654" y="4217757"/>
+          <a:ext cx="3163956" cy="326029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331303</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393673" y="1532282"/>
-          <a:ext cx="4671391" cy="2650435"/>
+          <a:off x="3901110" y="4207564"/>
+          <a:ext cx="3180520" cy="414131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3987,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -4049,17 +4533,17 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
@@ -4068,76 +4552,76 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -4186,73 +4670,103 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="56" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C24" s="58">
         <v>42395</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="56"/>
       <c r="C25" s="58"/>
+      <c r="H25" s="22" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="56"/>
       <c r="C26" s="58"/>
+      <c r="H26" s="22" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="56"/>
       <c r="C27" s="58"/>
+      <c r="H27" s="56" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
+      <c r="H28" s="22" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="56"/>
       <c r="C29" s="58"/>
+      <c r="H29" s="56" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="58"/>
+      <c r="H30" s="22" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="56"/>
       <c r="B32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="C32" s="58"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="G35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4266,7 +4780,13 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" location="签到刷新规则" display="补充签到刷新规则"/>
+    <hyperlink ref="H26" location="日常签到界面入口" display="补充签到入口规则"/>
+    <hyperlink ref="H28" location="配置方式!A1" display="配置表格式修改"/>
+    <hyperlink ref="H30" location="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2" display="补充道具数量显示规则"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4281,268 +4801,268 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="76"/>
+    <col min="1" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="78" customFormat="1">
-      <c r="A1" s="77" t="s">
-        <v>164</v>
+    <row r="1" spans="1:2" s="75" customFormat="1">
+      <c r="A1" s="74" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
-        <v>165</v>
+      <c r="A2" s="72" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="75" t="s">
-        <v>187</v>
+      <c r="B3" s="72" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="75" customFormat="1">
+      <c r="A6" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="78" customFormat="1">
-      <c r="A6" s="77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="75" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="78" customFormat="1">
-      <c r="A13" s="77" t="s">
-        <v>171</v>
+    <row r="13" spans="1:2" s="75" customFormat="1">
+      <c r="A13" s="74" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="75" t="s">
-        <v>172</v>
+      <c r="A14" s="72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="75" t="s">
-        <v>191</v>
+      <c r="B15" s="72" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="75" t="s">
-        <v>173</v>
+      <c r="A16" s="72" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="78" customFormat="1">
-      <c r="A18" s="77" t="s">
-        <v>174</v>
+      <c r="B17" s="72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="75" customFormat="1">
+      <c r="A18" s="74" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="75" t="s">
-        <v>175</v>
+      <c r="A19" s="72" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="75" t="s">
-        <v>193</v>
+      <c r="B20" s="72" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="75" t="s">
-        <v>176</v>
+      <c r="A21" s="72" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="75" t="s">
-        <v>194</v>
+      <c r="B22" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75" t="s">
-        <v>177</v>
+      <c r="A23" s="72" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="78" customFormat="1">
-      <c r="A25" s="77" t="s">
-        <v>178</v>
+      <c r="B24" s="72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="75" customFormat="1">
+      <c r="A25" s="74" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="75" t="s">
-        <v>179</v>
+      <c r="A26" s="72" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="75" t="s">
-        <v>196</v>
+      <c r="B27" s="72" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="75" t="s">
-        <v>180</v>
+      <c r="A28" s="72" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="75" t="s">
-        <v>197</v>
+      <c r="B29" s="72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="75" t="s">
-        <v>181</v>
+      <c r="A30" s="72" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="B31" s="75" t="s">
-        <v>202</v>
+      <c r="B31" s="72" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="75" t="s">
-        <v>182</v>
+      <c r="A32" s="72" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="75" t="s">
-        <v>201</v>
+      <c r="B33" s="72" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="75" t="s">
-        <v>183</v>
+      <c r="A34" s="72" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="B35" s="75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="78" customFormat="1">
-      <c r="A36" s="77" t="s">
-        <v>184</v>
+      <c r="B35" s="72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="75" customFormat="1">
+      <c r="A36" s="74" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="75" t="s">
-        <v>185</v>
+      <c r="A37" s="72" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="B38" s="75" t="s">
-        <v>198</v>
+      <c r="B38" s="72" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="75" t="s">
-        <v>186</v>
+      <c r="A39" s="72" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="75" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="78" customFormat="1">
-      <c r="A41" s="77" t="s">
-        <v>203</v>
+      <c r="B40" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="75" customFormat="1">
+      <c r="A41" s="74" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="75" t="s">
-        <v>204</v>
+      <c r="A42" s="72" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="97" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="78" customFormat="1">
-      <c r="A44" s="77" t="s">
-        <v>205</v>
+      <c r="A43" s="76"/>
+      <c r="B43" s="77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="75" customFormat="1">
+      <c r="A44" s="74" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="75" t="s">
-        <v>206</v>
+      <c r="A45" s="72" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="97" t="s">
-        <v>210</v>
+      <c r="A46" s="72"/>
+      <c r="B46" s="77" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="75" t="s">
-        <v>207</v>
+      <c r="A47" s="72" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="97" t="s">
-        <v>211</v>
+      <c r="A48" s="72"/>
+      <c r="B48" s="77" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="75" t="s">
-        <v>208</v>
+      <c r="A49" s="72" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="75"/>
-      <c r="B50" s="97" t="s">
-        <v>212</v>
+      <c r="A50" s="72"/>
+      <c r="B50" s="77" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="C51" s="97"/>
+      <c r="C51" s="77"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4550,236 +5070,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X208"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="56"/>
-    <col min="3" max="3" width="8.625" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="8.625" style="56"/>
+    <col min="1" max="1" width="34.375" style="79" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="56"/>
+    <col min="4" max="4" width="8.625" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="55"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="55" t="s">
+    <row r="1" spans="1:22">
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" s="55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
+    <row r="3" spans="1:22">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="55"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="55" t="s">
+    <row r="4" spans="1:22">
+      <c r="C4" s="55"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="C6" s="56" t="s">
+    <row r="6" spans="1:22" ht="33">
+      <c r="A6" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="56" t="s">
+    <row r="7" spans="1:22" ht="33">
+      <c r="A7" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="56" t="s">
+    <row r="9" spans="1:22" ht="33">
+      <c r="A9" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
+    <row r="10" spans="1:22">
+      <c r="A10" s="82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="C13" s="55"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+    </row>
+    <row r="17" spans="5:22">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+    </row>
+    <row r="18" spans="5:22">
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="55"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+    </row>
+    <row r="19" spans="5:22">
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+    </row>
+    <row r="20" spans="5:22">
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+    </row>
+    <row r="21" spans="5:22">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+    </row>
+    <row r="22" spans="5:22">
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+    </row>
+    <row r="23" spans="5:22">
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
@@ -4787,19 +5320,9 @@
       <c r="S23" s="59"/>
       <c r="T23" s="59"/>
       <c r="U23" s="59"/>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
+      <c r="V23" s="59"/>
+    </row>
+    <row r="24" spans="5:22">
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="59"/>
@@ -4807,19 +5330,9 @@
       <c r="S24" s="59"/>
       <c r="T24" s="59"/>
       <c r="U24" s="59"/>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="V24" s="59"/>
+    </row>
+    <row r="25" spans="5:22">
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
@@ -4827,19 +5340,9 @@
       <c r="S25" s="59"/>
       <c r="T25" s="59"/>
       <c r="U25" s="59"/>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="V25" s="59"/>
+    </row>
+    <row r="26" spans="5:22">
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
@@ -4847,19 +5350,9 @@
       <c r="S26" s="59"/>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
+      <c r="V26" s="59"/>
+    </row>
+    <row r="27" spans="5:22">
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
@@ -4867,9 +5360,9 @@
       <c r="S27" s="59"/>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="N28" s="59"/>
+      <c r="V27" s="59"/>
+    </row>
+    <row r="28" spans="5:22">
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
@@ -4877,9 +5370,9 @@
       <c r="S28" s="59"/>
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="N29" s="59"/>
+      <c r="V28" s="59"/>
+    </row>
+    <row r="29" spans="5:22">
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
@@ -4887,9 +5380,9 @@
       <c r="S29" s="59"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="N30" s="59"/>
+      <c r="V29" s="59"/>
+    </row>
+    <row r="30" spans="5:22">
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
@@ -4897,9 +5390,9 @@
       <c r="S30" s="59"/>
       <c r="T30" s="59"/>
       <c r="U30" s="59"/>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="N31" s="59"/>
+      <c r="V30" s="59"/>
+    </row>
+    <row r="31" spans="5:22">
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
@@ -4907,9 +5400,9 @@
       <c r="S31" s="59"/>
       <c r="T31" s="59"/>
       <c r="U31" s="59"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="N32" s="59"/>
+      <c r="V31" s="59"/>
+    </row>
+    <row r="32" spans="5:22">
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
@@ -4917,9 +5410,15 @@
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
-    </row>
-    <row r="33" spans="3:21">
-      <c r="N33" s="59"/>
+      <c r="V32" s="59"/>
+    </row>
+    <row r="33" spans="4:22">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
@@ -4927,9 +5426,9 @@
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
-    </row>
-    <row r="34" spans="3:21">
-      <c r="N34" s="59"/>
+      <c r="V33" s="59"/>
+    </row>
+    <row r="34" spans="4:22">
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
@@ -4937,9 +5436,9 @@
       <c r="S34" s="59"/>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
-    </row>
-    <row r="35" spans="3:21">
-      <c r="N35" s="59"/>
+      <c r="V34" s="59"/>
+    </row>
+    <row r="35" spans="4:22">
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
@@ -4947,9 +5446,9 @@
       <c r="S35" s="59"/>
       <c r="T35" s="59"/>
       <c r="U35" s="59"/>
-    </row>
-    <row r="36" spans="3:21">
-      <c r="N36" s="59"/>
+      <c r="V35" s="59"/>
+    </row>
+    <row r="36" spans="4:22">
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
@@ -4957,9 +5456,9 @@
       <c r="S36" s="59"/>
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
-    </row>
-    <row r="37" spans="3:21">
-      <c r="N37" s="59"/>
+      <c r="V36" s="59"/>
+    </row>
+    <row r="37" spans="4:22">
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
@@ -4967,9 +5466,9 @@
       <c r="S37" s="59"/>
       <c r="T37" s="59"/>
       <c r="U37" s="59"/>
-    </row>
-    <row r="38" spans="3:21">
-      <c r="N38" s="59"/>
+      <c r="V37" s="59"/>
+    </row>
+    <row r="38" spans="4:22">
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
@@ -4977,9 +5476,9 @@
       <c r="S38" s="59"/>
       <c r="T38" s="59"/>
       <c r="U38" s="59"/>
-    </row>
-    <row r="39" spans="3:21">
-      <c r="N39" s="59"/>
+      <c r="V38" s="59"/>
+    </row>
+    <row r="39" spans="4:22">
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
@@ -4987,9 +5486,9 @@
       <c r="S39" s="59"/>
       <c r="T39" s="59"/>
       <c r="U39" s="59"/>
-    </row>
-    <row r="40" spans="3:21">
-      <c r="N40" s="59"/>
+      <c r="V39" s="59"/>
+    </row>
+    <row r="40" spans="4:22">
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
@@ -4997,9 +5496,9 @@
       <c r="S40" s="59"/>
       <c r="T40" s="59"/>
       <c r="U40" s="59"/>
-    </row>
-    <row r="41" spans="3:21">
-      <c r="N41" s="59"/>
+      <c r="V40" s="59"/>
+    </row>
+    <row r="41" spans="4:22">
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -5007,15 +5506,9 @@
       <c r="S41" s="59"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
-    </row>
-    <row r="42" spans="3:21">
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="N42" s="59"/>
+      <c r="V41" s="59"/>
+    </row>
+    <row r="42" spans="4:22">
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
@@ -5023,9 +5516,9 @@
       <c r="S42" s="59"/>
       <c r="T42" s="59"/>
       <c r="U42" s="59"/>
-    </row>
-    <row r="43" spans="3:21">
-      <c r="N43" s="59"/>
+      <c r="V42" s="59"/>
+    </row>
+    <row r="43" spans="4:22">
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
@@ -5033,9 +5526,9 @@
       <c r="S43" s="59"/>
       <c r="T43" s="59"/>
       <c r="U43" s="59"/>
-    </row>
-    <row r="44" spans="3:21">
-      <c r="N44" s="59"/>
+      <c r="V43" s="59"/>
+    </row>
+    <row r="44" spans="4:22">
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
@@ -5043,9 +5536,9 @@
       <c r="S44" s="59"/>
       <c r="T44" s="59"/>
       <c r="U44" s="59"/>
-    </row>
-    <row r="45" spans="3:21">
-      <c r="N45" s="59"/>
+      <c r="V44" s="59"/>
+    </row>
+    <row r="45" spans="4:22">
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
@@ -5053,9 +5546,9 @@
       <c r="S45" s="59"/>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
-    </row>
-    <row r="46" spans="3:21">
-      <c r="N46" s="59"/>
+      <c r="V45" s="59"/>
+    </row>
+    <row r="46" spans="4:22">
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="59"/>
@@ -5063,9 +5556,9 @@
       <c r="S46" s="59"/>
       <c r="T46" s="59"/>
       <c r="U46" s="59"/>
-    </row>
-    <row r="47" spans="3:21">
-      <c r="N47" s="59"/>
+      <c r="V46" s="59"/>
+    </row>
+    <row r="47" spans="4:22">
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59"/>
@@ -5073,9 +5566,9 @@
       <c r="S47" s="59"/>
       <c r="T47" s="59"/>
       <c r="U47" s="59"/>
-    </row>
-    <row r="48" spans="3:21">
-      <c r="N48" s="59"/>
+      <c r="V47" s="59"/>
+    </row>
+    <row r="48" spans="4:22">
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
@@ -5083,9 +5576,9 @@
       <c r="S48" s="59"/>
       <c r="T48" s="59"/>
       <c r="U48" s="59"/>
-    </row>
-    <row r="49" spans="4:21">
-      <c r="N49" s="59"/>
+      <c r="V48" s="59"/>
+    </row>
+    <row r="49" spans="4:22">
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="59"/>
@@ -5093,9 +5586,9 @@
       <c r="S49" s="59"/>
       <c r="T49" s="59"/>
       <c r="U49" s="59"/>
-    </row>
-    <row r="50" spans="4:21">
-      <c r="N50" s="59"/>
+      <c r="V49" s="59"/>
+    </row>
+    <row r="50" spans="4:22">
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="59"/>
@@ -5103,9 +5596,9 @@
       <c r="S50" s="59"/>
       <c r="T50" s="59"/>
       <c r="U50" s="59"/>
-    </row>
-    <row r="51" spans="4:21">
-      <c r="N51" s="59"/>
+      <c r="V50" s="59"/>
+    </row>
+    <row r="51" spans="4:22">
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="59"/>
@@ -5113,9 +5606,9 @@
       <c r="S51" s="59"/>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
-    </row>
-    <row r="52" spans="4:21">
-      <c r="N52" s="59"/>
+      <c r="V51" s="59"/>
+    </row>
+    <row r="52" spans="4:22">
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
@@ -5123,9 +5616,9 @@
       <c r="S52" s="59"/>
       <c r="T52" s="59"/>
       <c r="U52" s="59"/>
-    </row>
-    <row r="53" spans="4:21">
-      <c r="N53" s="59"/>
+      <c r="V52" s="59"/>
+    </row>
+    <row r="53" spans="4:22">
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
@@ -5133,9 +5626,12 @@
       <c r="S53" s="59"/>
       <c r="T53" s="59"/>
       <c r="U53" s="59"/>
-    </row>
-    <row r="54" spans="4:21">
-      <c r="N54" s="59"/>
+      <c r="V53" s="59"/>
+    </row>
+    <row r="54" spans="4:22">
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
       <c r="O54" s="59"/>
       <c r="P54" s="59"/>
       <c r="Q54" s="59"/>
@@ -5143,9 +5639,12 @@
       <c r="S54" s="59"/>
       <c r="T54" s="59"/>
       <c r="U54" s="59"/>
-    </row>
-    <row r="55" spans="4:21">
-      <c r="N55" s="59"/>
+      <c r="V54" s="59"/>
+    </row>
+    <row r="55" spans="4:22">
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
       <c r="O55" s="59"/>
       <c r="P55" s="59"/>
       <c r="Q55" s="59"/>
@@ -5153,9 +5652,12 @@
       <c r="S55" s="59"/>
       <c r="T55" s="59"/>
       <c r="U55" s="59"/>
-    </row>
-    <row r="56" spans="4:21">
-      <c r="N56" s="59"/>
+      <c r="V55" s="59"/>
+    </row>
+    <row r="56" spans="4:22">
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
       <c r="O56" s="59"/>
       <c r="P56" s="59"/>
       <c r="Q56" s="59"/>
@@ -5163,9 +5665,12 @@
       <c r="S56" s="59"/>
       <c r="T56" s="59"/>
       <c r="U56" s="59"/>
-    </row>
-    <row r="57" spans="4:21">
-      <c r="N57" s="59"/>
+      <c r="V56" s="59"/>
+    </row>
+    <row r="57" spans="4:22">
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
       <c r="O57" s="59"/>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
@@ -5173,9 +5678,12 @@
       <c r="S57" s="59"/>
       <c r="T57" s="59"/>
       <c r="U57" s="59"/>
-    </row>
-    <row r="58" spans="4:21">
-      <c r="N58" s="59"/>
+      <c r="V57" s="59"/>
+    </row>
+    <row r="58" spans="4:22">
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
       <c r="O58" s="59"/>
       <c r="P58" s="59"/>
       <c r="Q58" s="59"/>
@@ -5183,9 +5691,12 @@
       <c r="S58" s="59"/>
       <c r="T58" s="59"/>
       <c r="U58" s="59"/>
-    </row>
-    <row r="59" spans="4:21">
-      <c r="N59" s="59"/>
+      <c r="V58" s="59"/>
+    </row>
+    <row r="59" spans="4:22">
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
       <c r="Q59" s="59"/>
@@ -5193,9 +5704,12 @@
       <c r="S59" s="59"/>
       <c r="T59" s="59"/>
       <c r="U59" s="59"/>
-    </row>
-    <row r="60" spans="4:21">
-      <c r="N60" s="59"/>
+      <c r="V59" s="59"/>
+    </row>
+    <row r="60" spans="4:22">
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
       <c r="O60" s="59"/>
       <c r="P60" s="59"/>
       <c r="Q60" s="59"/>
@@ -5203,9 +5717,12 @@
       <c r="S60" s="59"/>
       <c r="T60" s="59"/>
       <c r="U60" s="59"/>
-    </row>
-    <row r="61" spans="4:21">
-      <c r="N61" s="59"/>
+      <c r="V60" s="59"/>
+    </row>
+    <row r="61" spans="4:22">
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
       <c r="O61" s="59"/>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
@@ -5213,9 +5730,12 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59"/>
-    </row>
-    <row r="62" spans="4:21">
-      <c r="N62" s="59"/>
+      <c r="V61" s="59"/>
+    </row>
+    <row r="62" spans="4:22">
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
       <c r="O62" s="59"/>
       <c r="P62" s="59"/>
       <c r="Q62" s="59"/>
@@ -5223,12 +5743,15 @@
       <c r="S62" s="59"/>
       <c r="T62" s="59"/>
       <c r="U62" s="59"/>
-    </row>
-    <row r="63" spans="4:21">
+      <c r="V62" s="59"/>
+    </row>
+    <row r="63" spans="4:22">
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
-      <c r="N63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
       <c r="O63" s="59"/>
       <c r="P63" s="59"/>
       <c r="Q63" s="59"/>
@@ -5236,12 +5759,15 @@
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
       <c r="U63" s="59"/>
-    </row>
-    <row r="64" spans="4:21">
+      <c r="V63" s="59"/>
+    </row>
+    <row r="64" spans="4:22">
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
-      <c r="N64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
       <c r="O64" s="59"/>
       <c r="P64" s="59"/>
       <c r="Q64" s="59"/>
@@ -5249,12 +5775,15 @@
       <c r="S64" s="59"/>
       <c r="T64" s="59"/>
       <c r="U64" s="59"/>
-    </row>
-    <row r="65" spans="2:21">
+      <c r="V64" s="59"/>
+    </row>
+    <row r="65" spans="3:22">
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
-      <c r="N65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
       <c r="O65" s="59"/>
       <c r="P65" s="59"/>
       <c r="Q65" s="59"/>
@@ -5262,12 +5791,15 @@
       <c r="S65" s="59"/>
       <c r="T65" s="59"/>
       <c r="U65" s="59"/>
-    </row>
-    <row r="66" spans="2:21">
+      <c r="V65" s="59"/>
+    </row>
+    <row r="66" spans="3:22">
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
-      <c r="N66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
       <c r="O66" s="59"/>
       <c r="P66" s="59"/>
       <c r="Q66" s="59"/>
@@ -5275,12 +5807,15 @@
       <c r="S66" s="59"/>
       <c r="T66" s="59"/>
       <c r="U66" s="59"/>
-    </row>
-    <row r="67" spans="2:21">
+      <c r="V66" s="59"/>
+    </row>
+    <row r="67" spans="3:22">
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
-      <c r="N67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
       <c r="Q67" s="59"/>
@@ -5288,12 +5823,9 @@
       <c r="S67" s="59"/>
       <c r="T67" s="59"/>
       <c r="U67" s="59"/>
-    </row>
-    <row r="68" spans="2:21">
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="N68" s="59"/>
+      <c r="V67" s="59"/>
+    </row>
+    <row r="68" spans="3:22">
       <c r="O68" s="59"/>
       <c r="P68" s="59"/>
       <c r="Q68" s="59"/>
@@ -5301,11 +5833,20 @@
       <c r="S68" s="59"/>
       <c r="T68" s="59"/>
       <c r="U68" s="59"/>
-    </row>
-    <row r="69" spans="2:21">
+      <c r="V68" s="59"/>
+    </row>
+    <row r="69" spans="3:22" ht="16.5" customHeight="1">
+      <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
       <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
       <c r="N69" s="59"/>
       <c r="O69" s="59"/>
       <c r="P69" s="59"/>
@@ -5314,11 +5855,20 @@
       <c r="S69" s="59"/>
       <c r="T69" s="59"/>
       <c r="U69" s="59"/>
-    </row>
-    <row r="70" spans="2:21">
+      <c r="V69" s="59"/>
+    </row>
+    <row r="70" spans="3:22" ht="16.5" customHeight="1">
+      <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
       <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
       <c r="N70" s="59"/>
       <c r="O70" s="59"/>
       <c r="P70" s="59"/>
@@ -5327,11 +5877,20 @@
       <c r="S70" s="59"/>
       <c r="T70" s="59"/>
       <c r="U70" s="59"/>
-    </row>
-    <row r="71" spans="2:21">
+      <c r="V70" s="59"/>
+    </row>
+    <row r="71" spans="3:22" ht="16.5" customHeight="1">
+      <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
       <c r="N71" s="59"/>
       <c r="O71" s="59"/>
       <c r="P71" s="59"/>
@@ -5340,15 +5899,17 @@
       <c r="S71" s="59"/>
       <c r="T71" s="59"/>
       <c r="U71" s="59"/>
-    </row>
-    <row r="72" spans="2:21">
+      <c r="V71" s="59"/>
+    </row>
+    <row r="72" spans="3:22">
       <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
-      <c r="N72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
       <c r="O72" s="59"/>
       <c r="P72" s="59"/>
       <c r="Q72" s="59"/>
@@ -5356,15 +5917,9 @@
       <c r="S72" s="59"/>
       <c r="T72" s="59"/>
       <c r="U72" s="59"/>
-    </row>
-    <row r="73" spans="2:21">
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="N73" s="59"/>
+      <c r="V72" s="59"/>
+    </row>
+    <row r="73" spans="3:22">
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
       <c r="Q73" s="59"/>
@@ -5372,15 +5927,9 @@
       <c r="S73" s="59"/>
       <c r="T73" s="59"/>
       <c r="U73" s="59"/>
-    </row>
-    <row r="74" spans="2:21">
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="N74" s="59"/>
+      <c r="V73" s="59"/>
+    </row>
+    <row r="74" spans="3:22">
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
       <c r="Q74" s="59"/>
@@ -5388,15 +5937,9 @@
       <c r="S74" s="59"/>
       <c r="T74" s="59"/>
       <c r="U74" s="59"/>
-    </row>
-    <row r="75" spans="2:21">
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="N75" s="59"/>
+      <c r="V74" s="59"/>
+    </row>
+    <row r="75" spans="3:22">
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
       <c r="Q75" s="59"/>
@@ -5404,15 +5947,9 @@
       <c r="S75" s="59"/>
       <c r="T75" s="59"/>
       <c r="U75" s="59"/>
-    </row>
-    <row r="76" spans="2:21">
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="N76" s="59"/>
+      <c r="V75" s="59"/>
+    </row>
+    <row r="76" spans="3:22">
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
       <c r="Q76" s="59"/>
@@ -5420,9 +5957,9 @@
       <c r="S76" s="59"/>
       <c r="T76" s="59"/>
       <c r="U76" s="59"/>
-    </row>
-    <row r="77" spans="2:21">
-      <c r="N77" s="59"/>
+      <c r="V76" s="59"/>
+    </row>
+    <row r="77" spans="3:22">
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="59"/>
@@ -5430,21 +5967,9 @@
       <c r="S77" s="59"/>
       <c r="T77" s="59"/>
       <c r="U77" s="59"/>
-    </row>
-    <row r="78" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
+      <c r="V77" s="59"/>
+    </row>
+    <row r="78" spans="3:22">
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
       <c r="Q78" s="59"/>
@@ -5452,21 +5977,9 @@
       <c r="S78" s="59"/>
       <c r="T78" s="59"/>
       <c r="U78" s="59"/>
-    </row>
-    <row r="79" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
+      <c r="V78" s="59"/>
+    </row>
+    <row r="79" spans="3:22">
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
       <c r="Q79" s="59"/>
@@ -5474,21 +5987,9 @@
       <c r="S79" s="59"/>
       <c r="T79" s="59"/>
       <c r="U79" s="59"/>
-    </row>
-    <row r="80" spans="2:21" ht="16.5" customHeight="1">
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
+      <c r="V79" s="59"/>
+    </row>
+    <row r="80" spans="3:22">
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
       <c r="Q80" s="59"/>
@@ -5496,17 +5997,9 @@
       <c r="S80" s="59"/>
       <c r="T80" s="59"/>
       <c r="U80" s="59"/>
-    </row>
-    <row r="81" spans="2:21">
-      <c r="B81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="N81" s="59"/>
+      <c r="V80" s="59"/>
+    </row>
+    <row r="81" spans="15:22">
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
       <c r="Q81" s="59"/>
@@ -5514,9 +6007,9 @@
       <c r="S81" s="59"/>
       <c r="T81" s="59"/>
       <c r="U81" s="59"/>
-    </row>
-    <row r="82" spans="2:21">
-      <c r="N82" s="59"/>
+      <c r="V81" s="59"/>
+    </row>
+    <row r="82" spans="15:22">
       <c r="O82" s="59"/>
       <c r="P82" s="59"/>
       <c r="Q82" s="59"/>
@@ -5524,9 +6017,9 @@
       <c r="S82" s="59"/>
       <c r="T82" s="59"/>
       <c r="U82" s="59"/>
-    </row>
-    <row r="83" spans="2:21">
-      <c r="N83" s="59"/>
+      <c r="V82" s="59"/>
+    </row>
+    <row r="83" spans="15:22">
       <c r="O83" s="59"/>
       <c r="P83" s="59"/>
       <c r="Q83" s="59"/>
@@ -5534,9 +6027,9 @@
       <c r="S83" s="59"/>
       <c r="T83" s="59"/>
       <c r="U83" s="59"/>
-    </row>
-    <row r="84" spans="2:21">
-      <c r="N84" s="59"/>
+      <c r="V83" s="59"/>
+    </row>
+    <row r="84" spans="15:22">
       <c r="O84" s="59"/>
       <c r="P84" s="59"/>
       <c r="Q84" s="59"/>
@@ -5544,9 +6037,9 @@
       <c r="S84" s="59"/>
       <c r="T84" s="59"/>
       <c r="U84" s="59"/>
-    </row>
-    <row r="85" spans="2:21">
-      <c r="N85" s="59"/>
+      <c r="V84" s="59"/>
+    </row>
+    <row r="85" spans="15:22">
       <c r="O85" s="59"/>
       <c r="P85" s="59"/>
       <c r="Q85" s="59"/>
@@ -5554,9 +6047,9 @@
       <c r="S85" s="59"/>
       <c r="T85" s="59"/>
       <c r="U85" s="59"/>
-    </row>
-    <row r="86" spans="2:21">
-      <c r="N86" s="59"/>
+      <c r="V85" s="59"/>
+    </row>
+    <row r="86" spans="15:22">
       <c r="O86" s="59"/>
       <c r="P86" s="59"/>
       <c r="Q86" s="59"/>
@@ -5564,9 +6057,9 @@
       <c r="S86" s="59"/>
       <c r="T86" s="59"/>
       <c r="U86" s="59"/>
-    </row>
-    <row r="87" spans="2:21">
-      <c r="N87" s="59"/>
+      <c r="V86" s="59"/>
+    </row>
+    <row r="87" spans="15:22">
       <c r="O87" s="59"/>
       <c r="P87" s="59"/>
       <c r="Q87" s="59"/>
@@ -5574,9 +6067,9 @@
       <c r="S87" s="59"/>
       <c r="T87" s="59"/>
       <c r="U87" s="59"/>
-    </row>
-    <row r="88" spans="2:21">
-      <c r="N88" s="59"/>
+      <c r="V87" s="59"/>
+    </row>
+    <row r="88" spans="15:22">
       <c r="O88" s="59"/>
       <c r="P88" s="59"/>
       <c r="Q88" s="59"/>
@@ -5584,9 +6077,9 @@
       <c r="S88" s="59"/>
       <c r="T88" s="59"/>
       <c r="U88" s="59"/>
-    </row>
-    <row r="89" spans="2:21">
-      <c r="N89" s="59"/>
+      <c r="V88" s="59"/>
+    </row>
+    <row r="89" spans="15:22">
       <c r="O89" s="59"/>
       <c r="P89" s="59"/>
       <c r="Q89" s="59"/>
@@ -5594,9 +6087,9 @@
       <c r="S89" s="59"/>
       <c r="T89" s="59"/>
       <c r="U89" s="59"/>
-    </row>
-    <row r="90" spans="2:21">
-      <c r="N90" s="59"/>
+      <c r="V89" s="59"/>
+    </row>
+    <row r="90" spans="15:22">
       <c r="O90" s="59"/>
       <c r="P90" s="59"/>
       <c r="Q90" s="59"/>
@@ -5604,9 +6097,9 @@
       <c r="S90" s="59"/>
       <c r="T90" s="59"/>
       <c r="U90" s="59"/>
-    </row>
-    <row r="91" spans="2:21">
-      <c r="N91" s="59"/>
+      <c r="V90" s="59"/>
+    </row>
+    <row r="91" spans="15:22">
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
       <c r="Q91" s="59"/>
@@ -5614,9 +6107,9 @@
       <c r="S91" s="59"/>
       <c r="T91" s="59"/>
       <c r="U91" s="59"/>
-    </row>
-    <row r="92" spans="2:21">
-      <c r="N92" s="59"/>
+      <c r="V91" s="59"/>
+    </row>
+    <row r="92" spans="15:22">
       <c r="O92" s="59"/>
       <c r="P92" s="59"/>
       <c r="Q92" s="59"/>
@@ -5624,9 +6117,9 @@
       <c r="S92" s="59"/>
       <c r="T92" s="59"/>
       <c r="U92" s="59"/>
-    </row>
-    <row r="93" spans="2:21">
-      <c r="N93" s="59"/>
+      <c r="V92" s="59"/>
+    </row>
+    <row r="93" spans="15:22">
       <c r="O93" s="59"/>
       <c r="P93" s="59"/>
       <c r="Q93" s="59"/>
@@ -5634,9 +6127,9 @@
       <c r="S93" s="59"/>
       <c r="T93" s="59"/>
       <c r="U93" s="59"/>
-    </row>
-    <row r="94" spans="2:21">
-      <c r="N94" s="59"/>
+      <c r="V93" s="59"/>
+    </row>
+    <row r="94" spans="15:22">
       <c r="O94" s="59"/>
       <c r="P94" s="59"/>
       <c r="Q94" s="59"/>
@@ -5644,9 +6137,9 @@
       <c r="S94" s="59"/>
       <c r="T94" s="59"/>
       <c r="U94" s="59"/>
-    </row>
-    <row r="95" spans="2:21">
-      <c r="N95" s="59"/>
+      <c r="V94" s="59"/>
+    </row>
+    <row r="95" spans="15:22">
       <c r="O95" s="59"/>
       <c r="P95" s="59"/>
       <c r="Q95" s="59"/>
@@ -5654,9 +6147,9 @@
       <c r="S95" s="59"/>
       <c r="T95" s="59"/>
       <c r="U95" s="59"/>
-    </row>
-    <row r="96" spans="2:21">
-      <c r="N96" s="59"/>
+      <c r="V95" s="59"/>
+    </row>
+    <row r="96" spans="15:22">
       <c r="O96" s="59"/>
       <c r="P96" s="59"/>
       <c r="Q96" s="59"/>
@@ -5664,99 +6157,159 @@
       <c r="S96" s="59"/>
       <c r="T96" s="59"/>
       <c r="U96" s="59"/>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96" s="59"/>
+    </row>
+    <row r="97" spans="2:18">
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
       <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="59"/>
-      <c r="S97" s="59"/>
-      <c r="T97" s="59"/>
-      <c r="U97" s="59"/>
-    </row>
-    <row r="98" spans="1:21">
+    </row>
+    <row r="98" spans="2:18">
+      <c r="B98" s="37"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
       <c r="N98" s="59"/>
       <c r="O98" s="59"/>
       <c r="P98" s="59"/>
       <c r="Q98" s="59"/>
       <c r="R98" s="59"/>
-      <c r="S98" s="59"/>
-      <c r="T98" s="59"/>
-      <c r="U98" s="59"/>
-    </row>
-    <row r="99" spans="1:21">
+    </row>
+    <row r="99" spans="2:18">
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
       <c r="N99" s="59"/>
       <c r="O99" s="59"/>
       <c r="P99" s="59"/>
       <c r="Q99" s="59"/>
       <c r="R99" s="59"/>
-      <c r="S99" s="59"/>
-      <c r="T99" s="59"/>
-      <c r="U99" s="59"/>
-    </row>
-    <row r="100" spans="1:21">
+    </row>
+    <row r="100" spans="2:18">
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
       <c r="N100" s="59"/>
       <c r="O100" s="59"/>
       <c r="P100" s="59"/>
       <c r="Q100" s="59"/>
       <c r="R100" s="59"/>
-      <c r="S100" s="59"/>
-      <c r="T100" s="59"/>
-      <c r="U100" s="59"/>
-    </row>
-    <row r="101" spans="1:21">
+    </row>
+    <row r="101" spans="2:18">
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
       <c r="N101" s="59"/>
       <c r="O101" s="59"/>
       <c r="P101" s="59"/>
       <c r="Q101" s="59"/>
       <c r="R101" s="59"/>
-      <c r="S101" s="59"/>
-      <c r="T101" s="59"/>
-      <c r="U101" s="59"/>
-    </row>
-    <row r="102" spans="1:21">
+    </row>
+    <row r="102" spans="2:18">
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
       <c r="N102" s="59"/>
       <c r="O102" s="59"/>
       <c r="P102" s="59"/>
       <c r="Q102" s="59"/>
       <c r="R102" s="59"/>
-      <c r="S102" s="59"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-    </row>
-    <row r="103" spans="1:21">
+    </row>
+    <row r="103" spans="2:18">
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="59"/>
       <c r="N103" s="59"/>
       <c r="O103" s="59"/>
       <c r="P103" s="59"/>
       <c r="Q103" s="59"/>
       <c r="R103" s="59"/>
-      <c r="S103" s="59"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-    </row>
-    <row r="104" spans="1:21">
+    </row>
+    <row r="104" spans="2:18">
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
       <c r="N104" s="59"/>
       <c r="O104" s="59"/>
       <c r="P104" s="59"/>
       <c r="Q104" s="59"/>
       <c r="R104" s="59"/>
-      <c r="S104" s="59"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-    </row>
-    <row r="105" spans="1:21">
+    </row>
+    <row r="105" spans="2:18">
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
       <c r="N105" s="59"/>
       <c r="O105" s="59"/>
       <c r="P105" s="59"/>
       <c r="Q105" s="59"/>
       <c r="R105" s="59"/>
-      <c r="S105" s="59"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="59"/>
-    </row>
-    <row r="106" spans="1:21">
-      <c r="C106" s="59"/>
+    </row>
+    <row r="106" spans="2:18">
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -5767,10 +6320,13 @@
       <c r="K106" s="59"/>
       <c r="L106" s="59"/>
       <c r="M106" s="59"/>
-    </row>
-    <row r="107" spans="1:21">
-      <c r="A107" s="37"/>
-      <c r="C107" s="59"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="59"/>
+    </row>
+    <row r="107" spans="2:18">
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -5785,9 +6341,9 @@
       <c r="O107" s="59"/>
       <c r="P107" s="59"/>
       <c r="Q107" s="59"/>
-    </row>
-    <row r="108" spans="1:21">
-      <c r="C108" s="59"/>
+      <c r="R107" s="59"/>
+    </row>
+    <row r="108" spans="2:18">
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -5802,9 +6358,9 @@
       <c r="O108" s="59"/>
       <c r="P108" s="59"/>
       <c r="Q108" s="59"/>
-    </row>
-    <row r="109" spans="1:21">
-      <c r="C109" s="59"/>
+      <c r="R108" s="59"/>
+    </row>
+    <row r="109" spans="2:18">
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -5819,9 +6375,10 @@
       <c r="O109" s="59"/>
       <c r="P109" s="59"/>
       <c r="Q109" s="59"/>
-    </row>
-    <row r="110" spans="1:21">
-      <c r="C110" s="59"/>
+      <c r="R109" s="59"/>
+    </row>
+    <row r="110" spans="2:18">
+      <c r="C110" s="55"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -5836,205 +6393,177 @@
       <c r="O110" s="59"/>
       <c r="P110" s="59"/>
       <c r="Q110" s="59"/>
-    </row>
-    <row r="111" spans="1:21">
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-    </row>
-    <row r="112" spans="1:21">
-      <c r="C112" s="59"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="59"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="59"/>
-      <c r="N112" s="59"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-    </row>
-    <row r="113" spans="2:17">
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="59"/>
-      <c r="L113" s="59"/>
-      <c r="M113" s="59"/>
-      <c r="N113" s="59"/>
-      <c r="O113" s="59"/>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="59"/>
-    </row>
-    <row r="114" spans="2:17">
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-    </row>
-    <row r="115" spans="2:17">
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="59"/>
-      <c r="M115" s="59"/>
-      <c r="N115" s="59"/>
-      <c r="O115" s="59"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-    </row>
-    <row r="116" spans="2:17">
-      <c r="C116" s="59"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="59"/>
-      <c r="L116" s="59"/>
-      <c r="M116" s="59"/>
-      <c r="N116" s="59"/>
-      <c r="O116" s="59"/>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-    </row>
-    <row r="117" spans="2:17">
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="59"/>
-      <c r="N117" s="59"/>
-      <c r="O117" s="59"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-    </row>
-    <row r="118" spans="2:17">
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="59"/>
-      <c r="L118" s="59"/>
-      <c r="M118" s="59"/>
-      <c r="N118" s="59"/>
-      <c r="O118" s="59"/>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-    </row>
-    <row r="119" spans="2:17">
-      <c r="B119" s="55"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="59"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
-      <c r="H119" s="59"/>
-      <c r="I119" s="59"/>
-      <c r="J119" s="59"/>
-      <c r="K119" s="59"/>
-      <c r="L119" s="59"/>
-      <c r="M119" s="59"/>
-      <c r="N119" s="59"/>
-      <c r="O119" s="59"/>
-      <c r="P119" s="59"/>
-      <c r="Q119" s="59"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="37"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="38"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="38"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="38"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="38"/>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="38"/>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="D146" s="59"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="R110" s="59"/>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="37"/>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="38"/>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="38"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="38"/>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="38"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="38"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="59"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="59"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="59"/>
+    </row>
+    <row r="145" spans="4:15">
+      <c r="H145" s="62"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+    </row>
+    <row r="148" spans="4:15">
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
       <c r="G148" s="59"/>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="G154" s="62"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="59"/>
+      <c r="K148" s="59"/>
+      <c r="L148" s="59"/>
+      <c r="M148" s="59"/>
+      <c r="N148" s="59"/>
+      <c r="O148" s="59"/>
+    </row>
+    <row r="149" spans="4:15">
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="59"/>
+      <c r="H149" s="59"/>
+      <c r="I149" s="59"/>
+      <c r="J149" s="59"/>
+      <c r="K149" s="59"/>
+      <c r="L149" s="59"/>
+      <c r="M149" s="59"/>
+      <c r="N149" s="59"/>
+      <c r="O149" s="59"/>
+    </row>
+    <row r="150" spans="4:15">
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="59"/>
+      <c r="L150" s="59"/>
+      <c r="M150" s="59"/>
+      <c r="N150" s="59"/>
+      <c r="O150" s="59"/>
+    </row>
+    <row r="151" spans="4:15">
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="59"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="59"/>
+      <c r="N151" s="59"/>
+      <c r="O151" s="59"/>
+    </row>
+    <row r="152" spans="4:15">
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="59"/>
+      <c r="L152" s="59"/>
+      <c r="M152" s="59"/>
+      <c r="N152" s="59"/>
+      <c r="O152" s="59"/>
+    </row>
+    <row r="153" spans="4:15">
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
+      <c r="L153" s="59"/>
+      <c r="M153" s="59"/>
+      <c r="N153" s="59"/>
+      <c r="O153" s="59"/>
+    </row>
+    <row r="154" spans="4:15">
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
       <c r="H154" s="59"/>
       <c r="I154" s="59"/>
       <c r="J154" s="59"/>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="C157" s="59"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="59"/>
+      <c r="N154" s="59"/>
+      <c r="O154" s="59"/>
+    </row>
+    <row r="155" spans="4:15">
+      <c r="D155" s="59"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59"/>
+      <c r="H155" s="59"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="59"/>
+      <c r="L155" s="59"/>
+      <c r="M155" s="59"/>
+      <c r="N155" s="59"/>
+      <c r="O155" s="59"/>
+    </row>
+    <row r="156" spans="4:15">
+      <c r="D156" s="59"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="59"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="59"/>
+      <c r="K156" s="59"/>
+      <c r="L156" s="59"/>
+      <c r="M156" s="59"/>
+      <c r="N156" s="59"/>
+      <c r="O156" s="59"/>
+    </row>
+    <row r="157" spans="4:15">
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -6046,79 +6575,79 @@
       <c r="L157" s="59"/>
       <c r="M157" s="59"/>
       <c r="N157" s="59"/>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="C158" s="59"/>
+      <c r="O157" s="59"/>
+    </row>
+    <row r="158" spans="4:15">
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
       <c r="G158" s="59"/>
-      <c r="H158" s="59"/>
+      <c r="H158" s="62"/>
       <c r="I158" s="59"/>
       <c r="J158" s="59"/>
       <c r="K158" s="59"/>
       <c r="L158" s="59"/>
       <c r="M158" s="59"/>
       <c r="N158" s="59"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="C159" s="59"/>
+      <c r="O158" s="59"/>
+    </row>
+    <row r="159" spans="4:15">
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
       <c r="G159" s="59"/>
-      <c r="H159" s="59"/>
+      <c r="H159" s="62"/>
       <c r="I159" s="59"/>
       <c r="J159" s="59"/>
       <c r="K159" s="59"/>
       <c r="L159" s="59"/>
       <c r="M159" s="59"/>
       <c r="N159" s="59"/>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="C160" s="59"/>
+      <c r="O159" s="59"/>
+    </row>
+    <row r="160" spans="4:15">
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
       <c r="G160" s="59"/>
-      <c r="H160" s="59"/>
+      <c r="H160" s="62"/>
       <c r="I160" s="59"/>
       <c r="J160" s="59"/>
       <c r="K160" s="59"/>
       <c r="L160" s="59"/>
       <c r="M160" s="59"/>
       <c r="N160" s="59"/>
-    </row>
-    <row r="161" spans="3:14">
-      <c r="C161" s="59"/>
+      <c r="O160" s="59"/>
+    </row>
+    <row r="161" spans="3:23">
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
       <c r="G161" s="59"/>
-      <c r="H161" s="59"/>
+      <c r="H161" s="62"/>
       <c r="I161" s="59"/>
       <c r="J161" s="59"/>
       <c r="K161" s="59"/>
       <c r="L161" s="59"/>
       <c r="M161" s="59"/>
       <c r="N161" s="59"/>
-    </row>
-    <row r="162" spans="3:14">
-      <c r="C162" s="59"/>
+      <c r="O161" s="59"/>
+    </row>
+    <row r="162" spans="3:23">
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
       <c r="G162" s="59"/>
-      <c r="H162" s="59"/>
+      <c r="H162" s="62"/>
       <c r="I162" s="59"/>
       <c r="J162" s="59"/>
       <c r="K162" s="59"/>
       <c r="L162" s="59"/>
       <c r="M162" s="59"/>
       <c r="N162" s="59"/>
-    </row>
-    <row r="163" spans="3:14">
-      <c r="C163" s="59"/>
+      <c r="O162" s="59"/>
+    </row>
+    <row r="163" spans="3:23">
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -6130,9 +6659,9 @@
       <c r="L163" s="59"/>
       <c r="M163" s="59"/>
       <c r="N163" s="59"/>
-    </row>
-    <row r="164" spans="3:14">
-      <c r="C164" s="59"/>
+      <c r="O163" s="59"/>
+    </row>
+    <row r="164" spans="3:23">
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -6144,9 +6673,9 @@
       <c r="L164" s="59"/>
       <c r="M164" s="59"/>
       <c r="N164" s="59"/>
-    </row>
-    <row r="165" spans="3:14">
-      <c r="C165" s="59"/>
+      <c r="O164" s="59"/>
+    </row>
+    <row r="165" spans="3:23">
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -6155,12 +6684,8 @@
       <c r="I165" s="59"/>
       <c r="J165" s="59"/>
       <c r="K165" s="59"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="59"/>
-    </row>
-    <row r="166" spans="3:14">
-      <c r="C166" s="59"/>
+    </row>
+    <row r="166" spans="3:23">
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -6169,247 +6694,242 @@
       <c r="I166" s="59"/>
       <c r="J166" s="59"/>
       <c r="K166" s="59"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-    </row>
-    <row r="167" spans="3:14">
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="62"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="59"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="59"/>
-    </row>
-    <row r="168" spans="3:14">
-      <c r="C168" s="59"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="62"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
-    </row>
-    <row r="169" spans="3:14">
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="59"/>
+    </row>
+    <row r="169" spans="3:23">
+      <c r="H169" s="62"/>
       <c r="I169" s="59"/>
       <c r="J169" s="59"/>
       <c r="K169" s="59"/>
-      <c r="L169" s="59"/>
-      <c r="M169" s="59"/>
-      <c r="N169" s="59"/>
-    </row>
-    <row r="170" spans="3:14">
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
-      <c r="L170" s="59"/>
-      <c r="M170" s="59"/>
-      <c r="N170" s="59"/>
-    </row>
-    <row r="171" spans="3:14">
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-    </row>
-    <row r="172" spans="3:14">
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
-      <c r="L172" s="59"/>
-      <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
-    </row>
-    <row r="173" spans="3:14">
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="59"/>
-      <c r="K173" s="59"/>
-      <c r="L173" s="59"/>
-      <c r="M173" s="59"/>
-      <c r="N173" s="59"/>
-    </row>
-    <row r="174" spans="3:14">
-      <c r="C174" s="59"/>
-      <c r="D174" s="59"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="59"/>
-      <c r="H174" s="59"/>
-      <c r="I174" s="59"/>
-      <c r="J174" s="59"/>
-    </row>
-    <row r="175" spans="3:14">
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="59"/>
-      <c r="J175" s="59"/>
-    </row>
-    <row r="178" spans="1:24">
-      <c r="G178" s="62"/>
-      <c r="H178" s="59"/>
-      <c r="I178" s="59"/>
-      <c r="J178" s="59"/>
-    </row>
-    <row r="182" spans="1:24">
-      <c r="B182" s="55"/>
-    </row>
-    <row r="185" spans="1:24">
-      <c r="S185" s="63"/>
-      <c r="U185" s="64"/>
-      <c r="V185" s="9"/>
-    </row>
-    <row r="186" spans="1:24">
-      <c r="S186" s="65"/>
-      <c r="T186" s="47"/>
-      <c r="U186" s="47"/>
-      <c r="V186" s="59"/>
-      <c r="W186" s="59"/>
-    </row>
-    <row r="187" spans="1:24">
-      <c r="R187" s="20"/>
-      <c r="S187" s="21"/>
-      <c r="T187" s="21"/>
-      <c r="U187" s="21"/>
-      <c r="V187" s="21"/>
-      <c r="W187" s="21"/>
-    </row>
-    <row r="188" spans="1:24">
-      <c r="A188" s="37"/>
-      <c r="C188" s="66"/>
-      <c r="D188" s="67"/>
-      <c r="E188" s="68"/>
-      <c r="F188" s="68"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="67"/>
-      <c r="I188" s="60"/>
-      <c r="J188" s="67"/>
-      <c r="K188" s="68"/>
-      <c r="L188" s="68"/>
-      <c r="M188" s="68"/>
-      <c r="N188" s="68"/>
-      <c r="O188" s="68"/>
-      <c r="P188" s="60"/>
-      <c r="Q188" s="67"/>
-      <c r="R188" s="60"/>
-      <c r="S188" s="60"/>
-      <c r="T188" s="60"/>
-      <c r="U188" s="60"/>
-      <c r="V188" s="60"/>
-      <c r="W188" s="60"/>
-    </row>
-    <row r="189" spans="1:24">
-      <c r="A189" s="38"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="94"/>
-      <c r="K189" s="95"/>
-      <c r="L189" s="95"/>
-      <c r="M189" s="95"/>
-      <c r="N189" s="95"/>
-      <c r="O189" s="95"/>
-      <c r="P189" s="96"/>
-      <c r="Q189" s="49"/>
-      <c r="R189" s="48"/>
-      <c r="S189" s="48"/>
-      <c r="T189" s="48"/>
-      <c r="U189" s="48"/>
-      <c r="V189" s="48"/>
-      <c r="W189" s="48"/>
-      <c r="X189" s="59"/>
-    </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A190" s="38"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="11"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14"/>
-      <c r="M190" s="14"/>
-      <c r="N190" s="14"/>
-      <c r="O190" s="14"/>
-      <c r="P190" s="15"/>
-      <c r="Q190" s="49"/>
-      <c r="R190" s="48"/>
-      <c r="S190" s="50"/>
-      <c r="T190" s="48"/>
-      <c r="U190" s="48"/>
-      <c r="V190" s="48"/>
-      <c r="W190" s="48"/>
-      <c r="X190" s="59"/>
-    </row>
-    <row r="191" spans="1:24">
-      <c r="A191" s="38"/>
-      <c r="Q191" s="59"/>
-      <c r="R191" s="59"/>
-      <c r="S191" s="59"/>
-      <c r="T191" s="59"/>
-      <c r="U191" s="59"/>
-      <c r="V191" s="59"/>
-      <c r="W191" s="59"/>
-      <c r="X191" s="59"/>
-    </row>
-    <row r="192" spans="1:24">
-      <c r="A192" s="38"/>
-    </row>
-    <row r="193" spans="4:14">
-      <c r="D193" s="59"/>
+    </row>
+    <row r="173" spans="3:23">
+      <c r="C173" s="55"/>
+    </row>
+    <row r="176" spans="3:23">
+      <c r="T176" s="63"/>
+      <c r="V176" s="64"/>
+      <c r="W176" s="9"/>
+    </row>
+    <row r="177" spans="2:25">
+      <c r="T177" s="65"/>
+      <c r="U177" s="47"/>
+      <c r="V177" s="47"/>
+      <c r="W177" s="59"/>
+      <c r="X177" s="59"/>
+    </row>
+    <row r="178" spans="2:25">
+      <c r="S178" s="20"/>
+      <c r="T178" s="21"/>
+      <c r="U178" s="21"/>
+      <c r="V178" s="21"/>
+      <c r="W178" s="21"/>
+      <c r="X178" s="21"/>
+    </row>
+    <row r="179" spans="2:25">
+      <c r="B179" s="37"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="67"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="60"/>
+      <c r="I179" s="67"/>
+      <c r="J179" s="60"/>
+      <c r="K179" s="67"/>
+      <c r="L179" s="68"/>
+      <c r="M179" s="68"/>
+      <c r="N179" s="68"/>
+      <c r="O179" s="68"/>
+      <c r="P179" s="68"/>
+      <c r="Q179" s="60"/>
+      <c r="R179" s="67"/>
+      <c r="S179" s="60"/>
+      <c r="T179" s="60"/>
+      <c r="U179" s="60"/>
+      <c r="V179" s="60"/>
+      <c r="W179" s="60"/>
+      <c r="X179" s="60"/>
+    </row>
+    <row r="180" spans="2:25">
+      <c r="B180" s="38"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="104"/>
+      <c r="L180" s="105"/>
+      <c r="M180" s="105"/>
+      <c r="N180" s="105"/>
+      <c r="O180" s="105"/>
+      <c r="P180" s="105"/>
+      <c r="Q180" s="106"/>
+      <c r="R180" s="49"/>
+      <c r="S180" s="48"/>
+      <c r="T180" s="48"/>
+      <c r="U180" s="48"/>
+      <c r="V180" s="48"/>
+      <c r="W180" s="48"/>
+      <c r="X180" s="48"/>
+      <c r="Y180" s="59"/>
+    </row>
+    <row r="181" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B181" s="38"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="49"/>
+      <c r="S181" s="48"/>
+      <c r="T181" s="50"/>
+      <c r="U181" s="48"/>
+      <c r="V181" s="48"/>
+      <c r="W181" s="48"/>
+      <c r="X181" s="48"/>
+      <c r="Y181" s="59"/>
+    </row>
+    <row r="182" spans="2:25">
+      <c r="B182" s="38"/>
+      <c r="R182" s="59"/>
+      <c r="S182" s="59"/>
+      <c r="T182" s="59"/>
+      <c r="U182" s="59"/>
+      <c r="V182" s="59"/>
+      <c r="W182" s="59"/>
+      <c r="X182" s="59"/>
+      <c r="Y182" s="59"/>
+    </row>
+    <row r="183" spans="2:25">
+      <c r="B183" s="38"/>
+    </row>
+    <row r="184" spans="2:25">
+      <c r="E184" s="59"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="59"/>
+      <c r="N184" s="59"/>
+      <c r="O184" s="59"/>
+    </row>
+    <row r="185" spans="2:25">
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="59"/>
+      <c r="M185" s="59"/>
+      <c r="N185" s="59"/>
+      <c r="O185" s="59"/>
+    </row>
+    <row r="186" spans="2:25">
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="59"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
+      <c r="L186" s="59"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="59"/>
+    </row>
+    <row r="187" spans="2:25">
+      <c r="E187" s="59"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
+      <c r="L187" s="59"/>
+      <c r="M187" s="59"/>
+      <c r="N187" s="59"/>
+      <c r="O187" s="59"/>
+    </row>
+    <row r="188" spans="2:25">
+      <c r="E188" s="59"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="59"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="59"/>
+      <c r="L188" s="59"/>
+      <c r="M188" s="59"/>
+      <c r="N188" s="59"/>
+      <c r="O188" s="59"/>
+    </row>
+    <row r="189" spans="2:25">
+      <c r="E189" s="59"/>
+      <c r="F189" s="59"/>
+      <c r="G189" s="59"/>
+      <c r="H189" s="59"/>
+      <c r="I189" s="59"/>
+      <c r="J189" s="59"/>
+      <c r="K189" s="59"/>
+      <c r="L189" s="59"/>
+      <c r="M189" s="59"/>
+      <c r="N189" s="59"/>
+      <c r="O189" s="59"/>
+    </row>
+    <row r="190" spans="2:25">
+      <c r="E190" s="59"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="59"/>
+      <c r="I190" s="59"/>
+      <c r="J190" s="59"/>
+      <c r="K190" s="59"/>
+      <c r="L190" s="59"/>
+      <c r="M190" s="59"/>
+      <c r="N190" s="59"/>
+      <c r="O190" s="59"/>
+    </row>
+    <row r="191" spans="2:25">
+      <c r="E191" s="59"/>
+      <c r="F191" s="59"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="59"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="59"/>
+      <c r="L191" s="59"/>
+      <c r="M191" s="59"/>
+      <c r="N191" s="59"/>
+      <c r="O191" s="59"/>
+    </row>
+    <row r="192" spans="2:25">
+      <c r="E192" s="59"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="59"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="59"/>
+      <c r="K192" s="59"/>
+      <c r="L192" s="59"/>
+      <c r="M192" s="59"/>
+      <c r="N192" s="59"/>
+      <c r="O192" s="59"/>
+    </row>
+    <row r="193" spans="5:15">
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="59"/>
@@ -6420,136 +6940,25 @@
       <c r="L193" s="59"/>
       <c r="M193" s="59"/>
       <c r="N193" s="59"/>
-    </row>
-    <row r="194" spans="4:14">
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
-      <c r="J194" s="59"/>
-      <c r="K194" s="59"/>
-      <c r="L194" s="59"/>
-      <c r="M194" s="59"/>
-      <c r="N194" s="59"/>
-    </row>
-    <row r="195" spans="4:14">
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="59"/>
-      <c r="L195" s="59"/>
-      <c r="M195" s="59"/>
-      <c r="N195" s="59"/>
-    </row>
-    <row r="196" spans="4:14">
-      <c r="D196" s="59"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
-      <c r="J196" s="59"/>
-      <c r="K196" s="59"/>
-      <c r="L196" s="59"/>
-      <c r="M196" s="59"/>
-      <c r="N196" s="59"/>
-    </row>
-    <row r="197" spans="4:14">
-      <c r="D197" s="59"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="59"/>
-      <c r="G197" s="59"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="59"/>
-      <c r="J197" s="59"/>
-      <c r="K197" s="59"/>
-      <c r="L197" s="59"/>
-      <c r="M197" s="59"/>
-      <c r="N197" s="59"/>
-    </row>
-    <row r="198" spans="4:14">
-      <c r="D198" s="59"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
-      <c r="J198" s="59"/>
-      <c r="K198" s="59"/>
-      <c r="L198" s="59"/>
-      <c r="M198" s="59"/>
-      <c r="N198" s="59"/>
-    </row>
-    <row r="199" spans="4:14">
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
+      <c r="O193" s="59"/>
+    </row>
+    <row r="199" spans="5:15">
       <c r="G199" s="59"/>
       <c r="H199" s="59"/>
       <c r="I199" s="59"/>
       <c r="J199" s="59"/>
       <c r="K199" s="59"/>
-      <c r="L199" s="59"/>
-      <c r="M199" s="59"/>
-      <c r="N199" s="59"/>
-    </row>
-    <row r="200" spans="4:14">
-      <c r="D200" s="59"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
-      <c r="J200" s="59"/>
-      <c r="K200" s="59"/>
-      <c r="L200" s="59"/>
-      <c r="M200" s="59"/>
-      <c r="N200" s="59"/>
-    </row>
-    <row r="201" spans="4:14">
-      <c r="D201" s="59"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="59"/>
-      <c r="L201" s="59"/>
-      <c r="M201" s="59"/>
-      <c r="N201" s="59"/>
-    </row>
-    <row r="202" spans="4:14">
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
-      <c r="J202" s="59"/>
-      <c r="K202" s="59"/>
-      <c r="L202" s="59"/>
-      <c r="M202" s="59"/>
-      <c r="N202" s="59"/>
-    </row>
-    <row r="208" spans="4:14">
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J189:P189"/>
+    <mergeCell ref="K180:Q180"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A7 A9:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6557,310 +6966,566 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="36.125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55"/>
+    <col min="3" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="86"/>
+      <c r="C2" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="E35" s="56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" s="56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="E40" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="E42" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="D44" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="E45" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="56" t="s">
+    <row r="46" spans="1:5">
+      <c r="E46" s="56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="56" t="s">
+    <row r="47" spans="1:5">
+      <c r="E47" s="56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="D28" s="56" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="D29" s="56" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="E50" s="56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="E55" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="D30" s="56" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="56" t="s">
+    <row r="59" spans="1:6">
+      <c r="F59" s="56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="D33" s="56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="D34" s="56" t="s">
+    <row r="61" spans="1:6">
+      <c r="E61" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="D35" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="56" t="s">
+    <row r="66" spans="5:6">
+      <c r="E66" s="56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="D38" s="56" t="s">
+    <row r="67" spans="5:6">
+      <c r="F67" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="F73" s="56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="D39" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="D40" s="56" t="s">
+    <row r="78" spans="5:6">
+      <c r="E78" s="56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="D41" s="56" t="s">
+    <row r="84" spans="5:7">
+      <c r="E84" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="D43" s="56" t="s">
+    <row r="85" spans="5:7">
+      <c r="F85" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="G86" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="G99" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="F101" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="D103" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="E104" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="33">
+      <c r="A106" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="E112" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7">
+      <c r="E113" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="F127" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7">
+      <c r="G128" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="H129" s="56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="H130" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="33">
+      <c r="A131" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="H131" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="33">
+      <c r="A132" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="H132" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="33">
+      <c r="A134" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F134" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="G135" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="G136" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="H137" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="H138" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="F139" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="D141" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="33">
+      <c r="A142" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="49.5">
+      <c r="A145" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="33">
+      <c r="A146" s="82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
-      <c r="D48" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="E51" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="E52" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5">
-      <c r="D59" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5">
-      <c r="E60" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6">
-      <c r="E66" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="E78" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="F79" s="56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="F92" s="56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="E94" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6">
-      <c r="C96" s="56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="5:7">
-      <c r="E120" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="5:7">
-      <c r="F121" s="56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="5:7">
-      <c r="G122" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="5:7">
-      <c r="G123" s="56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="5:7">
-      <c r="G124" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="5:7">
-      <c r="G125" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="5:7">
-      <c r="E127" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="5:7">
-      <c r="F128" s="56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="F129" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="G130" s="56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="G131" s="56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="E132" s="56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="C134" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="D135" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="D136" s="56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="D138" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="B142" s="56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144" s="56" t="s">
-        <v>220</v>
-      </c>
+    <row r="148" spans="1:10">
+      <c r="B148" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="C149" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="33">
+      <c r="A150" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" s="56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="33">
+      <c r="A151" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="B154" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C154" s="87"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="87"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="87"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="87"/>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="B155" s="86"/>
+      <c r="C155" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D155" s="87"/>
+      <c r="E155" s="87"/>
+      <c r="F155" s="87"/>
+      <c r="G155" s="87"/>
+      <c r="H155" s="87"/>
+      <c r="I155" s="87"/>
+      <c r="J155" s="87"/>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="B156" s="86"/>
+      <c r="C156" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" s="87"/>
+      <c r="E156" s="87"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="87"/>
+      <c r="H156" s="87"/>
+      <c r="I156" s="87"/>
+      <c r="J156" s="87"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" s="86"/>
+      <c r="C157" s="87"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="87"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="87"/>
+      <c r="H157" s="87"/>
+      <c r="I157" s="87"/>
+      <c r="J157" s="87"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="B158" s="86"/>
+      <c r="C158" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="87"/>
+      <c r="E158" s="87"/>
+      <c r="F158" s="87"/>
+      <c r="G158" s="87"/>
+      <c r="H158" s="87"/>
+      <c r="I158" s="87"/>
+      <c r="J158" s="87"/>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="B159" s="86"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E159" s="87"/>
+      <c r="F159" s="87"/>
+      <c r="G159" s="87"/>
+      <c r="H159" s="87"/>
+      <c r="I159" s="87"/>
+      <c r="J159" s="87"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" s="86"/>
+      <c r="C160" s="87"/>
+      <c r="D160" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="E160" s="87"/>
+      <c r="F160" s="87"/>
+      <c r="G160" s="87"/>
+      <c r="H160" s="87"/>
+      <c r="I160" s="87"/>
+      <c r="J160" s="87"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="86"/>
+      <c r="C161" s="87"/>
+      <c r="D161" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="E161" s="87"/>
+      <c r="F161" s="87"/>
+      <c r="G161" s="87"/>
+      <c r="H161" s="87"/>
+      <c r="I161" s="87"/>
+      <c r="J161" s="87"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A8:A44 A46:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6869,10 +7534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6882,256 +7547,428 @@
     <col min="8" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="69" t="s">
-        <v>121</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="88" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="69">
-        <v>10</v>
-      </c>
-      <c r="C3" s="69">
-        <v>2</v>
-      </c>
-      <c r="D3" s="69">
-        <v>10</v>
-      </c>
-      <c r="E3" s="69">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="69">
-        <v>1</v>
-      </c>
-      <c r="G3" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="69">
+        <v>297</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="88" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="88" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="88" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="88" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="88" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="88" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="88" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="88" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="83"/>
+      <c r="B67" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="83"/>
+      <c r="B68" s="83">
         <v>20</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C68" s="83">
         <v>5</v>
       </c>
-      <c r="D4" s="69">
-        <v>15</v>
-      </c>
-      <c r="E4" s="69">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="69">
-        <v>2</v>
-      </c>
-      <c r="G4" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="69">
-        <v>30</v>
-      </c>
-      <c r="C5" s="69">
-        <v>10</v>
-      </c>
-      <c r="D5" s="69">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="69">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="69">
-        <v>5</v>
-      </c>
-      <c r="G5" s="69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="69">
-        <v>40</v>
-      </c>
-      <c r="C6" s="69">
-        <v>20</v>
-      </c>
-      <c r="D6" s="69">
-        <v>20</v>
-      </c>
-      <c r="E6" s="69">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="69">
-        <v>10</v>
-      </c>
-      <c r="G6" s="69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="69">
-        <v>50</v>
-      </c>
-      <c r="C7" s="69">
-        <v>30</v>
-      </c>
-      <c r="D7" s="69">
-        <v>30</v>
-      </c>
-      <c r="E7" s="69">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="69">
-        <v>20</v>
-      </c>
-      <c r="G7" s="69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="69" t="s">
-        <v>143</v>
-      </c>
+      <c r="D68" s="83">
+        <v>3</v>
+      </c>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="83"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="83"/>
+      <c r="B70" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="83"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7147,7 +7984,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="74"/>
+    <col min="1" max="1" width="9" style="71"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -7156,7 +7993,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="55" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7576,8 +8413,8 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="74" t="s">
-        <v>161</v>
+      <c r="A34" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8142,8 +8979,8 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="74" t="s">
-        <v>162</v>
+      <c r="A76" s="71" t="s">
+        <v>113</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="1"/>
@@ -8477,7 +9314,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="55" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -8493,8 +9330,8 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="B101" s="98" t="s">
-        <v>226</v>
+      <c r="B101" s="78" t="s">
+        <v>176</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -8510,8 +9347,8 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="B102" s="98" t="s">
-        <v>227</v>
+      <c r="B102" s="78" t="s">
+        <v>177</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="8"/>
@@ -9081,7 +9918,7 @@
       <c r="L151" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9167,16 +10004,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -9368,7 +10205,7 @@
       <c r="J18" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9394,7 +10231,7 @@
       <c r="A1" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9441,7 +10278,7 @@
       <c r="B2" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9459,7 +10296,7 @@
     <col min="1" max="16384" width="9" style="24"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -29,8 +29,12 @@
     <definedName name="_4、录音模式">UI逻辑相关!#REF!</definedName>
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="【聊天频道名称】玩家名称_具体内容">UI逻辑相关!#REF!</definedName>
+    <definedName name="UI动画">美术需求!$A$115:$B$117</definedName>
+    <definedName name="补签消耗配置表">配置方式!$A$66:$E$68</definedName>
+    <definedName name="补签消耗上限">配置方式!$E$67:$E$68</definedName>
     <definedName name="此处聊天记录仅显示一条_显示不下时截断。">UI逻辑相关!#REF!</definedName>
     <definedName name="从上到下依次显示选项_邀请入会、屏蔽">#REF!</definedName>
+    <definedName name="当当前有可以进行的签到或者补签时_图标右上角有红点显示">UI逻辑相关!$C$157:$J$160</definedName>
     <definedName name="当提示方式选择为“系统提示”时_可以设定提示范围_包含玩家自己_玩家所在公会">整体说明!$F$192</definedName>
     <definedName name="当玩家没有加入公会时_点击公会页签_不会切换到公会页且弹出提示信息im_record_002">UI逻辑相关!#REF!</definedName>
     <definedName name="当新的信息出现时_顶替掉旧信息显示在基础聊天框">UI逻辑相关!#REF!</definedName>
@@ -46,17 +50,20 @@
     <definedName name="基础聊天框对于其他系统而言_若其他系统全屏显示_则不显示基础聊天框_若其他非全屏显示_则显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="基础聊天框高约占屏幕高的5_。">UI逻辑相关!#REF!</definedName>
     <definedName name="基础聊天框位于界面左下角_只显示聊天内容以及底色_玩家不能进行聊天内容的输入。">整体说明!$E$15</definedName>
-    <definedName name="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2">UI逻辑相关!$E$50</definedName>
+    <definedName name="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2">UI逻辑相关!$E$51</definedName>
     <definedName name="进入对局后_若在进入对局前左侧聊天框为开启状态_则自动关闭。">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天记客户端">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天内容保存在客户端即可_玩家退出游戏后_聊天内容消失_再次登录不会显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="默认显示”请输入信息“">UI逻辑相关!#REF!</definedName>
-    <definedName name="签到刷新规则">UI逻辑相关!$B$154:$J$161</definedName>
+    <definedName name="签到刷新规则">UI逻辑相关!$B$164:$J$171</definedName>
     <definedName name="日常签到界面入口">UI逻辑相关!$B$1:$H$6</definedName>
     <definedName name="如果公会标签页不可用_则点击时会弹出提示信息im_record_004">UI逻辑相关!#REF!</definedName>
+    <definedName name="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标">UI逻辑相关!$F$74:$K$78</definedName>
     <definedName name="若2行仍显示不下提示信息_则提示信息向两侧扩展_先扩充第二行_当第二行已达屏幕最长位置_则扩充第一行">#REF!</definedName>
+    <definedName name="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭">UI逻辑相关!$D$170:$H$170</definedName>
     <definedName name="若玩家手指拖动信息且手指未离开频幕_则信息会根据玩家手指拖动频幕的位置显示对应信息_信息不会刷新。">UI逻辑相关!#REF!</definedName>
     <definedName name="三、走马灯">#REF!</definedName>
+    <definedName name="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容">UI逻辑相关!$F$143:$O$145</definedName>
     <definedName name="输入一些信息后_按空格_再次输入信息_后输入的信息如果超出了这一行的显示范围_该信息会整体换行">UI逻辑相关!#REF!</definedName>
     <definedName name="四、系统公告提示">#REF!</definedName>
     <definedName name="通过基础聊天框最多可查看50行聊天信息">UI逻辑相关!#REF!</definedName>
@@ -67,6 +74,7 @@
     <definedName name="五、提示信息">#REF!</definedName>
     <definedName name="显示格式">UI逻辑相关!#REF!</definedName>
     <definedName name="显示世界聊天频道信息以及标注显示在世界频道的系统提示信息">UI逻辑相关!#REF!</definedName>
+    <definedName name="显示为__本月签到奖励">UI逻辑相关!$E$35:$G$36</definedName>
     <definedName name="效果如下图所示">整体说明!$E$71</definedName>
     <definedName name="需要背景色_待美术设计后回归">UI逻辑相关!#REF!</definedName>
     <definedName name="游戏的聊天输入框最多输入100个汉字或者字符_在输入模式_当输入达到100个时不可以继续输入">UI逻辑相关!#REF!</definedName>
@@ -83,463 +91,439 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="339">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>mt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>签到系统设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>签到系统相关逻辑说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/活动相关/签到系统设计.xlsx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到分为两部分内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>分别为日常签到与连续登陆奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日常签到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家每日登陆游戏，即可进行签到操作，每天只能签到一次，每次签到获得一定奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日常签到每个月最多可签到30天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每个月第一天00：00刷新，每个月的签到奖励内容不同</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到方式为累计签到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日常签到界面样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到界面包括内容为： 签到标题、签到次数、奖励内容、补签相关、关闭按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当月签到标题，根据现实月份现实签到标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当前日期为1月份，则显示为： 一月份签到奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如当前日期为6月份，则现实为：六月份签到奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每签到成功一次，次数+1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示当前月份，玩家签到后可以获得的内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每行显示6个格子，每个格子中显示对应奖励内容（只有一种）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当页最多可以显示下3行半奖励内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>超过3行半可以拖动显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示内容根据当年当月现实天数进行显示，最多显示30天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如当月为31天，则显示5行，共30天奖励内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如当月为28天，则显示4行又4列，共28天奖励内容，剩余2个空余部分不显示格子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且不可领取的奖励显示为彩色样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>未签到领取且可领取的奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果为补签的则显示为彩色样式，同时奖励内容左上角显示补签的标签进行提示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果为当日签到的则显示为彩色样式，同时奖励框周边有特效环绕提示可以领取</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已领取的奖励显示为灰色遮罩同时右下角有绿色对勾提示已经领取</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>奖励领取方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>奖励框打开后有成功领取奖励的特效效果（类似任务领取奖励的界面即可）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包括当月可以补签的次数以及补签按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如当月有可以补签的内容，则根据可以补签的天数，显示对应可以补签的次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如当月无可以补签的内容，则不显示补签相关内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签次数根据补签操作实时变化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签按钮显示在补签次数右侧，按钮上包含补签文本以及当次补签所需消耗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签所需消耗根据当月已经补签的次数确定，具体公式见配置相关分页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具体签到内容显示方式，详见配置相关分页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签内容显示规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当当前月份可签到次数大于已签到次数时，显示补签相关内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当前已经登录了3天同时成功签到了3次，则已签到次数为3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>第四天登录时，前三个内容项显示为已经签到的样式，第四个内容项为可签到的样式，第五、六个内容项为可补签的样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同时可补签的次数显示为2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如小于等于持有钻石，则进行一次补签操作，补签成功后弹出奖励框，奖励框样式同正常签到的样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如大于持有钻石，则进行充值相关流程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1次补签成功后，可补签次数-1，同时当月已签到次数+1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击【补签】按钮后，判断当日是否已经完成签到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如已经完成签到，则判断当前所需钻石是否小于等于持有钻石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如未完成签到，则弹出提示信息，提示信息ID：Sign_buqian_001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Sign_buqian_001</t>
   </si>
   <si>
     <t>当日未签到成功点击补签按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>个人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当签到内容中，一行内容均已经签到成功，则该行内容整体向上移动一层，默认打开界面后该行默认不显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>即保证当前可签到的内容始终显示在可见范围内</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>界面显示规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>第一列</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到界面打开后，如当日签到奖励未领取，则点击对应奖励的内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若奖励内容非整只宠物，即可弹出奖励领取框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若奖励内容为整只宠物，则弹出宠物获得界面（样式同抽蛋）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>界面结构</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>奖励项样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>领取确认框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>请先完成当日签到后再进行补签操作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王磊</t>
@@ -612,67 +596,67 @@
   </si>
   <si>
     <t>解：与雷神确认了下，确实在最后一次签到后会出现不知道是否签上的问题，故改成不自动关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：这个其实并不是特别限制，可以不限制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：其余也是现实数量的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：这个可以有</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：补签的成本其实挺高的，对于一般玩家来说远不如上线划算，应该不会对上线玩家数量有很大影响</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：框框是我自己加的，不代表铁马的审美</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：是越往后越好或者给的东西越多，因为签到累计到15天的时候会给一个宠物，为了避免玩家只在这一天登录，所以需要累计签到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：这个问题同上个问题的回答哈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：每天签到的icon上会有特效，应该会比较明显哈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：每个月是30天，应该是3行半显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：右上角</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：是的应该显示三行半</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：是与任务奖励界面使用一样的界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：界面是我拼的，不代表铁马审美，界面结构应该是这样</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：可以考虑将签到成功放在标题位置，中间只显示奖励内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：应该和商店的刷新按钮是一样的大小，可以显示下</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Eric Lee</t>
@@ -694,168 +678,168 @@
   </si>
   <si>
     <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：图标会有特效环绕提示可点击，示意上没有表现出来</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：是我拼的图，不代表铁马的审美哈，每一行连在一起的话是不是会好一些</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：补签的意思是，当前已签到次数，小于可签到次数时，可以补签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示当前月份，玩家实际已经签到的次数/当月共可签到次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如当月共可签到28次，已签到10次，则显示为10/28</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解：点击补签icon无法补签=。=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到图标样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到图标显示在主界面左侧，玩家头像下方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当当前有可以进行的签到或者补签时，图标右上角有红点显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当当前无可以进行的签到或者补签时，图标右上角无红点显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>根据UI评审回归文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>主界面显示，代表签到的意思，常见有日历、笔记本等样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参考样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建议跟魔灵一样，最多签到少于28天，避免不必要的麻烦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建议不要拖动显示，一页显示全吧，一目了然。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建议固定数量，方便制作和配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应补签次数指的是漏签到的那些次么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果中间漏签了，再签到是跳过那些漏的么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮不是通用的，商店刷新的是消耗在前，按钮文案在后</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可签次数为6吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签从正常理解上来讲应该是在今天可签到的前面吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>上面说的如果补签在可签到的前面，就不用判断这个是否已经签到了。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>既然有了补签，那就有一键补全部的需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>上面说的如果整个页面固定，这个移动也不用做了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个不要算上补签了吧。不然漏一天，就一直有红点，不太爽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个配置方式看程序吧，我感觉可能还会用reward的写法</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>缺少补签的配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每次登陆签到界面要自动弹出么，签到有签到入口么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0点仍在线，签到刷新么，另外此时界面默认弹出来么，还是重登弹出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>与签到方式冲突，都是点对应内容，一个是签到一个是出tips
 金币经验宠物体力都是没有tips的，不影响么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个数值要求不能少了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不弹出，开着界面不刷新，打开刷新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示不下</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置不会变，程序限制下即可</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>与商店刷新一致</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不跳过，依次向后排</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -880,31 +864,31 @@
       </rPr>
       <t>签到次数为6</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>因为是累计签到，所以每个格子其实并不代表是固定哪天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不是对应的，见上面解释</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>消耗是不固定的，所以一键补的需求其实并没有</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示不下，所以要做</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其实我认为补签的红点其实是一种提示，如果都不建议有，可以搞掉</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -929,103 +913,99 @@
       </rPr>
       <t>可以显示对应内容项的tips内容</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础消耗</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>次数消耗加成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>次数翻倍</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>表格内容为上述三项，具体计算规则请参照 钻石兑换金币的计算规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补签消耗配置表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已补充；奖励没有经验、体力，金币和钻石可能需要补充下tips，因为用到的地方还挺多的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>日常签到界面入口</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>自动弹出（写后面了）；有入口（写后面了）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每日刷新后，玩家首次登录游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若当日仍可签到，则自动弹出签到界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若当日已签到或者无签到，则不自动弹出签到界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击主界面中签到图标，可以打开签到界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到刷新规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每个月1日0点刷新当月签到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每日0点刷新当日签到，若本月上一日没有进行签到，则可补签次数+1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家跨刷新点的情况处理方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>刷新后不会自动弹出签到界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家打开签到界面跨刷新点则界面不会自动刷新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若玩家跨刷新点后点击图标打开签到界面，则界面界面刷新，同时可以进行下次签到操作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补充签到刷新规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补充签到入口规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回答qa文档分析问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一月份2</t>
@@ -1041,7 +1021,7 @@
   </si>
   <si>
     <t>二月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>二月份2</t>
@@ -1057,7 +1037,7 @@
   </si>
   <si>
     <t>三月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>三月份2</t>
@@ -1073,7 +1053,7 @@
   </si>
   <si>
     <t>四月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>四月份2</t>
@@ -1089,7 +1069,7 @@
   </si>
   <si>
     <t>五月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五月份2</t>
@@ -1105,7 +1085,7 @@
   </si>
   <si>
     <t>六月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>六月份2</t>
@@ -1121,7 +1101,7 @@
   </si>
   <si>
     <t>七月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>七月份2</t>
@@ -1137,7 +1117,7 @@
   </si>
   <si>
     <t>八月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>八月份2</t>
@@ -1153,7 +1133,7 @@
   </si>
   <si>
     <t>九月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>九月份2</t>
@@ -1169,7 +1149,7 @@
   </si>
   <si>
     <t>十月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>十月份2</t>
@@ -1185,7 +1165,7 @@
   </si>
   <si>
     <t>十一月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>十一月份2</t>
@@ -1201,7 +1181,7 @@
   </si>
   <si>
     <t>十二月份1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>十二月份2</t>
@@ -1217,7 +1197,7 @@
   </si>
   <si>
     <t>奖励配置表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>第二列</t>
@@ -1236,15 +1216,15 @@
   </si>
   <si>
     <t>每一项按照reward的配置方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是的，但是漏签只记录次数，不记录位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>删掉暂时不做的内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1260,28 +1240,213 @@
       </rPr>
       <t>数量显示采用通用显示规则2</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置表格式修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>补充道具数量显示规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>由小变大弹出，类似奖励弹出框</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充动画需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz、小龙、小珍、ts、雷神、铁马、阿木、mt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确制作范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充翻译需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为补签的则显示为彩色样式，同时奖励内容左上角显示可补签的图标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签消耗上限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次开服后，若不在自然月第一天，则根据玩家登录情况显示可补签相关内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月5号开服，则玩家5号登录后，签到第一个格子，同时第二个至第五个格子显示可补签</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家打开签到界面跨刷新点则界面在刷新点自动关闭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一直未进行签到，则红点始终显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若已经签到但未进行补签，则红点在开启界面后不再显示，下次登录后继续显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到标题不变</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到标签的表现形式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签钻石是否可以显示下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开服后的漏签是否可以补签</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨时间界面自动关闭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红点显示规则完善</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID：monthlyevent_title</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为： 本月签到奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：当月已签到：n/m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID：monthlyevent_count_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID：monthlyevent_reward_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为： 可补签次数：n</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID：monthlyevent_count_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如未完成签到，则弹出提示信息，提示信息ID：Sign_buqian_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先完成当日签到后再进行补签操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译消耗增加一个上限限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui调整加动画 0.3d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面 0.7d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口图标 0.5d</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器 2d</t>
+  </si>
+  <si>
+    <t>客户端 1.5d</t>
+  </si>
+  <si>
+    <t>程序任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>配置+验收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1d</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务拆分</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1837,235 +2002,239 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2907,13 +3076,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409883</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>173841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2945,7 +3114,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543931" cy="264560"/>
@@ -3003,13 +3172,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>150233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3027,7 +3196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2749826" y="10974457"/>
+          <a:off x="5499652" y="12423913"/>
           <a:ext cx="790476" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3041,13 +3210,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>204058</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>192888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3079,13 +3248,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3137,53 +3306,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160163</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>169280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="图片 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3437283" y="13459239"/>
-          <a:ext cx="847619" cy="790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>103019</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>159756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3194,7 +3325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3215,13 +3346,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>267412</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>124240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3232,7 +3363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3253,13 +3384,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>434300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3270,7 +3401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3291,7 +3422,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -3349,14 +3480,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>82824</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397563</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>124598</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>124599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3366,7 +3497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3387,14 +3518,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3404,7 +3535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3423,53 +3554,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298056</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>165604</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4845327" y="17385195"/>
-          <a:ext cx="952381" cy="380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>173077</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>306409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3480,7 +3573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3501,13 +3594,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>319176</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3621,7 +3714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3702,13 +3795,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>143455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99391</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>255473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3719,7 +3812,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3740,13 +3833,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>612914</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>258789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3757,7 +3850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3795,7 +3888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3870,6 +3963,296 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152716</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6236805" y="14925260"/>
+          <a:ext cx="790476" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>199612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6211957" y="14925261"/>
+          <a:ext cx="390112" cy="390112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554934</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8116956" y="3006588"/>
+          <a:ext cx="1507435" cy="670892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8174934" y="3006588"/>
+          <a:ext cx="356151" cy="356151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384311</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8965095" y="3026466"/>
+          <a:ext cx="356151" cy="356151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455545</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642654" y="5675496"/>
+          <a:ext cx="356151" cy="356151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207067</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>65736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>189974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7769089" y="18908671"/>
+          <a:ext cx="538368" cy="538368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4181,6 +4564,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>684958</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>113711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="24641175"/>
+          <a:ext cx="6733333" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4471,13 +4892,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="55"/>
     <col min="2" max="2" width="27.875" style="55" customWidth="1"/>
@@ -4487,7 +4908,7 @@
     <col min="8" max="16384" width="11" style="56"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
@@ -4495,10 +4916,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="56"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
@@ -4506,7 +4927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
@@ -4524,7 +4945,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
@@ -4532,99 +4953,99 @@
       <c r="C11" s="57"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="94" t="s">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
-    <row r="21" spans="1:8">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>15</v>
       </c>
@@ -4647,11 +5068,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="56" t="s">
         <v>22</v>
       </c>
@@ -4668,74 +5089,80 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="56" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C24" s="58">
         <v>42395</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G24" s="57" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="56"/>
       <c r="C25" s="58"/>
       <c r="H25" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="56"/>
       <c r="C26" s="58"/>
       <c r="H26" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="56"/>
       <c r="C27" s="58"/>
       <c r="H27" s="56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
       <c r="H28" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="56"/>
       <c r="C29" s="58"/>
       <c r="H29" s="56" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="56"/>
       <c r="C30" s="58"/>
       <c r="H30" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" s="56"/>
       <c r="C31" s="58"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="56"/>
       <c r="C32" s="58"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>24</v>
       </c>
@@ -4753,20 +5180,79 @@
       </c>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
+      <c r="B34" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="58">
+        <v>42402</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="91" t="s">
+        <v>312</v>
+      </c>
       <c r="G34" s="56"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
+      <c r="F35" s="91" t="s">
+        <v>313</v>
+      </c>
       <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="91" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="91" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4780,12 +5266,21 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="签到刷新规则" display="补充签到刷新规则"/>
     <hyperlink ref="H26" location="日常签到界面入口" display="补充签到入口规则"/>
     <hyperlink ref="H28" location="配置方式!A1" display="配置表格式修改"/>
     <hyperlink ref="H30" location="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2" display="补充道具数量显示规则"/>
+    <hyperlink ref="H31" location="UI动画" display="补充动画需求"/>
+    <hyperlink ref="F34" location="显示为__本月签到奖励" display="签到标题不变"/>
+    <hyperlink ref="F35" location="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标" display="签到标签的表现形式"/>
+    <hyperlink ref="F36" location="补签消耗配置表" display="补签钻石是否可以显示下"/>
+    <hyperlink ref="F37" location="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容" display="开服后的漏签是否可以补签"/>
+    <hyperlink ref="F38" location="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭" display="跨时间界面自动关闭"/>
+    <hyperlink ref="F39" location="当当前有可以进行的签到或者补签时_图标右上角有红点显示" display="红点显示规则完善"/>
+    <hyperlink ref="F41" location="补签消耗上限" display="翻译消耗增加一个上限限制"/>
+    <hyperlink ref="H32" location="任务拆分!A1" display="补充任务拆分"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4799,270 +5294,270 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="75" customFormat="1">
+    <row r="1" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="72" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="72" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="72" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="75" customFormat="1">
-      <c r="A6" s="74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="72" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="72" t="s">
+    <row r="25" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="72" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="75" customFormat="1">
-      <c r="A13" s="74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="72" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="72" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="75" customFormat="1">
-      <c r="A18" s="74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="72" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="72" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="75" customFormat="1">
-      <c r="A25" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="72" t="s">
+    <row r="41" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="75" customFormat="1">
-      <c r="A36" s="74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="72" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="72" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="75" customFormat="1">
-      <c r="A41" s="74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="76"/>
       <c r="B43" s="77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="75" customFormat="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="72"/>
       <c r="B46" s="77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="72"/>
       <c r="B48" s="77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C51" s="77"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5076,7 +5571,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.375" style="79" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="56" customWidth="1"/>
@@ -5085,69 +5580,69 @@
     <col min="5" max="16384" width="8.625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C1" s="55"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B2" s="55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C4" s="55"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="33">
+    <row r="6" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="79" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="33">
+    <row r="7" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="79" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="82" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="33">
+    <row r="9" spans="1:22" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="79" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="82" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E12" s="59"/>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
@@ -5159,7 +5654,7 @@
       <c r="M12" s="59"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C13" s="55"/>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
@@ -5172,7 +5667,7 @@
       <c r="M13" s="59"/>
       <c r="N13" s="59"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
@@ -5192,7 +5687,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
@@ -5212,7 +5707,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
@@ -5232,7 +5727,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
     </row>
-    <row r="17" spans="5:22">
+    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
@@ -5252,7 +5747,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
     </row>
-    <row r="18" spans="5:22">
+    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
@@ -5272,7 +5767,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
     </row>
-    <row r="19" spans="5:22">
+    <row r="19" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="59"/>
@@ -5282,7 +5777,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
     </row>
-    <row r="20" spans="5:22">
+    <row r="20" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="59"/>
@@ -5292,7 +5787,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="59"/>
     </row>
-    <row r="21" spans="5:22">
+    <row r="21" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="59"/>
@@ -5302,7 +5797,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
     </row>
-    <row r="22" spans="5:22">
+    <row r="22" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="59"/>
@@ -5312,7 +5807,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="59"/>
     </row>
-    <row r="23" spans="5:22">
+    <row r="23" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
@@ -5322,7 +5817,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="59"/>
     </row>
-    <row r="24" spans="5:22">
+    <row r="24" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="59"/>
@@ -5332,7 +5827,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="5:22">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
@@ -5342,7 +5837,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="5:22">
+    <row r="26" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
@@ -5352,7 +5847,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="5:22">
+    <row r="27" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
@@ -5362,7 +5857,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="5:22">
+    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
@@ -5372,7 +5867,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="5:22">
+    <row r="29" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
@@ -5382,7 +5877,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
     </row>
-    <row r="30" spans="5:22">
+    <row r="30" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
@@ -5392,7 +5887,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
     </row>
-    <row r="31" spans="5:22">
+    <row r="31" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
@@ -5402,7 +5897,7 @@
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
     </row>
-    <row r="32" spans="5:22">
+    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
@@ -5412,7 +5907,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
     </row>
-    <row r="33" spans="4:22">
+    <row r="33" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -5428,7 +5923,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="4:22">
+    <row r="34" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
@@ -5438,7 +5933,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
     </row>
-    <row r="35" spans="4:22">
+    <row r="35" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
@@ -5448,7 +5943,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
     </row>
-    <row r="36" spans="4:22">
+    <row r="36" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
@@ -5458,7 +5953,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
     </row>
-    <row r="37" spans="4:22">
+    <row r="37" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
@@ -5468,7 +5963,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="59"/>
     </row>
-    <row r="38" spans="4:22">
+    <row r="38" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
@@ -5478,7 +5973,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
     </row>
-    <row r="39" spans="4:22">
+    <row r="39" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
@@ -5488,7 +5983,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
     </row>
-    <row r="40" spans="4:22">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
@@ -5498,7 +5993,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
     </row>
-    <row r="41" spans="4:22">
+    <row r="41" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -5508,7 +6003,7 @@
       <c r="U41" s="59"/>
       <c r="V41" s="59"/>
     </row>
-    <row r="42" spans="4:22">
+    <row r="42" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
@@ -5518,7 +6013,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="59"/>
     </row>
-    <row r="43" spans="4:22">
+    <row r="43" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
@@ -5528,7 +6023,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="59"/>
     </row>
-    <row r="44" spans="4:22">
+    <row r="44" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
@@ -5538,7 +6033,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="59"/>
     </row>
-    <row r="45" spans="4:22">
+    <row r="45" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
@@ -5548,7 +6043,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="59"/>
     </row>
-    <row r="46" spans="4:22">
+    <row r="46" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="59"/>
@@ -5558,7 +6053,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="59"/>
     </row>
-    <row r="47" spans="4:22">
+    <row r="47" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59"/>
@@ -5568,7 +6063,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="59"/>
     </row>
-    <row r="48" spans="4:22">
+    <row r="48" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
@@ -5578,7 +6073,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="59"/>
     </row>
-    <row r="49" spans="4:22">
+    <row r="49" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="59"/>
@@ -5588,7 +6083,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="59"/>
     </row>
-    <row r="50" spans="4:22">
+    <row r="50" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="59"/>
@@ -5598,7 +6093,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="59"/>
     </row>
-    <row r="51" spans="4:22">
+    <row r="51" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="59"/>
@@ -5608,7 +6103,7 @@
       <c r="U51" s="59"/>
       <c r="V51" s="59"/>
     </row>
-    <row r="52" spans="4:22">
+    <row r="52" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
@@ -5618,7 +6113,7 @@
       <c r="U52" s="59"/>
       <c r="V52" s="59"/>
     </row>
-    <row r="53" spans="4:22">
+    <row r="53" spans="4:22" x14ac:dyDescent="0.35">
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
@@ -5628,7 +6123,7 @@
       <c r="U53" s="59"/>
       <c r="V53" s="59"/>
     </row>
-    <row r="54" spans="4:22">
+    <row r="54" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
@@ -5641,7 +6136,7 @@
       <c r="U54" s="59"/>
       <c r="V54" s="59"/>
     </row>
-    <row r="55" spans="4:22">
+    <row r="55" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
@@ -5654,7 +6149,7 @@
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
     </row>
-    <row r="56" spans="4:22">
+    <row r="56" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
@@ -5667,7 +6162,7 @@
       <c r="U56" s="59"/>
       <c r="V56" s="59"/>
     </row>
-    <row r="57" spans="4:22">
+    <row r="57" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
       <c r="G57" s="59"/>
@@ -5680,7 +6175,7 @@
       <c r="U57" s="59"/>
       <c r="V57" s="59"/>
     </row>
-    <row r="58" spans="4:22">
+    <row r="58" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
       <c r="G58" s="59"/>
@@ -5693,7 +6188,7 @@
       <c r="U58" s="59"/>
       <c r="V58" s="59"/>
     </row>
-    <row r="59" spans="4:22">
+    <row r="59" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
       <c r="G59" s="59"/>
@@ -5706,7 +6201,7 @@
       <c r="U59" s="59"/>
       <c r="V59" s="59"/>
     </row>
-    <row r="60" spans="4:22">
+    <row r="60" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
       <c r="G60" s="59"/>
@@ -5719,7 +6214,7 @@
       <c r="U60" s="59"/>
       <c r="V60" s="59"/>
     </row>
-    <row r="61" spans="4:22">
+    <row r="61" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
       <c r="G61" s="59"/>
@@ -5732,7 +6227,7 @@
       <c r="U61" s="59"/>
       <c r="V61" s="59"/>
     </row>
-    <row r="62" spans="4:22">
+    <row r="62" spans="4:22" x14ac:dyDescent="0.35">
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
       <c r="G62" s="59"/>
@@ -5745,7 +6240,7 @@
       <c r="U62" s="59"/>
       <c r="V62" s="59"/>
     </row>
-    <row r="63" spans="4:22">
+    <row r="63" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -5761,7 +6256,7 @@
       <c r="U63" s="59"/>
       <c r="V63" s="59"/>
     </row>
-    <row r="64" spans="4:22">
+    <row r="64" spans="4:22" x14ac:dyDescent="0.35">
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -5777,7 +6272,7 @@
       <c r="U64" s="59"/>
       <c r="V64" s="59"/>
     </row>
-    <row r="65" spans="3:22">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.35">
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -5793,7 +6288,7 @@
       <c r="U65" s="59"/>
       <c r="V65" s="59"/>
     </row>
-    <row r="66" spans="3:22">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.35">
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -5809,7 +6304,7 @@
       <c r="U66" s="59"/>
       <c r="V66" s="59"/>
     </row>
-    <row r="67" spans="3:22">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.35">
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -5825,7 +6320,7 @@
       <c r="U67" s="59"/>
       <c r="V67" s="59"/>
     </row>
-    <row r="68" spans="3:22">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O68" s="59"/>
       <c r="P68" s="59"/>
       <c r="Q68" s="59"/>
@@ -5835,7 +6330,7 @@
       <c r="U68" s="59"/>
       <c r="V68" s="59"/>
     </row>
-    <row r="69" spans="3:22" ht="16.5" customHeight="1">
+    <row r="69" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
@@ -5857,7 +6352,7 @@
       <c r="U69" s="59"/>
       <c r="V69" s="59"/>
     </row>
-    <row r="70" spans="3:22" ht="16.5" customHeight="1">
+    <row r="70" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
@@ -5879,7 +6374,7 @@
       <c r="U70" s="59"/>
       <c r="V70" s="59"/>
     </row>
-    <row r="71" spans="3:22" ht="16.5" customHeight="1">
+    <row r="71" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
@@ -5901,7 +6396,7 @@
       <c r="U71" s="59"/>
       <c r="V71" s="59"/>
     </row>
-    <row r="72" spans="3:22">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -5919,7 +6414,7 @@
       <c r="U72" s="59"/>
       <c r="V72" s="59"/>
     </row>
-    <row r="73" spans="3:22">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
       <c r="Q73" s="59"/>
@@ -5929,7 +6424,7 @@
       <c r="U73" s="59"/>
       <c r="V73" s="59"/>
     </row>
-    <row r="74" spans="3:22">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
       <c r="Q74" s="59"/>
@@ -5939,7 +6434,7 @@
       <c r="U74" s="59"/>
       <c r="V74" s="59"/>
     </row>
-    <row r="75" spans="3:22">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
       <c r="Q75" s="59"/>
@@ -5949,7 +6444,7 @@
       <c r="U75" s="59"/>
       <c r="V75" s="59"/>
     </row>
-    <row r="76" spans="3:22">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
       <c r="Q76" s="59"/>
@@ -5959,7 +6454,7 @@
       <c r="U76" s="59"/>
       <c r="V76" s="59"/>
     </row>
-    <row r="77" spans="3:22">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="59"/>
@@ -5969,7 +6464,7 @@
       <c r="U77" s="59"/>
       <c r="V77" s="59"/>
     </row>
-    <row r="78" spans="3:22">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
       <c r="Q78" s="59"/>
@@ -5979,7 +6474,7 @@
       <c r="U78" s="59"/>
       <c r="V78" s="59"/>
     </row>
-    <row r="79" spans="3:22">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
       <c r="Q79" s="59"/>
@@ -5989,7 +6484,7 @@
       <c r="U79" s="59"/>
       <c r="V79" s="59"/>
     </row>
-    <row r="80" spans="3:22">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.35">
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
       <c r="Q80" s="59"/>
@@ -5999,7 +6494,7 @@
       <c r="U80" s="59"/>
       <c r="V80" s="59"/>
     </row>
-    <row r="81" spans="15:22">
+    <row r="81" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
       <c r="Q81" s="59"/>
@@ -6009,7 +6504,7 @@
       <c r="U81" s="59"/>
       <c r="V81" s="59"/>
     </row>
-    <row r="82" spans="15:22">
+    <row r="82" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O82" s="59"/>
       <c r="P82" s="59"/>
       <c r="Q82" s="59"/>
@@ -6019,7 +6514,7 @@
       <c r="U82" s="59"/>
       <c r="V82" s="59"/>
     </row>
-    <row r="83" spans="15:22">
+    <row r="83" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O83" s="59"/>
       <c r="P83" s="59"/>
       <c r="Q83" s="59"/>
@@ -6029,7 +6524,7 @@
       <c r="U83" s="59"/>
       <c r="V83" s="59"/>
     </row>
-    <row r="84" spans="15:22">
+    <row r="84" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O84" s="59"/>
       <c r="P84" s="59"/>
       <c r="Q84" s="59"/>
@@ -6039,7 +6534,7 @@
       <c r="U84" s="59"/>
       <c r="V84" s="59"/>
     </row>
-    <row r="85" spans="15:22">
+    <row r="85" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O85" s="59"/>
       <c r="P85" s="59"/>
       <c r="Q85" s="59"/>
@@ -6049,7 +6544,7 @@
       <c r="U85" s="59"/>
       <c r="V85" s="59"/>
     </row>
-    <row r="86" spans="15:22">
+    <row r="86" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O86" s="59"/>
       <c r="P86" s="59"/>
       <c r="Q86" s="59"/>
@@ -6059,7 +6554,7 @@
       <c r="U86" s="59"/>
       <c r="V86" s="59"/>
     </row>
-    <row r="87" spans="15:22">
+    <row r="87" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O87" s="59"/>
       <c r="P87" s="59"/>
       <c r="Q87" s="59"/>
@@ -6069,7 +6564,7 @@
       <c r="U87" s="59"/>
       <c r="V87" s="59"/>
     </row>
-    <row r="88" spans="15:22">
+    <row r="88" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O88" s="59"/>
       <c r="P88" s="59"/>
       <c r="Q88" s="59"/>
@@ -6079,7 +6574,7 @@
       <c r="U88" s="59"/>
       <c r="V88" s="59"/>
     </row>
-    <row r="89" spans="15:22">
+    <row r="89" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O89" s="59"/>
       <c r="P89" s="59"/>
       <c r="Q89" s="59"/>
@@ -6089,7 +6584,7 @@
       <c r="U89" s="59"/>
       <c r="V89" s="59"/>
     </row>
-    <row r="90" spans="15:22">
+    <row r="90" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O90" s="59"/>
       <c r="P90" s="59"/>
       <c r="Q90" s="59"/>
@@ -6099,7 +6594,7 @@
       <c r="U90" s="59"/>
       <c r="V90" s="59"/>
     </row>
-    <row r="91" spans="15:22">
+    <row r="91" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
       <c r="Q91" s="59"/>
@@ -6109,7 +6604,7 @@
       <c r="U91" s="59"/>
       <c r="V91" s="59"/>
     </row>
-    <row r="92" spans="15:22">
+    <row r="92" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O92" s="59"/>
       <c r="P92" s="59"/>
       <c r="Q92" s="59"/>
@@ -6119,7 +6614,7 @@
       <c r="U92" s="59"/>
       <c r="V92" s="59"/>
     </row>
-    <row r="93" spans="15:22">
+    <row r="93" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O93" s="59"/>
       <c r="P93" s="59"/>
       <c r="Q93" s="59"/>
@@ -6129,7 +6624,7 @@
       <c r="U93" s="59"/>
       <c r="V93" s="59"/>
     </row>
-    <row r="94" spans="15:22">
+    <row r="94" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O94" s="59"/>
       <c r="P94" s="59"/>
       <c r="Q94" s="59"/>
@@ -6139,7 +6634,7 @@
       <c r="U94" s="59"/>
       <c r="V94" s="59"/>
     </row>
-    <row r="95" spans="15:22">
+    <row r="95" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O95" s="59"/>
       <c r="P95" s="59"/>
       <c r="Q95" s="59"/>
@@ -6149,7 +6644,7 @@
       <c r="U95" s="59"/>
       <c r="V95" s="59"/>
     </row>
-    <row r="96" spans="15:22">
+    <row r="96" spans="15:22" x14ac:dyDescent="0.35">
       <c r="O96" s="59"/>
       <c r="P96" s="59"/>
       <c r="Q96" s="59"/>
@@ -6159,7 +6654,7 @@
       <c r="U96" s="59"/>
       <c r="V96" s="59"/>
     </row>
-    <row r="97" spans="2:18">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -6172,7 +6667,7 @@
       <c r="M97" s="59"/>
       <c r="N97" s="59"/>
     </row>
-    <row r="98" spans="2:18">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="37"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
@@ -6190,7 +6685,7 @@
       <c r="Q98" s="59"/>
       <c r="R98" s="59"/>
     </row>
-    <row r="99" spans="2:18">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -6207,7 +6702,7 @@
       <c r="Q99" s="59"/>
       <c r="R99" s="59"/>
     </row>
-    <row r="100" spans="2:18">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -6224,7 +6719,7 @@
       <c r="Q100" s="59"/>
       <c r="R100" s="59"/>
     </row>
-    <row r="101" spans="2:18">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -6241,7 +6736,7 @@
       <c r="Q101" s="59"/>
       <c r="R101" s="59"/>
     </row>
-    <row r="102" spans="2:18">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -6258,7 +6753,7 @@
       <c r="Q102" s="59"/>
       <c r="R102" s="59"/>
     </row>
-    <row r="103" spans="2:18">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -6275,7 +6770,7 @@
       <c r="Q103" s="59"/>
       <c r="R103" s="59"/>
     </row>
-    <row r="104" spans="2:18">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -6292,7 +6787,7 @@
       <c r="Q104" s="59"/>
       <c r="R104" s="59"/>
     </row>
-    <row r="105" spans="2:18">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -6309,7 +6804,7 @@
       <c r="Q105" s="59"/>
       <c r="R105" s="59"/>
     </row>
-    <row r="106" spans="2:18">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -6326,7 +6821,7 @@
       <c r="Q106" s="59"/>
       <c r="R106" s="59"/>
     </row>
-    <row r="107" spans="2:18">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -6343,7 +6838,7 @@
       <c r="Q107" s="59"/>
       <c r="R107" s="59"/>
     </row>
-    <row r="108" spans="2:18">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -6360,7 +6855,7 @@
       <c r="Q108" s="59"/>
       <c r="R108" s="59"/>
     </row>
-    <row r="109" spans="2:18">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -6377,7 +6872,7 @@
       <c r="Q109" s="59"/>
       <c r="R109" s="59"/>
     </row>
-    <row r="110" spans="2:18">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C110" s="55"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
@@ -6395,49 +6890,49 @@
       <c r="Q110" s="59"/>
       <c r="R110" s="59"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" s="37"/>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" s="38"/>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="38"/>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" s="38"/>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="38"/>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" s="38"/>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
       <c r="H137" s="59"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
       <c r="G138" s="59"/>
       <c r="H138" s="59"/>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
       <c r="G139" s="59"/>
       <c r="H139" s="59"/>
     </row>
-    <row r="145" spans="4:15">
+    <row r="145" spans="4:15" x14ac:dyDescent="0.35">
       <c r="H145" s="62"/>
       <c r="I145" s="59"/>
       <c r="J145" s="59"/>
       <c r="K145" s="59"/>
     </row>
-    <row r="148" spans="4:15">
+    <row r="148" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -6451,7 +6946,7 @@
       <c r="N148" s="59"/>
       <c r="O148" s="59"/>
     </row>
-    <row r="149" spans="4:15">
+    <row r="149" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -6465,7 +6960,7 @@
       <c r="N149" s="59"/>
       <c r="O149" s="59"/>
     </row>
-    <row r="150" spans="4:15">
+    <row r="150" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -6479,7 +6974,7 @@
       <c r="N150" s="59"/>
       <c r="O150" s="59"/>
     </row>
-    <row r="151" spans="4:15">
+    <row r="151" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -6493,7 +6988,7 @@
       <c r="N151" s="59"/>
       <c r="O151" s="59"/>
     </row>
-    <row r="152" spans="4:15">
+    <row r="152" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -6507,7 +7002,7 @@
       <c r="N152" s="59"/>
       <c r="O152" s="59"/>
     </row>
-    <row r="153" spans="4:15">
+    <row r="153" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -6521,7 +7016,7 @@
       <c r="N153" s="59"/>
       <c r="O153" s="59"/>
     </row>
-    <row r="154" spans="4:15">
+    <row r="154" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
@@ -6535,7 +7030,7 @@
       <c r="N154" s="59"/>
       <c r="O154" s="59"/>
     </row>
-    <row r="155" spans="4:15">
+    <row r="155" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
@@ -6549,7 +7044,7 @@
       <c r="N155" s="59"/>
       <c r="O155" s="59"/>
     </row>
-    <row r="156" spans="4:15">
+    <row r="156" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59"/>
@@ -6563,7 +7058,7 @@
       <c r="N156" s="59"/>
       <c r="O156" s="59"/>
     </row>
-    <row r="157" spans="4:15">
+    <row r="157" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -6577,7 +7072,7 @@
       <c r="N157" s="59"/>
       <c r="O157" s="59"/>
     </row>
-    <row r="158" spans="4:15">
+    <row r="158" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
@@ -6591,7 +7086,7 @@
       <c r="N158" s="59"/>
       <c r="O158" s="59"/>
     </row>
-    <row r="159" spans="4:15">
+    <row r="159" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
@@ -6605,7 +7100,7 @@
       <c r="N159" s="59"/>
       <c r="O159" s="59"/>
     </row>
-    <row r="160" spans="4:15">
+    <row r="160" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
@@ -6619,7 +7114,7 @@
       <c r="N160" s="59"/>
       <c r="O160" s="59"/>
     </row>
-    <row r="161" spans="3:23">
+    <row r="161" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
@@ -6633,7 +7128,7 @@
       <c r="N161" s="59"/>
       <c r="O161" s="59"/>
     </row>
-    <row r="162" spans="3:23">
+    <row r="162" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
@@ -6647,7 +7142,7 @@
       <c r="N162" s="59"/>
       <c r="O162" s="59"/>
     </row>
-    <row r="163" spans="3:23">
+    <row r="163" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -6661,7 +7156,7 @@
       <c r="N163" s="59"/>
       <c r="O163" s="59"/>
     </row>
-    <row r="164" spans="3:23">
+    <row r="164" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -6675,7 +7170,7 @@
       <c r="N164" s="59"/>
       <c r="O164" s="59"/>
     </row>
-    <row r="165" spans="3:23">
+    <row r="165" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -6685,7 +7180,7 @@
       <c r="J165" s="59"/>
       <c r="K165" s="59"/>
     </row>
-    <row r="166" spans="3:23">
+    <row r="166" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -6695,28 +7190,28 @@
       <c r="J166" s="59"/>
       <c r="K166" s="59"/>
     </row>
-    <row r="169" spans="3:23">
+    <row r="169" spans="3:23" x14ac:dyDescent="0.35">
       <c r="H169" s="62"/>
       <c r="I169" s="59"/>
       <c r="J169" s="59"/>
       <c r="K169" s="59"/>
     </row>
-    <row r="173" spans="3:23">
+    <row r="173" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C173" s="55"/>
     </row>
-    <row r="176" spans="3:23">
+    <row r="176" spans="3:23" x14ac:dyDescent="0.35">
       <c r="T176" s="63"/>
       <c r="V176" s="64"/>
       <c r="W176" s="9"/>
     </row>
-    <row r="177" spans="2:25">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.35">
       <c r="T177" s="65"/>
       <c r="U177" s="47"/>
       <c r="V177" s="47"/>
       <c r="W177" s="59"/>
       <c r="X177" s="59"/>
     </row>
-    <row r="178" spans="2:25">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.35">
       <c r="S178" s="20"/>
       <c r="T178" s="21"/>
       <c r="U178" s="21"/>
@@ -6724,7 +7219,7 @@
       <c r="W178" s="21"/>
       <c r="X178" s="21"/>
     </row>
-    <row r="179" spans="2:25">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B179" s="37"/>
       <c r="D179" s="66"/>
       <c r="E179" s="67"/>
@@ -6748,7 +7243,7 @@
       <c r="W179" s="60"/>
       <c r="X179" s="60"/>
     </row>
-    <row r="180" spans="2:25">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B180" s="38"/>
       <c r="D180" s="10"/>
       <c r="E180" s="11"/>
@@ -6757,13 +7252,13 @@
       <c r="H180" s="12"/>
       <c r="I180" s="11"/>
       <c r="J180" s="12"/>
-      <c r="K180" s="104"/>
-      <c r="L180" s="105"/>
-      <c r="M180" s="105"/>
-      <c r="N180" s="105"/>
-      <c r="O180" s="105"/>
-      <c r="P180" s="105"/>
-      <c r="Q180" s="106"/>
+      <c r="K180" s="106"/>
+      <c r="L180" s="107"/>
+      <c r="M180" s="107"/>
+      <c r="N180" s="107"/>
+      <c r="O180" s="107"/>
+      <c r="P180" s="107"/>
+      <c r="Q180" s="108"/>
       <c r="R180" s="49"/>
       <c r="S180" s="48"/>
       <c r="T180" s="48"/>
@@ -6773,7 +7268,7 @@
       <c r="X180" s="48"/>
       <c r="Y180" s="59"/>
     </row>
-    <row r="181" spans="2:25" ht="15.75" customHeight="1">
+    <row r="181" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="38"/>
       <c r="D181" s="10"/>
       <c r="E181" s="11"/>
@@ -6798,7 +7293,7 @@
       <c r="X181" s="48"/>
       <c r="Y181" s="59"/>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B182" s="38"/>
       <c r="R182" s="59"/>
       <c r="S182" s="59"/>
@@ -6809,10 +7304,10 @@
       <c r="X182" s="59"/>
       <c r="Y182" s="59"/>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B183" s="38"/>
     </row>
-    <row r="184" spans="2:25">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
       <c r="G184" s="59"/>
@@ -6825,7 +7320,7 @@
       <c r="N184" s="59"/>
       <c r="O184" s="59"/>
     </row>
-    <row r="185" spans="2:25">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
       <c r="G185" s="59"/>
@@ -6838,7 +7333,7 @@
       <c r="N185" s="59"/>
       <c r="O185" s="59"/>
     </row>
-    <row r="186" spans="2:25">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
       <c r="G186" s="59"/>
@@ -6851,7 +7346,7 @@
       <c r="N186" s="59"/>
       <c r="O186" s="59"/>
     </row>
-    <row r="187" spans="2:25">
+    <row r="187" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E187" s="59"/>
       <c r="F187" s="16"/>
       <c r="G187" s="59"/>
@@ -6864,7 +7359,7 @@
       <c r="N187" s="59"/>
       <c r="O187" s="59"/>
     </row>
-    <row r="188" spans="2:25">
+    <row r="188" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E188" s="59"/>
       <c r="F188" s="16"/>
       <c r="G188" s="59"/>
@@ -6877,7 +7372,7 @@
       <c r="N188" s="59"/>
       <c r="O188" s="59"/>
     </row>
-    <row r="189" spans="2:25">
+    <row r="189" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="59"/>
@@ -6890,7 +7385,7 @@
       <c r="N189" s="59"/>
       <c r="O189" s="59"/>
     </row>
-    <row r="190" spans="2:25">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="59"/>
@@ -6903,7 +7398,7 @@
       <c r="N190" s="59"/>
       <c r="O190" s="59"/>
     </row>
-    <row r="191" spans="2:25">
+    <row r="191" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="59"/>
@@ -6916,7 +7411,7 @@
       <c r="N191" s="59"/>
       <c r="O191" s="59"/>
     </row>
-    <row r="192" spans="2:25">
+    <row r="192" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="59"/>
@@ -6929,7 +7424,7 @@
       <c r="N192" s="59"/>
       <c r="O192" s="59"/>
     </row>
-    <row r="193" spans="5:15">
+    <row r="193" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="59"/>
@@ -6942,7 +7437,7 @@
       <c r="N193" s="59"/>
       <c r="O193" s="59"/>
     </row>
-    <row r="199" spans="5:15">
+    <row r="199" spans="5:15" x14ac:dyDescent="0.35">
       <c r="G199" s="59"/>
       <c r="H199" s="59"/>
       <c r="I199" s="59"/>
@@ -6953,7 +7448,7 @@
   <mergeCells count="1">
     <mergeCell ref="K180:Q180"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A7 A9:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -6966,22 +7461,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.125" style="79" customWidth="1"/>
     <col min="2" max="2" width="9" style="55"/>
     <col min="3" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="86" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -6990,10 +7485,10 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="86"/>
       <c r="C2" s="87" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
@@ -7001,29 +7496,29 @@
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="86"/>
       <c r="C3" s="87"/>
       <c r="D3" s="87" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="87"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="86"/>
       <c r="C4" s="87"/>
       <c r="D4" s="87" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
       <c r="H4" s="87"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="86"/>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -7032,10 +7527,10 @@
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
@@ -7043,422 +7538,499 @@
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" s="56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D34" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="E35" s="56" t="s">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E35" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E36" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D38" s="56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="E36" s="56" t="s">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E39" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E40" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E41" s="56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E42" s="56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="E37" s="56" t="s">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D45" s="56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="D39" s="56" t="s">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E46" s="56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="E40" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="E41" s="56" t="s">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E47" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="E42" s="56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="D44" s="56" t="s">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E48" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="E45" s="56" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="E46" s="56" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E51" s="56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E56" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="E47" s="56" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="79" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E62" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E67" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F68" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F74" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="87"/>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="87"/>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="87"/>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="87"/>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="87"/>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E79" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E85" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="F86" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="G87" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="N89" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="O89" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="87"/>
+      <c r="R89" s="87"/>
+    </row>
+    <row r="90" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="O90" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="87"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G100" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D104" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E105" s="56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A107" s="79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="E108" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="F108" s="87"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="87"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="82"/>
+      <c r="E109" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="87"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E114" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E115" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E117" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F129" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G130" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="H131" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="H132" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A133" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="82" t="s">
+      <c r="H133" s="56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A134" s="82" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="E50" s="56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="E55" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="79" t="s">
+      <c r="H134" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A136" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="82" t="s">
+      <c r="F136" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="F59" s="56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="E61" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="F67" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="F73" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6">
-      <c r="E78" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7">
-      <c r="E84" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7">
-      <c r="F85" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7">
-      <c r="G86" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="G99" s="56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="F101" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="D103" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="E104" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="33">
-      <c r="A106" s="79" t="s">
+      <c r="G137" s="56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G138" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H139" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H140" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="F141" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" s="79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F143" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="G143" s="87"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="87"/>
+      <c r="J143" s="87"/>
+      <c r="K143" s="87"/>
+      <c r="L143" s="87"/>
+      <c r="M143" s="87"/>
+      <c r="N143" s="87"/>
+      <c r="O143" s="87"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F144" s="87"/>
+      <c r="G144" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="H144" s="87"/>
+      <c r="I144" s="87"/>
+      <c r="J144" s="87"/>
+      <c r="K144" s="87"/>
+      <c r="L144" s="87"/>
+      <c r="M144" s="87"/>
+      <c r="N144" s="87"/>
+      <c r="O144" s="87"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
+      <c r="H145" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="I145" s="87"/>
+      <c r="J145" s="87"/>
+      <c r="K145" s="87"/>
+      <c r="L145" s="87"/>
+      <c r="M145" s="87"/>
+      <c r="N145" s="87"/>
+      <c r="O145" s="87"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D148" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A149" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E149" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A153" s="82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B155" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C156" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A157" s="79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="E108" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="82" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="E112" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="5:7">
-      <c r="E113" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="115" spans="5:7">
-      <c r="E115" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="5:7">
-      <c r="F127" s="56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="5:7">
-      <c r="G128" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="H129" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="H130" s="56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="33">
-      <c r="A131" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="H131" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="33">
-      <c r="A132" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="H132" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="33">
-      <c r="A134" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="G135" s="56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="G136" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="H137" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="H138" s="56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="F139" s="56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="D141" s="56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="33">
-      <c r="A142" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E142" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="E143" s="56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="49.5">
-      <c r="A145" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E145" s="56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="33">
-      <c r="A146" s="82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="B148" s="55" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="C149" s="56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="33">
-      <c r="A150" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="C150" s="56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="33">
-      <c r="A151" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C151" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="B154" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="C154" s="87"/>
-      <c r="D154" s="87"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="87"/>
-      <c r="H154" s="87"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="87"/>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="B155" s="86"/>
-      <c r="C155" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="87"/>
-      <c r="G155" s="87"/>
-      <c r="H155" s="87"/>
-      <c r="I155" s="87"/>
-      <c r="J155" s="87"/>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="B156" s="86"/>
-      <c r="C156" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D156" s="87"/>
-      <c r="E156" s="87"/>
-      <c r="F156" s="87"/>
-      <c r="G156" s="87"/>
-      <c r="H156" s="87"/>
-      <c r="I156" s="87"/>
-      <c r="J156" s="87"/>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="B157" s="86"/>
-      <c r="C157" s="87"/>
+      <c r="C157" s="87" t="s">
+        <v>163</v>
+      </c>
       <c r="D157" s="87"/>
       <c r="E157" s="87"/>
       <c r="F157" s="87"/>
@@ -7467,12 +8039,14 @@
       <c r="I157" s="87"/>
       <c r="J157" s="87"/>
     </row>
-    <row r="158" spans="1:10">
-      <c r="B158" s="86"/>
-      <c r="C158" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" s="87"/>
+    <row r="158" spans="1:15" ht="33" x14ac:dyDescent="0.35">
+      <c r="A158" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87" t="s">
+        <v>309</v>
+      </c>
       <c r="E158" s="87"/>
       <c r="F158" s="87"/>
       <c r="G158" s="87"/>
@@ -7480,11 +8054,11 @@
       <c r="I158" s="87"/>
       <c r="J158" s="87"/>
     </row>
-    <row r="159" spans="1:10">
-      <c r="B159" s="86"/>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" s="82"/>
       <c r="C159" s="87"/>
       <c r="D159" s="87" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="E159" s="87"/>
       <c r="F159" s="87"/>
@@ -7493,12 +8067,12 @@
       <c r="I159" s="87"/>
       <c r="J159" s="87"/>
     </row>
-    <row r="160" spans="1:10">
-      <c r="B160" s="86"/>
-      <c r="C160" s="87"/>
-      <c r="D160" s="87" t="s">
-        <v>227</v>
-      </c>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" s="82"/>
+      <c r="C160" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D160" s="87"/>
       <c r="E160" s="87"/>
       <c r="F160" s="87"/>
       <c r="G160" s="87"/>
@@ -7506,22 +8080,114 @@
       <c r="I160" s="87"/>
       <c r="J160" s="87"/>
     </row>
-    <row r="161" spans="2:10">
-      <c r="B161" s="86"/>
-      <c r="C161" s="87"/>
-      <c r="D161" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="E161" s="87"/>
-      <c r="F161" s="87"/>
-      <c r="G161" s="87"/>
-      <c r="H161" s="87"/>
-      <c r="I161" s="87"/>
-      <c r="J161" s="87"/>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="82"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="59"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="16"/>
+      <c r="C165" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="59"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="16"/>
+      <c r="C166" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="16"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="59"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="59"/>
+      <c r="J167" s="59"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="16"/>
+      <c r="C168" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" s="59"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="59"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="16"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="59"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="16"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="E170" s="87"/>
+      <c r="F170" s="87"/>
+      <c r="G170" s="87"/>
+      <c r="H170" s="87"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="16"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A44 A46:A1048576">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A8:A45 A47:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
@@ -7537,411 +8203,415 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="E67" sqref="E67:E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="69"/>
     <col min="2" max="7" width="10.625" style="69" customWidth="1"/>
     <col min="8" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F2" s="69" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="88" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="88" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="88" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="88" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="88" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="88" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="88" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="88" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="88" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="88" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="88" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="88" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="88" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="88" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="88" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="88" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="88" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="88" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="88" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="88" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="88" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="88" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="88" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="88" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="88" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="88" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="88" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="88" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="88" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="88" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="88" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="88" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="88" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="88" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="88" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="88" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="88" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="88" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="88" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="88" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="88" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="88" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="88" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="88" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="88" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="88" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="88" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="88" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="88" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="88" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="88" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="88" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="88" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="88" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="88" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="88" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="88" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="88" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="88" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="88" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="88" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="88" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="88" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="88" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="88" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="88" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="88" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="88" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="88" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="88" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="88" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="88" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="88" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="88" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="88" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="88" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="88" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="88" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="88" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="88" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="88" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="88" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="88" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="88" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="88" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="88" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N63" s="81"/>
       <c r="O63" s="81"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="R63" s="81"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="83"/>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
       <c r="I66" s="83"/>
       <c r="J66" s="83"/>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="83"/>
-      <c r="B67" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="E67" s="83"/>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="84"/>
+      <c r="B67" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="90" t="s">
+        <v>304</v>
+      </c>
       <c r="F67" s="83"/>
       <c r="G67" s="83"/>
       <c r="H67" s="83"/>
       <c r="I67" s="83"/>
       <c r="J67" s="83"/>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="83"/>
-      <c r="B68" s="83">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="84"/>
+      <c r="B68" s="84">
         <v>20</v>
       </c>
-      <c r="C68" s="83">
+      <c r="C68" s="84">
         <v>5</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="84">
         <v>3</v>
       </c>
-      <c r="E68" s="83"/>
+      <c r="E68" s="84">
+        <v>200</v>
+      </c>
       <c r="F68" s="83"/>
       <c r="G68" s="83"/>
       <c r="H68" s="83"/>
       <c r="I68" s="83"/>
       <c r="J68" s="83"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="83"/>
       <c r="B69" s="83"/>
       <c r="C69" s="83"/>
@@ -7953,10 +8623,10 @@
       <c r="I69" s="83"/>
       <c r="J69" s="83"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="83"/>
       <c r="B70" s="84" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C70" s="84"/>
       <c r="D70" s="84"/>
@@ -7968,7 +8638,7 @@
       <c r="J70" s="83"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7978,22 +8648,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="71"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="35"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8007,7 +8677,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8021,7 +8691,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8035,7 +8705,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8049,7 +8719,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8063,7 +8733,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8077,7 +8747,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8091,7 +8761,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8105,7 +8775,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8119,7 +8789,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8133,7 +8803,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8147,7 +8817,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8161,7 +8831,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8175,7 +8845,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8189,7 +8859,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8203,7 +8873,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8217,7 +8887,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8231,7 +8901,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -8245,7 +8915,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8259,7 +8929,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8273,7 +8943,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
@@ -8286,7 +8956,7 @@
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1">
+    <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -8299,7 +8969,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1">
+    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8312,7 +8982,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1">
+    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8325,7 +8995,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1">
+    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8339,7 +9009,7 @@
       <c r="K26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -8348,7 +9018,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8357,7 +9027,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8366,7 +9036,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8375,7 +9045,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8384,7 +9054,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8398,7 +9068,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8412,9 +9082,9 @@
       <c r="L33" s="23"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="71" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8429,7 +9099,7 @@
       <c r="L34" s="23"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8443,7 +9113,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8457,7 +9127,7 @@
       <c r="L36" s="23"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8471,7 +9141,7 @@
       <c r="L37" s="23"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8485,7 +9155,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8499,7 +9169,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8513,7 +9183,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8527,7 +9197,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8541,7 +9211,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8555,7 +9225,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8569,7 +9239,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -8583,7 +9253,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8597,7 +9267,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -8609,7 +9279,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -8621,7 +9291,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="55"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8634,7 +9304,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="55"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8647,7 +9317,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="55"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -8660,7 +9330,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="55"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8673,7 +9343,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="55"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -8686,7 +9356,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="55"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -8699,7 +9369,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="55"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -8712,7 +9382,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="55"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8725,7 +9395,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="55"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -8738,7 +9408,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="55"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -8751,7 +9421,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="55"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -8764,7 +9434,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="55"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -8777,7 +9447,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="55"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -8790,7 +9460,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="55"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8803,7 +9473,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="55"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -8816,7 +9486,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="55"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -8829,7 +9499,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="55"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8842,7 +9512,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="55"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8855,7 +9525,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="55"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8868,7 +9538,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8880,7 +9550,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8894,7 +9564,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -8908,7 +9578,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="25"/>
       <c r="F71" s="8"/>
@@ -8922,7 +9592,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="25"/>
       <c r="F72" s="26"/>
@@ -8936,7 +9606,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="25"/>
       <c r="F73" s="27"/>
@@ -8950,7 +9620,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="25"/>
       <c r="F74" s="27"/>
@@ -8964,7 +9634,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="25"/>
       <c r="F75" s="27"/>
@@ -8978,9 +9648,9 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="71" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="1"/>
@@ -8995,7 +9665,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
@@ -9009,7 +9679,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -9023,7 +9693,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -9037,7 +9707,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
@@ -9051,7 +9721,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="4:15">
+    <row r="81" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="25"/>
       <c r="F81" s="26"/>
@@ -9065,7 +9735,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="4:15">
+    <row r="82" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -9079,7 +9749,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="4:15">
+    <row r="83" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="25"/>
       <c r="F83" s="26"/>
@@ -9093,7 +9763,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="4:15">
+    <row r="84" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="25"/>
       <c r="F84" s="27"/>
@@ -9107,7 +9777,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="4:15">
+    <row r="85" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="25"/>
       <c r="F85" s="27"/>
@@ -9121,7 +9791,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="4:15">
+    <row r="86" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="25"/>
       <c r="F86" s="27"/>
@@ -9135,7 +9805,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="4:15">
+    <row r="87" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="25"/>
       <c r="F87" s="27"/>
@@ -9149,7 +9819,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="4:15">
+    <row r="88" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="1"/>
       <c r="F88" s="8"/>
@@ -9163,7 +9833,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="4:15">
+    <row r="89" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -9177,7 +9847,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="4:15">
+    <row r="90" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -9191,7 +9861,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="4:15">
+    <row r="91" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -9205,7 +9875,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="4:15">
+    <row r="92" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -9219,7 +9889,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="4:15">
+    <row r="93" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -9233,7 +9903,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="4:15">
+    <row r="94" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -9247,7 +9917,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="4:15">
+    <row r="95" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="8"/>
@@ -9261,7 +9931,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="4:15">
+    <row r="96" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -9271,7 +9941,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="21">
+    <row r="97" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="E97" s="54"/>
       <c r="F97" s="52"/>
       <c r="G97" s="52"/>
@@ -9284,7 +9954,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="8"/>
@@ -9298,7 +9968,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="8"/>
@@ -9312,9 +9982,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="55" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -9329,9 +9999,9 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B101" s="78" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -9346,9 +10016,9 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B102" s="78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="8"/>
@@ -9363,7 +10033,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C103" s="28"/>
       <c r="D103" s="53"/>
       <c r="E103" s="51"/>
@@ -9378,7 +10048,7 @@
       <c r="N103" s="28"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C104" s="28"/>
       <c r="D104" s="32"/>
       <c r="E104" s="27"/>
@@ -9392,7 +10062,7 @@
       <c r="M104" s="28"/>
       <c r="N104" s="28"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C105" s="28"/>
       <c r="D105" s="32"/>
       <c r="E105" s="27"/>
@@ -9406,7 +10076,7 @@
       <c r="M105" s="28"/>
       <c r="N105" s="28"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C106" s="28"/>
       <c r="D106" s="32"/>
       <c r="E106" s="27"/>
@@ -9420,7 +10090,7 @@
       <c r="M106" s="28"/>
       <c r="N106" s="28"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C107" s="28"/>
       <c r="D107" s="32"/>
       <c r="E107" s="27"/>
@@ -9434,7 +10104,7 @@
       <c r="M107" s="28"/>
       <c r="N107" s="28"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C108" s="16"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -9448,7 +10118,7 @@
       <c r="M108" s="28"/>
       <c r="N108" s="28"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C109" s="8"/>
       <c r="D109" s="32"/>
       <c r="E109" s="27"/>
@@ -9462,7 +10132,7 @@
       <c r="M109" s="28"/>
       <c r="N109" s="28"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C110" s="8"/>
       <c r="D110" s="32"/>
       <c r="E110" s="27"/>
@@ -9476,7 +10146,7 @@
       <c r="M110" s="28"/>
       <c r="N110" s="28"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C111" s="8"/>
       <c r="D111" s="32"/>
       <c r="E111" s="27"/>
@@ -9490,7 +10160,7 @@
       <c r="M111" s="28"/>
       <c r="N111" s="28"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C112" s="8"/>
       <c r="D112" s="32"/>
       <c r="E112" s="27"/>
@@ -9504,7 +10174,7 @@
       <c r="M112" s="28"/>
       <c r="N112" s="28"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C113" s="8"/>
       <c r="D113" s="32"/>
       <c r="E113" s="27"/>
@@ -9518,10 +10188,18 @@
       <c r="M113" s="28"/>
       <c r="N113" s="28"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="71" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B116" s="78" t="s">
+        <v>298</v>
+      </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="21">
+    <row r="117" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="H117" s="54"/>
       <c r="I117" s="34"/>
       <c r="J117" s="34"/>
@@ -9529,10 +10207,10 @@
       <c r="L117" s="34"/>
       <c r="M117" s="34"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="35"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -9550,7 +10228,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -9568,7 +10246,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -9586,7 +10264,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -9604,7 +10282,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -9622,7 +10300,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -9640,7 +10318,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -9658,7 +10336,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -9676,7 +10354,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -9694,7 +10372,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -9712,7 +10390,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="2:17">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -9730,7 +10408,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -9748,7 +10426,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="2:17">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -9766,7 +10444,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="2:17">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -9784,7 +10462,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="2:17">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9802,7 +10480,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -9820,7 +10498,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9838,7 +10516,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="2:17">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9856,7 +10534,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="2:17">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -9874,7 +10552,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9892,7 +10570,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -9910,15 +10588,15 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="2:17" ht="21">
+    <row r="151" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="K151" s="54"/>
       <c r="L151" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9930,10 +10608,10 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="24" customWidth="1"/>
     <col min="2" max="2" width="46" style="24" customWidth="1"/>
@@ -9945,7 +10623,7 @@
     <col min="10" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9964,7 +10642,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
@@ -10002,18 +10680,18 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="28"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -10024,7 +10702,7 @@
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10036,7 +10714,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -10048,7 +10726,7 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10060,7 +10738,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -10072,7 +10750,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10084,7 +10762,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -10096,7 +10774,7 @@
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -10108,7 +10786,7 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -10120,7 +10798,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -10132,7 +10810,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -10144,7 +10822,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -10156,7 +10834,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10168,7 +10846,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -10180,7 +10858,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -10192,7 +10870,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -10205,20 +10883,20 @@
       <c r="J18" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="11" width="9" style="24"/>
     <col min="12" max="12" width="20.875" style="24" customWidth="1"/>
@@ -10227,11 +10905,56 @@
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="40" customFormat="1">
+    <row r="1" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39"/>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="78" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10244,7 +10967,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="24"/>
     <col min="3" max="3" width="14.75" style="24" customWidth="1"/>
@@ -10253,7 +10976,7 @@
     <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1">
+    <row r="1" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>40</v>
       </c>
@@ -10273,12 +10996,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="45" customFormat="1">
+    <row r="2" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10291,12 +11014,12 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9" style="24"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,12 @@
     <definedName name="_5_、功能按钮">#REF!</definedName>
     <definedName name="【聊天频道名称】玩家名称_具体内容">UI逻辑相关!#REF!</definedName>
     <definedName name="UI动画">美术需求!$A$115:$B$117</definedName>
+    <definedName name="补签按钮样式">UI逻辑相关!$E$113:$G$117</definedName>
     <definedName name="补签消耗配置表">配置方式!$A$66:$E$68</definedName>
     <definedName name="补签消耗上限">配置方式!$E$67:$E$68</definedName>
     <definedName name="此处聊天记录仅显示一条_显示不下时截断。">UI逻辑相关!#REF!</definedName>
     <definedName name="从上到下依次显示选项_邀请入会、屏蔽">#REF!</definedName>
-    <definedName name="当当前有可以进行的签到或者补签时_图标右上角有红点显示">UI逻辑相关!$C$157:$J$160</definedName>
+    <definedName name="当当前有可以进行的签到或者补签时_图标右上角有红点显示">UI逻辑相关!$C$161:$J$164</definedName>
     <definedName name="当提示方式选择为“系统提示”时_可以设定提示范围_包含玩家自己_玩家所在公会">整体说明!$F$192</definedName>
     <definedName name="当玩家没有加入公会时_点击公会页签_不会切换到公会页且弹出提示信息im_record_002">UI逻辑相关!#REF!</definedName>
     <definedName name="当新的信息出现时_顶替掉旧信息显示在基础聊天框">UI逻辑相关!#REF!</definedName>
@@ -55,15 +56,15 @@
     <definedName name="聊天记客户端">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天内容保存在客户端即可_玩家退出游戏后_聊天内容消失_再次登录不会显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="默认显示”请输入信息“">UI逻辑相关!#REF!</definedName>
-    <definedName name="签到刷新规则">UI逻辑相关!$B$164:$J$171</definedName>
+    <definedName name="签到刷新规则">UI逻辑相关!$B$168:$J$175</definedName>
     <definedName name="日常签到界面入口">UI逻辑相关!$B$1:$H$6</definedName>
     <definedName name="如果公会标签页不可用_则点击时会弹出提示信息im_record_004">UI逻辑相关!#REF!</definedName>
     <definedName name="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标">UI逻辑相关!$F$74:$K$78</definedName>
     <definedName name="若2行仍显示不下提示信息_则提示信息向两侧扩展_先扩充第二行_当第二行已达屏幕最长位置_则扩充第一行">#REF!</definedName>
-    <definedName name="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭">UI逻辑相关!$D$170:$H$170</definedName>
+    <definedName name="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭">UI逻辑相关!$D$174:$H$174</definedName>
     <definedName name="若玩家手指拖动信息且手指未离开频幕_则信息会根据玩家手指拖动频幕的位置显示对应信息_信息不会刷新。">UI逻辑相关!#REF!</definedName>
     <definedName name="三、走马灯">#REF!</definedName>
-    <definedName name="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容">UI逻辑相关!$F$143:$O$145</definedName>
+    <definedName name="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容">UI逻辑相关!$F$147:$O$149</definedName>
     <definedName name="输入一些信息后_按空格_再次输入信息_后输入的信息如果超出了这一行的显示范围_该信息会整体换行">UI逻辑相关!#REF!</definedName>
     <definedName name="四、系统公告提示">#REF!</definedName>
     <definedName name="通过基础聊天框最多可查看50行聊天信息">UI逻辑相关!#REF!</definedName>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="343">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1428,12 +1429,38 @@
     <t>补充任务拆分</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>补签按钮样式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：钻石数+补签</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID：monthlyevent_anniu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加补签按钮多语言</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2009,7 +2036,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2237,6 +2264,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3594,13 +3622,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>319176</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4255,6 +4283,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276027</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>171411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="23955375"/>
+          <a:ext cx="1580952" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4892,13 +4958,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="55"/>
     <col min="2" max="2" width="27.875" style="55" customWidth="1"/>
@@ -4908,7 +4974,7 @@
     <col min="8" max="16384" width="11" style="56"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
@@ -4916,10 +4982,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="B3" s="56"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
@@ -4927,7 +4993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
@@ -4935,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
@@ -4945,7 +5011,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
@@ -4953,7 +5019,7 @@
       <c r="C11" s="57"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1">
       <c r="B12" s="96" t="s">
         <v>5</v>
       </c>
@@ -4966,7 +5032,7 @@
       <c r="G12" s="98"/>
       <c r="H12" s="99"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4979,7 +5045,7 @@
       <c r="G13" s="92"/>
       <c r="H13" s="93"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4990,7 +5056,7 @@
       <c r="G14" s="101"/>
       <c r="H14" s="102"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -5001,7 +5067,7 @@
       <c r="G15" s="104"/>
       <c r="H15" s="105"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -5011,7 +5077,7 @@
       <c r="G16" s="92"/>
       <c r="H16" s="93"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -5022,7 +5088,7 @@
       <c r="G17" s="92"/>
       <c r="H17" s="93"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
@@ -5033,7 +5099,7 @@
       <c r="G18" s="92"/>
       <c r="H18" s="93"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5044,8 +5110,8 @@
       <c r="G19" s="94"/>
       <c r="H19" s="95"/>
     </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
+    <row r="21" spans="1:8">
       <c r="A21" s="55" t="s">
         <v>15</v>
       </c>
@@ -5068,11 +5134,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="B23" s="56" t="s">
         <v>22</v>
       </c>
@@ -5089,7 +5155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="B24" s="56" t="s">
         <v>165</v>
       </c>
@@ -5106,153 +5172,165 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="B25" s="56"/>
       <c r="C25" s="58"/>
       <c r="H25" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="B26" s="56"/>
       <c r="C26" s="58"/>
       <c r="H26" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="B27" s="56"/>
       <c r="C27" s="58"/>
       <c r="H27" s="56" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="B28" s="56"/>
       <c r="C28" s="58"/>
       <c r="H28" s="22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="B29" s="56"/>
       <c r="C29" s="58"/>
       <c r="H29" s="56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="B30" s="56"/>
       <c r="C30" s="58"/>
       <c r="H30" s="22" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="B31" s="56"/>
       <c r="C31" s="58"/>
       <c r="H31" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="B32" s="56"/>
       <c r="C32" s="58"/>
       <c r="H32" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="55" t="s">
+    <row r="33" spans="1:8">
+      <c r="B33" s="56"/>
+      <c r="C33" s="58"/>
+      <c r="H33" s="109" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="56"/>
+      <c r="C34" s="58"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B35" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C35" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E35" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="56"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56" t="s">
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C36" s="58">
         <v>42402</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D36" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E36" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="F34" s="91" t="s">
+      <c r="F36" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="G34" s="56"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="91" t="s">
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="G35" s="56"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F36" s="91" t="s">
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="F38" s="91" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F37" s="91" t="s">
+    <row r="39" spans="1:8">
+      <c r="F39" s="91" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="91" t="s">
+    <row r="40" spans="1:8">
+      <c r="F40" s="91" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F39" s="91" t="s">
+    <row r="41" spans="1:8">
+      <c r="F41" s="91" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F40" s="2" t="s">
+    <row r="42" spans="1:8">
+      <c r="F42" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F41" s="91" t="s">
+    <row r="43" spans="1:8">
+      <c r="F43" s="91" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="F48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5273,14 +5351,15 @@
     <hyperlink ref="H28" location="配置方式!A1" display="配置表格式修改"/>
     <hyperlink ref="H30" location="奖励内容图标下侧显示对应奖励内容数量_数量显示采用通用显示规则2" display="补充道具数量显示规则"/>
     <hyperlink ref="H31" location="UI动画" display="补充动画需求"/>
-    <hyperlink ref="F34" location="显示为__本月签到奖励" display="签到标题不变"/>
-    <hyperlink ref="F35" location="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标" display="签到标签的表现形式"/>
-    <hyperlink ref="F36" location="补签消耗配置表" display="补签钻石是否可以显示下"/>
-    <hyperlink ref="F37" location="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容" display="开服后的漏签是否可以补签"/>
-    <hyperlink ref="F38" location="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭" display="跨时间界面自动关闭"/>
-    <hyperlink ref="F39" location="当当前有可以进行的签到或者补签时_图标右上角有红点显示" display="红点显示规则完善"/>
-    <hyperlink ref="F41" location="补签消耗上限" display="翻译消耗增加一个上限限制"/>
+    <hyperlink ref="F36" location="显示为__本月签到奖励" display="签到标题不变"/>
+    <hyperlink ref="F37" location="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标" display="签到标签的表现形式"/>
+    <hyperlink ref="F38" location="补签消耗配置表" display="补签钻石是否可以显示下"/>
+    <hyperlink ref="F39" location="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容" display="开服后的漏签是否可以补签"/>
+    <hyperlink ref="F40" location="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭" display="跨时间界面自动关闭"/>
+    <hyperlink ref="F41" location="当当前有可以进行的签到或者补签时_图标右上角有红点显示" display="红点显示规则完善"/>
+    <hyperlink ref="F43" location="补签消耗上限" display="翻译消耗增加一个上限限制"/>
     <hyperlink ref="H32" location="任务拆分!A1" display="补充任务拆分"/>
+    <hyperlink ref="H33" location="补签按钮样式" display="添加补签按钮多语言"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5294,266 +5373,266 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="75" customFormat="1">
       <c r="A1" s="74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="B3" s="72" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="B5" s="72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="75" customFormat="1">
       <c r="A6" s="74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="72" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" s="72" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" s="72" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" s="72" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="75" customFormat="1">
       <c r="A13" s="74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="72" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" s="72" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" s="72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="75" customFormat="1">
       <c r="A18" s="74" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="72" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" s="72" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="72" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="B24" s="72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" s="75" customFormat="1">
       <c r="A25" s="74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="B27" s="72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="B29" s="72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="72" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="B31" s="72" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="B33" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35" s="72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="75" customFormat="1">
       <c r="A36" s="74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="72" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="B38" s="72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="B40" s="72" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" s="75" customFormat="1">
       <c r="A41" s="74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="72" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="76"/>
       <c r="B43" s="77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" s="75" customFormat="1">
       <c r="A44" s="74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="72"/>
       <c r="B46" s="77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="72" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="72"/>
       <c r="B48" s="77" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="72"/>
       <c r="B50" s="77" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="C51" s="77"/>
     </row>
   </sheetData>
@@ -5571,7 +5650,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.375" style="79" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="56" customWidth="1"/>
@@ -5580,24 +5659,24 @@
     <col min="5" max="16384" width="8.625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22">
       <c r="C1" s="55"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22">
       <c r="B2" s="55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22">
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22">
       <c r="C4" s="55"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22">
       <c r="A5" s="82" t="s">
         <v>211</v>
       </c>
@@ -5605,7 +5684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="33">
       <c r="A6" s="79" t="s">
         <v>186</v>
       </c>
@@ -5613,7 +5692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="33">
       <c r="A7" s="79" t="s">
         <v>172</v>
       </c>
@@ -5621,7 +5700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22">
       <c r="A8" s="82" t="s">
         <v>189</v>
       </c>
@@ -5629,7 +5708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="33">
       <c r="A9" s="79" t="s">
         <v>187</v>
       </c>
@@ -5637,12 +5716,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22">
       <c r="A10" s="82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22">
       <c r="E12" s="59"/>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
@@ -5654,7 +5733,7 @@
       <c r="M12" s="59"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22">
       <c r="C13" s="55"/>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
@@ -5667,7 +5746,7 @@
       <c r="M13" s="59"/>
       <c r="N13" s="59"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22">
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
@@ -5687,7 +5766,7 @@
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22">
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
@@ -5707,7 +5786,7 @@
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22">
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
@@ -5727,7 +5806,7 @@
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
     </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:22">
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
@@ -5747,7 +5826,7 @@
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:22">
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
@@ -5767,7 +5846,7 @@
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:22">
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="59"/>
@@ -5777,7 +5856,7 @@
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:22">
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="59"/>
@@ -5787,7 +5866,7 @@
       <c r="U20" s="59"/>
       <c r="V20" s="59"/>
     </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:22">
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="59"/>
@@ -5797,7 +5876,7 @@
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
     </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:22">
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="59"/>
@@ -5807,7 +5886,7 @@
       <c r="U22" s="59"/>
       <c r="V22" s="59"/>
     </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:22">
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
@@ -5817,7 +5896,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="59"/>
     </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:22">
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="59"/>
@@ -5827,7 +5906,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:22">
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
@@ -5837,7 +5916,7 @@
       <c r="U25" s="59"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:22">
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
@@ -5847,7 +5926,7 @@
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:22">
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
@@ -5857,7 +5936,7 @@
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:22">
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
@@ -5867,7 +5946,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:22">
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
@@ -5877,7 +5956,7 @@
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:22">
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
@@ -5887,7 +5966,7 @@
       <c r="U30" s="59"/>
       <c r="V30" s="59"/>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:22">
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
@@ -5897,7 +5976,7 @@
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
     </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:22">
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
@@ -5907,7 +5986,7 @@
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:22">
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -5923,7 +6002,7 @@
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:22">
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
@@ -5933,7 +6012,7 @@
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:22">
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
@@ -5943,7 +6022,7 @@
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:22">
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
@@ -5953,7 +6032,7 @@
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:22">
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
@@ -5963,7 +6042,7 @@
       <c r="U37" s="59"/>
       <c r="V37" s="59"/>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:22">
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
@@ -5973,7 +6052,7 @@
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:22">
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
@@ -5983,7 +6062,7 @@
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:22">
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
@@ -5993,7 +6072,7 @@
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:22">
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -6003,7 +6082,7 @@
       <c r="U41" s="59"/>
       <c r="V41" s="59"/>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:22">
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
@@ -6013,7 +6092,7 @@
       <c r="U42" s="59"/>
       <c r="V42" s="59"/>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:22">
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
@@ -6023,7 +6102,7 @@
       <c r="U43" s="59"/>
       <c r="V43" s="59"/>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:22">
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
@@ -6033,7 +6112,7 @@
       <c r="U44" s="59"/>
       <c r="V44" s="59"/>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:22">
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
@@ -6043,7 +6122,7 @@
       <c r="U45" s="59"/>
       <c r="V45" s="59"/>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:22">
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="59"/>
@@ -6053,7 +6132,7 @@
       <c r="U46" s="59"/>
       <c r="V46" s="59"/>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:22">
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59"/>
@@ -6063,7 +6142,7 @@
       <c r="U47" s="59"/>
       <c r="V47" s="59"/>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:22">
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
@@ -6073,7 +6152,7 @@
       <c r="U48" s="59"/>
       <c r="V48" s="59"/>
     </row>
-    <row r="49" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:22">
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="59"/>
@@ -6083,7 +6162,7 @@
       <c r="U49" s="59"/>
       <c r="V49" s="59"/>
     </row>
-    <row r="50" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:22">
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="59"/>
@@ -6093,7 +6172,7 @@
       <c r="U50" s="59"/>
       <c r="V50" s="59"/>
     </row>
-    <row r="51" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:22">
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="59"/>
@@ -6103,7 +6182,7 @@
       <c r="U51" s="59"/>
       <c r="V51" s="59"/>
     </row>
-    <row r="52" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:22">
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
@@ -6113,7 +6192,7 @@
       <c r="U52" s="59"/>
       <c r="V52" s="59"/>
     </row>
-    <row r="53" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:22">
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
@@ -6123,7 +6202,7 @@
       <c r="U53" s="59"/>
       <c r="V53" s="59"/>
     </row>
-    <row r="54" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:22">
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
@@ -6136,7 +6215,7 @@
       <c r="U54" s="59"/>
       <c r="V54" s="59"/>
     </row>
-    <row r="55" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:22">
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59"/>
@@ -6149,7 +6228,7 @@
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
     </row>
-    <row r="56" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:22">
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
       <c r="G56" s="59"/>
@@ -6162,7 +6241,7 @@
       <c r="U56" s="59"/>
       <c r="V56" s="59"/>
     </row>
-    <row r="57" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:22">
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
       <c r="G57" s="59"/>
@@ -6175,7 +6254,7 @@
       <c r="U57" s="59"/>
       <c r="V57" s="59"/>
     </row>
-    <row r="58" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:22">
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
       <c r="G58" s="59"/>
@@ -6188,7 +6267,7 @@
       <c r="U58" s="59"/>
       <c r="V58" s="59"/>
     </row>
-    <row r="59" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:22">
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
       <c r="G59" s="59"/>
@@ -6201,7 +6280,7 @@
       <c r="U59" s="59"/>
       <c r="V59" s="59"/>
     </row>
-    <row r="60" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:22">
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
       <c r="G60" s="59"/>
@@ -6214,7 +6293,7 @@
       <c r="U60" s="59"/>
       <c r="V60" s="59"/>
     </row>
-    <row r="61" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:22">
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
       <c r="G61" s="59"/>
@@ -6227,7 +6306,7 @@
       <c r="U61" s="59"/>
       <c r="V61" s="59"/>
     </row>
-    <row r="62" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:22">
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
       <c r="G62" s="59"/>
@@ -6240,7 +6319,7 @@
       <c r="U62" s="59"/>
       <c r="V62" s="59"/>
     </row>
-    <row r="63" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:22">
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -6256,7 +6335,7 @@
       <c r="U63" s="59"/>
       <c r="V63" s="59"/>
     </row>
-    <row r="64" spans="4:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:22">
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -6272,7 +6351,7 @@
       <c r="U64" s="59"/>
       <c r="V64" s="59"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:22">
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -6288,7 +6367,7 @@
       <c r="U65" s="59"/>
       <c r="V65" s="59"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:22">
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -6304,7 +6383,7 @@
       <c r="U66" s="59"/>
       <c r="V66" s="59"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:22">
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -6320,7 +6399,7 @@
       <c r="U67" s="59"/>
       <c r="V67" s="59"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:22">
       <c r="O68" s="59"/>
       <c r="P68" s="59"/>
       <c r="Q68" s="59"/>
@@ -6330,7 +6409,7 @@
       <c r="U68" s="59"/>
       <c r="V68" s="59"/>
     </row>
-    <row r="69" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:22" ht="16.5" customHeight="1">
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
@@ -6352,7 +6431,7 @@
       <c r="U69" s="59"/>
       <c r="V69" s="59"/>
     </row>
-    <row r="70" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:22" ht="16.5" customHeight="1">
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
@@ -6374,7 +6453,7 @@
       <c r="U70" s="59"/>
       <c r="V70" s="59"/>
     </row>
-    <row r="71" spans="3:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:22" ht="16.5" customHeight="1">
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
@@ -6396,7 +6475,7 @@
       <c r="U71" s="59"/>
       <c r="V71" s="59"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:22">
       <c r="C72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -6414,7 +6493,7 @@
       <c r="U72" s="59"/>
       <c r="V72" s="59"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:22">
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
       <c r="Q73" s="59"/>
@@ -6424,7 +6503,7 @@
       <c r="U73" s="59"/>
       <c r="V73" s="59"/>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:22">
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
       <c r="Q74" s="59"/>
@@ -6434,7 +6513,7 @@
       <c r="U74" s="59"/>
       <c r="V74" s="59"/>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:22">
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
       <c r="Q75" s="59"/>
@@ -6444,7 +6523,7 @@
       <c r="U75" s="59"/>
       <c r="V75" s="59"/>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:22">
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
       <c r="Q76" s="59"/>
@@ -6454,7 +6533,7 @@
       <c r="U76" s="59"/>
       <c r="V76" s="59"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:22">
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
       <c r="Q77" s="59"/>
@@ -6464,7 +6543,7 @@
       <c r="U77" s="59"/>
       <c r="V77" s="59"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:22">
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
       <c r="Q78" s="59"/>
@@ -6474,7 +6553,7 @@
       <c r="U78" s="59"/>
       <c r="V78" s="59"/>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:22">
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
       <c r="Q79" s="59"/>
@@ -6484,7 +6563,7 @@
       <c r="U79" s="59"/>
       <c r="V79" s="59"/>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:22">
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
       <c r="Q80" s="59"/>
@@ -6494,7 +6573,7 @@
       <c r="U80" s="59"/>
       <c r="V80" s="59"/>
     </row>
-    <row r="81" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="15:22">
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
       <c r="Q81" s="59"/>
@@ -6504,7 +6583,7 @@
       <c r="U81" s="59"/>
       <c r="V81" s="59"/>
     </row>
-    <row r="82" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="15:22">
       <c r="O82" s="59"/>
       <c r="P82" s="59"/>
       <c r="Q82" s="59"/>
@@ -6514,7 +6593,7 @@
       <c r="U82" s="59"/>
       <c r="V82" s="59"/>
     </row>
-    <row r="83" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="15:22">
       <c r="O83" s="59"/>
       <c r="P83" s="59"/>
       <c r="Q83" s="59"/>
@@ -6524,7 +6603,7 @@
       <c r="U83" s="59"/>
       <c r="V83" s="59"/>
     </row>
-    <row r="84" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="15:22">
       <c r="O84" s="59"/>
       <c r="P84" s="59"/>
       <c r="Q84" s="59"/>
@@ -6534,7 +6613,7 @@
       <c r="U84" s="59"/>
       <c r="V84" s="59"/>
     </row>
-    <row r="85" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="15:22">
       <c r="O85" s="59"/>
       <c r="P85" s="59"/>
       <c r="Q85" s="59"/>
@@ -6544,7 +6623,7 @@
       <c r="U85" s="59"/>
       <c r="V85" s="59"/>
     </row>
-    <row r="86" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="15:22">
       <c r="O86" s="59"/>
       <c r="P86" s="59"/>
       <c r="Q86" s="59"/>
@@ -6554,7 +6633,7 @@
       <c r="U86" s="59"/>
       <c r="V86" s="59"/>
     </row>
-    <row r="87" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="15:22">
       <c r="O87" s="59"/>
       <c r="P87" s="59"/>
       <c r="Q87" s="59"/>
@@ -6564,7 +6643,7 @@
       <c r="U87" s="59"/>
       <c r="V87" s="59"/>
     </row>
-    <row r="88" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="15:22">
       <c r="O88" s="59"/>
       <c r="P88" s="59"/>
       <c r="Q88" s="59"/>
@@ -6574,7 +6653,7 @@
       <c r="U88" s="59"/>
       <c r="V88" s="59"/>
     </row>
-    <row r="89" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="15:22">
       <c r="O89" s="59"/>
       <c r="P89" s="59"/>
       <c r="Q89" s="59"/>
@@ -6584,7 +6663,7 @@
       <c r="U89" s="59"/>
       <c r="V89" s="59"/>
     </row>
-    <row r="90" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="15:22">
       <c r="O90" s="59"/>
       <c r="P90" s="59"/>
       <c r="Q90" s="59"/>
@@ -6594,7 +6673,7 @@
       <c r="U90" s="59"/>
       <c r="V90" s="59"/>
     </row>
-    <row r="91" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="15:22">
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
       <c r="Q91" s="59"/>
@@ -6604,7 +6683,7 @@
       <c r="U91" s="59"/>
       <c r="V91" s="59"/>
     </row>
-    <row r="92" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="15:22">
       <c r="O92" s="59"/>
       <c r="P92" s="59"/>
       <c r="Q92" s="59"/>
@@ -6614,7 +6693,7 @@
       <c r="U92" s="59"/>
       <c r="V92" s="59"/>
     </row>
-    <row r="93" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="15:22">
       <c r="O93" s="59"/>
       <c r="P93" s="59"/>
       <c r="Q93" s="59"/>
@@ -6624,7 +6703,7 @@
       <c r="U93" s="59"/>
       <c r="V93" s="59"/>
     </row>
-    <row r="94" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="15:22">
       <c r="O94" s="59"/>
       <c r="P94" s="59"/>
       <c r="Q94" s="59"/>
@@ -6634,7 +6713,7 @@
       <c r="U94" s="59"/>
       <c r="V94" s="59"/>
     </row>
-    <row r="95" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="15:22">
       <c r="O95" s="59"/>
       <c r="P95" s="59"/>
       <c r="Q95" s="59"/>
@@ -6644,7 +6723,7 @@
       <c r="U95" s="59"/>
       <c r="V95" s="59"/>
     </row>
-    <row r="96" spans="15:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="15:22">
       <c r="O96" s="59"/>
       <c r="P96" s="59"/>
       <c r="Q96" s="59"/>
@@ -6654,7 +6733,7 @@
       <c r="U96" s="59"/>
       <c r="V96" s="59"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18">
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -6667,7 +6746,7 @@
       <c r="M97" s="59"/>
       <c r="N97" s="59"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18">
       <c r="B98" s="37"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
@@ -6685,7 +6764,7 @@
       <c r="Q98" s="59"/>
       <c r="R98" s="59"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18">
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -6702,7 +6781,7 @@
       <c r="Q99" s="59"/>
       <c r="R99" s="59"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18">
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -6719,7 +6798,7 @@
       <c r="Q100" s="59"/>
       <c r="R100" s="59"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18">
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -6736,7 +6815,7 @@
       <c r="Q101" s="59"/>
       <c r="R101" s="59"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18">
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -6753,7 +6832,7 @@
       <c r="Q102" s="59"/>
       <c r="R102" s="59"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18">
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -6770,7 +6849,7 @@
       <c r="Q103" s="59"/>
       <c r="R103" s="59"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18">
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -6787,7 +6866,7 @@
       <c r="Q104" s="59"/>
       <c r="R104" s="59"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18">
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -6804,7 +6883,7 @@
       <c r="Q105" s="59"/>
       <c r="R105" s="59"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18">
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -6821,7 +6900,7 @@
       <c r="Q106" s="59"/>
       <c r="R106" s="59"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18">
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -6838,7 +6917,7 @@
       <c r="Q107" s="59"/>
       <c r="R107" s="59"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18">
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -6855,7 +6934,7 @@
       <c r="Q108" s="59"/>
       <c r="R108" s="59"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18">
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -6872,7 +6951,7 @@
       <c r="Q109" s="59"/>
       <c r="R109" s="59"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18">
       <c r="C110" s="55"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
@@ -6890,49 +6969,49 @@
       <c r="Q110" s="59"/>
       <c r="R110" s="59"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8">
       <c r="B131" s="37"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8">
       <c r="B132" s="38"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8">
       <c r="B133" s="38"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8">
       <c r="B134" s="38"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8">
       <c r="B135" s="38"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8">
       <c r="B136" s="38"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8">
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
       <c r="H137" s="59"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8">
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
       <c r="G138" s="59"/>
       <c r="H138" s="59"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8">
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
       <c r="G139" s="59"/>
       <c r="H139" s="59"/>
     </row>
-    <row r="145" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:15">
       <c r="H145" s="62"/>
       <c r="I145" s="59"/>
       <c r="J145" s="59"/>
       <c r="K145" s="59"/>
     </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:15">
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -6946,7 +7025,7 @@
       <c r="N148" s="59"/>
       <c r="O148" s="59"/>
     </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:15">
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -6960,7 +7039,7 @@
       <c r="N149" s="59"/>
       <c r="O149" s="59"/>
     </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:15">
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -6974,7 +7053,7 @@
       <c r="N150" s="59"/>
       <c r="O150" s="59"/>
     </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:15">
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -6988,7 +7067,7 @@
       <c r="N151" s="59"/>
       <c r="O151" s="59"/>
     </row>
-    <row r="152" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:15">
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -7002,7 +7081,7 @@
       <c r="N152" s="59"/>
       <c r="O152" s="59"/>
     </row>
-    <row r="153" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:15">
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -7016,7 +7095,7 @@
       <c r="N153" s="59"/>
       <c r="O153" s="59"/>
     </row>
-    <row r="154" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:15">
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
@@ -7030,7 +7109,7 @@
       <c r="N154" s="59"/>
       <c r="O154" s="59"/>
     </row>
-    <row r="155" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:15">
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
@@ -7044,7 +7123,7 @@
       <c r="N155" s="59"/>
       <c r="O155" s="59"/>
     </row>
-    <row r="156" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:15">
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59"/>
@@ -7058,7 +7137,7 @@
       <c r="N156" s="59"/>
       <c r="O156" s="59"/>
     </row>
-    <row r="157" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:15">
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59"/>
@@ -7072,7 +7151,7 @@
       <c r="N157" s="59"/>
       <c r="O157" s="59"/>
     </row>
-    <row r="158" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:15">
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59"/>
@@ -7086,7 +7165,7 @@
       <c r="N158" s="59"/>
       <c r="O158" s="59"/>
     </row>
-    <row r="159" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:15">
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59"/>
@@ -7100,7 +7179,7 @@
       <c r="N159" s="59"/>
       <c r="O159" s="59"/>
     </row>
-    <row r="160" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:15">
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59"/>
@@ -7114,7 +7193,7 @@
       <c r="N160" s="59"/>
       <c r="O160" s="59"/>
     </row>
-    <row r="161" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:23">
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59"/>
@@ -7128,7 +7207,7 @@
       <c r="N161" s="59"/>
       <c r="O161" s="59"/>
     </row>
-    <row r="162" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:23">
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59"/>
@@ -7142,7 +7221,7 @@
       <c r="N162" s="59"/>
       <c r="O162" s="59"/>
     </row>
-    <row r="163" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:23">
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59"/>
@@ -7156,7 +7235,7 @@
       <c r="N163" s="59"/>
       <c r="O163" s="59"/>
     </row>
-    <row r="164" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:23">
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59"/>
@@ -7170,7 +7249,7 @@
       <c r="N164" s="59"/>
       <c r="O164" s="59"/>
     </row>
-    <row r="165" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:23">
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
@@ -7180,7 +7259,7 @@
       <c r="J165" s="59"/>
       <c r="K165" s="59"/>
     </row>
-    <row r="166" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:23">
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -7190,28 +7269,28 @@
       <c r="J166" s="59"/>
       <c r="K166" s="59"/>
     </row>
-    <row r="169" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:23">
       <c r="H169" s="62"/>
       <c r="I169" s="59"/>
       <c r="J169" s="59"/>
       <c r="K169" s="59"/>
     </row>
-    <row r="173" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:23">
       <c r="C173" s="55"/>
     </row>
-    <row r="176" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:23">
       <c r="T176" s="63"/>
       <c r="V176" s="64"/>
       <c r="W176" s="9"/>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:25">
       <c r="T177" s="65"/>
       <c r="U177" s="47"/>
       <c r="V177" s="47"/>
       <c r="W177" s="59"/>
       <c r="X177" s="59"/>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:25">
       <c r="S178" s="20"/>
       <c r="T178" s="21"/>
       <c r="U178" s="21"/>
@@ -7219,7 +7298,7 @@
       <c r="W178" s="21"/>
       <c r="X178" s="21"/>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:25">
       <c r="B179" s="37"/>
       <c r="D179" s="66"/>
       <c r="E179" s="67"/>
@@ -7243,7 +7322,7 @@
       <c r="W179" s="60"/>
       <c r="X179" s="60"/>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:25">
       <c r="B180" s="38"/>
       <c r="D180" s="10"/>
       <c r="E180" s="11"/>
@@ -7268,7 +7347,7 @@
       <c r="X180" s="48"/>
       <c r="Y180" s="59"/>
     </row>
-    <row r="181" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:25" ht="15.75" customHeight="1">
       <c r="B181" s="38"/>
       <c r="D181" s="10"/>
       <c r="E181" s="11"/>
@@ -7293,7 +7372,7 @@
       <c r="X181" s="48"/>
       <c r="Y181" s="59"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:25">
       <c r="B182" s="38"/>
       <c r="R182" s="59"/>
       <c r="S182" s="59"/>
@@ -7304,10 +7383,10 @@
       <c r="X182" s="59"/>
       <c r="Y182" s="59"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:25">
       <c r="B183" s="38"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:25">
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
       <c r="G184" s="59"/>
@@ -7320,7 +7399,7 @@
       <c r="N184" s="59"/>
       <c r="O184" s="59"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:25">
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
       <c r="G185" s="59"/>
@@ -7333,7 +7412,7 @@
       <c r="N185" s="59"/>
       <c r="O185" s="59"/>
     </row>
-    <row r="186" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:25">
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
       <c r="G186" s="59"/>
@@ -7346,7 +7425,7 @@
       <c r="N186" s="59"/>
       <c r="O186" s="59"/>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:25">
       <c r="E187" s="59"/>
       <c r="F187" s="16"/>
       <c r="G187" s="59"/>
@@ -7359,7 +7438,7 @@
       <c r="N187" s="59"/>
       <c r="O187" s="59"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:25">
       <c r="E188" s="59"/>
       <c r="F188" s="16"/>
       <c r="G188" s="59"/>
@@ -7372,7 +7451,7 @@
       <c r="N188" s="59"/>
       <c r="O188" s="59"/>
     </row>
-    <row r="189" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:25">
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="59"/>
@@ -7385,7 +7464,7 @@
       <c r="N189" s="59"/>
       <c r="O189" s="59"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:25">
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="59"/>
@@ -7398,7 +7477,7 @@
       <c r="N190" s="59"/>
       <c r="O190" s="59"/>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25">
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="59"/>
@@ -7411,7 +7490,7 @@
       <c r="N191" s="59"/>
       <c r="O191" s="59"/>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25">
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="59"/>
@@ -7424,7 +7503,7 @@
       <c r="N192" s="59"/>
       <c r="O192" s="59"/>
     </row>
-    <row r="193" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="5:15">
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="59"/>
@@ -7437,7 +7516,7 @@
       <c r="N193" s="59"/>
       <c r="O193" s="59"/>
     </row>
-    <row r="199" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="5:15">
       <c r="G199" s="59"/>
       <c r="H199" s="59"/>
       <c r="I199" s="59"/>
@@ -7461,20 +7540,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="36.125" style="79" customWidth="1"/>
     <col min="2" max="2" width="9" style="55"/>
     <col min="3" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8">
       <c r="B1" s="86" t="s">
         <v>210</v>
       </c>
@@ -7485,7 +7564,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="B2" s="86"/>
       <c r="C2" s="87" t="s">
         <v>212</v>
@@ -7496,7 +7575,7 @@
       <c r="G2" s="87"/>
       <c r="H2" s="87"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="B3" s="86"/>
       <c r="C3" s="87"/>
       <c r="D3" s="87" t="s">
@@ -7507,7 +7586,7 @@
       <c r="G3" s="87"/>
       <c r="H3" s="87"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4" s="86"/>
       <c r="C4" s="87"/>
       <c r="D4" s="87" t="s">
@@ -7518,7 +7597,7 @@
       <c r="G4" s="87"/>
       <c r="H4" s="87"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8">
       <c r="B5" s="86"/>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -7527,7 +7606,7 @@
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
         <v>215</v>
@@ -7538,41 +7617,41 @@
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="B8" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:4">
       <c r="D32" s="56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:8">
       <c r="D34" s="56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:8">
       <c r="E35" s="87" t="s">
         <v>319</v>
       </c>
       <c r="F35" s="87"/>
       <c r="G35" s="87"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:8">
       <c r="E36" s="87" t="s">
         <v>318</v>
       </c>
       <c r="F36" s="87"/>
       <c r="G36" s="87"/>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:8">
       <c r="D38" s="56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:8">
       <c r="E39" s="87" t="s">
         <v>320</v>
       </c>
@@ -7580,7 +7659,7 @@
       <c r="G39" s="87"/>
       <c r="H39" s="87"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:8">
       <c r="E40" s="87" t="s">
         <v>321</v>
       </c>
@@ -7588,42 +7667,42 @@
       <c r="G40" s="87"/>
       <c r="H40" s="87"/>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:8">
       <c r="E41" s="56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:8">
       <c r="E42" s="56" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:8">
       <c r="E43" s="56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:8">
       <c r="D45" s="56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:8">
       <c r="E46" s="56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:8">
       <c r="E47" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:8">
       <c r="E48" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="79" t="s">
         <v>173</v>
       </c>
@@ -7631,22 +7710,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50" s="82" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="E51" s="56" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="E56" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58" s="79" t="s">
         <v>174</v>
       </c>
@@ -7654,7 +7733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6">
       <c r="A59" s="82" t="s">
         <v>192</v>
       </c>
@@ -7662,27 +7741,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="F60" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="E62" s="56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:11">
       <c r="E67" s="56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:11">
       <c r="F68" s="56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:11">
       <c r="F74" s="87" t="s">
         <v>303</v>
       </c>
@@ -7692,7 +7771,7 @@
       <c r="J74" s="87"/>
       <c r="K74" s="87"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:11">
       <c r="F75" s="87"/>
       <c r="G75" s="87"/>
       <c r="H75" s="87"/>
@@ -7700,7 +7779,7 @@
       <c r="J75" s="87"/>
       <c r="K75" s="87"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:11">
       <c r="F76" s="87"/>
       <c r="G76" s="87"/>
       <c r="H76" s="87"/>
@@ -7708,7 +7787,7 @@
       <c r="J76" s="87"/>
       <c r="K76" s="87"/>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:11">
       <c r="F77" s="87"/>
       <c r="G77" s="87"/>
       <c r="H77" s="87"/>
@@ -7716,7 +7795,7 @@
       <c r="J77" s="87"/>
       <c r="K77" s="87"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:11">
       <c r="F78" s="87"/>
       <c r="G78" s="87"/>
       <c r="H78" s="87"/>
@@ -7724,27 +7803,27 @@
       <c r="J78" s="87"/>
       <c r="K78" s="87"/>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:11">
       <c r="E79" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:18">
       <c r="E85" s="56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:18">
       <c r="F86" s="56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:18">
       <c r="G87" s="56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:18">
       <c r="N89" s="56" t="s">
         <v>311</v>
       </c>
@@ -7755,7 +7834,7 @@
       <c r="Q89" s="87"/>
       <c r="R89" s="87"/>
     </row>
-    <row r="90" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:18">
       <c r="O90" s="87" t="s">
         <v>322</v>
       </c>
@@ -7763,32 +7842,32 @@
       <c r="Q90" s="87"/>
       <c r="R90" s="87"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8">
       <c r="G100" s="56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8">
       <c r="F102" s="56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8">
       <c r="D104" s="56" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8">
       <c r="E105" s="56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="33">
       <c r="A107" s="79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8">
       <c r="A108" s="82" t="s">
         <v>193</v>
       </c>
@@ -7799,7 +7878,7 @@
       <c r="G108" s="87"/>
       <c r="H108" s="87"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8">
       <c r="A109" s="82"/>
       <c r="E109" s="87" t="s">
         <v>325</v>
@@ -7808,7 +7887,7 @@
       <c r="G109" s="87"/>
       <c r="H109" s="87"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8">
       <c r="A110" s="82" t="s">
         <v>292</v>
       </c>
@@ -7816,7 +7895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8">
       <c r="A111" s="79" t="s">
         <v>175</v>
       </c>
@@ -7824,7 +7903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8">
       <c r="A112" s="79" t="s">
         <v>176</v>
       </c>
@@ -7832,312 +7911,292 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7">
       <c r="A113" s="82" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E114" s="56" t="s">
+      <c r="E113" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="F113" s="87"/>
+      <c r="G113" s="87"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="E114" s="87"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="87"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="E116" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="F116" s="87"/>
+      <c r="G116" s="87"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="56"/>
+      <c r="E117" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="E118" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E115" s="56" t="s">
+    <row r="119" spans="1:7">
+      <c r="E119" s="56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E117" s="56" t="s">
+    <row r="121" spans="1:7">
+      <c r="E121" s="56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F129" s="56" t="s">
+    <row r="133" spans="1:8">
+      <c r="F133" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G130" s="56" t="s">
+    <row r="134" spans="1:8">
+      <c r="G134" s="56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A131" s="79" t="s">
+    <row r="135" spans="1:8">
+      <c r="A135" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="H131" s="56" t="s">
+      <c r="H135" s="56" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A132" s="82" t="s">
+    <row r="136" spans="1:8">
+      <c r="A136" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="H132" s="56" t="s">
+      <c r="H136" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A133" s="79" t="s">
+    <row r="137" spans="1:8" ht="33">
+      <c r="A137" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="H133" s="56" t="s">
+      <c r="H137" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A134" s="82" t="s">
+    <row r="138" spans="1:8" ht="33">
+      <c r="A138" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="H134" s="56" t="s">
+      <c r="H138" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A136" s="79" t="s">
+    <row r="140" spans="1:8" ht="33">
+      <c r="A140" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F136" s="56" t="s">
+      <c r="F140" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A137" s="82" t="s">
+    <row r="141" spans="1:8">
+      <c r="A141" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="G137" s="56" t="s">
+      <c r="G141" s="56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G138" s="56" t="s">
+    <row r="142" spans="1:8">
+      <c r="G142" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H139" s="56" t="s">
+    <row r="143" spans="1:8">
+      <c r="H143" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H140" s="56" t="s">
+    <row r="144" spans="1:8">
+      <c r="H144" s="56" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A141" s="82" t="s">
+    <row r="145" spans="1:15">
+      <c r="A145" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="F141" s="56" t="s">
+      <c r="F145" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A142" s="79" t="s">
+    <row r="146" spans="1:15">
+      <c r="A146" s="79" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F143" s="87" t="s">
+    <row r="147" spans="1:15">
+      <c r="F147" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="G143" s="87"/>
-      <c r="H143" s="87"/>
-      <c r="I143" s="87"/>
-      <c r="J143" s="87"/>
-      <c r="K143" s="87"/>
-      <c r="L143" s="87"/>
-      <c r="M143" s="87"/>
-      <c r="N143" s="87"/>
-      <c r="O143" s="87"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F144" s="87"/>
-      <c r="G144" s="87" t="s">
+      <c r="G147" s="87"/>
+      <c r="H147" s="87"/>
+      <c r="I147" s="87"/>
+      <c r="J147" s="87"/>
+      <c r="K147" s="87"/>
+      <c r="L147" s="87"/>
+      <c r="M147" s="87"/>
+      <c r="N147" s="87"/>
+      <c r="O147" s="87"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="F148" s="87"/>
+      <c r="G148" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="H144" s="87"/>
-      <c r="I144" s="87"/>
-      <c r="J144" s="87"/>
-      <c r="K144" s="87"/>
-      <c r="L144" s="87"/>
-      <c r="M144" s="87"/>
-      <c r="N144" s="87"/>
-      <c r="O144" s="87"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
-      <c r="H145" s="87" t="s">
+      <c r="H148" s="87"/>
+      <c r="I148" s="87"/>
+      <c r="J148" s="87"/>
+      <c r="K148" s="87"/>
+      <c r="L148" s="87"/>
+      <c r="M148" s="87"/>
+      <c r="N148" s="87"/>
+      <c r="O148" s="87"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="F149" s="87"/>
+      <c r="G149" s="87"/>
+      <c r="H149" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="I145" s="87"/>
-      <c r="J145" s="87"/>
-      <c r="K145" s="87"/>
-      <c r="L145" s="87"/>
-      <c r="M145" s="87"/>
-      <c r="N145" s="87"/>
-      <c r="O145" s="87"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D148" s="56" t="s">
+      <c r="I149" s="87"/>
+      <c r="J149" s="87"/>
+      <c r="K149" s="87"/>
+      <c r="L149" s="87"/>
+      <c r="M149" s="87"/>
+      <c r="N149" s="87"/>
+      <c r="O149" s="87"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="D152" s="56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A149" s="79" t="s">
+    <row r="153" spans="1:15" ht="33">
+      <c r="A153" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="E149" s="56" t="s">
+      <c r="E153" s="56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A150" s="82" t="s">
+    <row r="154" spans="1:15">
+      <c r="A154" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="E150" s="56" t="s">
+      <c r="E154" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="79" t="s">
+    <row r="156" spans="1:15" ht="49.5">
+      <c r="A156" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="E152" s="56" t="s">
+      <c r="E156" s="56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A153" s="82" t="s">
+    <row r="157" spans="1:15" ht="33">
+      <c r="A157" s="82" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B155" s="55" t="s">
+    <row r="159" spans="1:15">
+      <c r="B159" s="55" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C156" s="56" t="s">
+    <row r="160" spans="1:15">
+      <c r="C160" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A157" s="79" t="s">
+    <row r="161" spans="1:10" ht="33">
+      <c r="A161" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="C157" s="87" t="s">
+      <c r="C161" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D157" s="87"/>
-      <c r="E157" s="87"/>
-      <c r="F157" s="87"/>
-      <c r="G157" s="87"/>
-      <c r="H157" s="87"/>
-      <c r="I157" s="87"/>
-      <c r="J157" s="87"/>
-    </row>
-    <row r="158" spans="1:15" ht="33" x14ac:dyDescent="0.35">
-      <c r="A158" s="82" t="s">
+      <c r="D161" s="87"/>
+      <c r="E161" s="87"/>
+      <c r="F161" s="87"/>
+      <c r="G161" s="87"/>
+      <c r="H161" s="87"/>
+      <c r="I161" s="87"/>
+      <c r="J161" s="87"/>
+    </row>
+    <row r="162" spans="1:10" ht="33">
+      <c r="A162" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87" t="s">
+      <c r="C162" s="87"/>
+      <c r="D162" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="E158" s="87"/>
-      <c r="F158" s="87"/>
-      <c r="G158" s="87"/>
-      <c r="H158" s="87"/>
-      <c r="I158" s="87"/>
-      <c r="J158" s="87"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A159" s="82"/>
-      <c r="C159" s="87"/>
-      <c r="D159" s="87" t="s">
+      <c r="E162" s="87"/>
+      <c r="F162" s="87"/>
+      <c r="G162" s="87"/>
+      <c r="H162" s="87"/>
+      <c r="I162" s="87"/>
+      <c r="J162" s="87"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="82"/>
+      <c r="C163" s="87"/>
+      <c r="D163" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="E159" s="87"/>
-      <c r="F159" s="87"/>
-      <c r="G159" s="87"/>
-      <c r="H159" s="87"/>
-      <c r="I159" s="87"/>
-      <c r="J159" s="87"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A160" s="82"/>
-      <c r="C160" s="87" t="s">
+      <c r="E163" s="87"/>
+      <c r="F163" s="87"/>
+      <c r="G163" s="87"/>
+      <c r="H163" s="87"/>
+      <c r="I163" s="87"/>
+      <c r="J163" s="87"/>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="82"/>
+      <c r="C164" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="D160" s="87"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="87"/>
-      <c r="G160" s="87"/>
-      <c r="H160" s="87"/>
-      <c r="I160" s="87"/>
-      <c r="J160" s="87"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A161" s="82"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="16" t="s">
+      <c r="D164" s="87"/>
+      <c r="E164" s="87"/>
+      <c r="F164" s="87"/>
+      <c r="G164" s="87"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="87"/>
+      <c r="J164" s="87"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="82"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="B168" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C164" s="59"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="59"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="59"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="16"/>
-      <c r="C165" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="59"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="16"/>
-      <c r="C166" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="16"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="16"/>
-      <c r="C168" s="59" t="s">
-        <v>219</v>
-      </c>
+      <c r="C168" s="59"/>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59"/>
@@ -8146,12 +8205,12 @@
       <c r="I168" s="59"/>
       <c r="J168" s="59"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10">
       <c r="B169" s="16"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59" t="s">
-        <v>220</v>
-      </c>
+      <c r="C169" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59"/>
       <c r="G169" s="59"/>
@@ -8159,25 +8218,23 @@
       <c r="I169" s="59"/>
       <c r="J169" s="59"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10">
       <c r="B170" s="16"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="E170" s="87"/>
-      <c r="F170" s="87"/>
-      <c r="G170" s="87"/>
-      <c r="H170" s="87"/>
+      <c r="C170" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D170" s="59"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
       <c r="I170" s="59"/>
       <c r="J170" s="59"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10">
       <c r="B171" s="16"/>
       <c r="C171" s="59"/>
-      <c r="D171" s="59" t="s">
-        <v>221</v>
-      </c>
+      <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59"/>
       <c r="G171" s="59"/>
@@ -8185,9 +8242,61 @@
       <c r="I171" s="59"/>
       <c r="J171" s="59"/>
     </row>
+    <row r="172" spans="1:10">
+      <c r="B172" s="16"/>
+      <c r="C172" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="B173" s="16"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="59"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="59"/>
+      <c r="H173" s="59"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="59"/>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="B174" s="16"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="E174" s="87"/>
+      <c r="F174" s="87"/>
+      <c r="G174" s="87"/>
+      <c r="H174" s="87"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="59"/>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="B175" s="16"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="59"/>
+      <c r="H175" s="59"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="59"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A45 A47:A1048576">
+  <conditionalFormatting sqref="A8:A45 A118:A1048576 A47:A116">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
@@ -8206,14 +8315,14 @@
       <selection activeCell="E67" sqref="E67:E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="69"/>
     <col min="2" max="7" width="10.625" style="69" customWidth="1"/>
     <col min="8" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>285</v>
       </c>
@@ -8224,7 +8333,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="B2" s="88" t="s">
         <v>102</v>
       </c>
@@ -8247,7 +8356,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="88" t="s">
         <v>225</v>
       </c>
@@ -8255,309 +8364,309 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="88" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="88" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="88" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="88" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="88" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="88" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="88" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="88" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="88" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="88" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="88" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="88" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="88" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="88" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="88" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="88" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="88" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="88" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="88" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="88" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="88" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="88" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="88" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="88" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="88" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="88" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="88" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" s="88" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="88" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" s="88" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="88" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" s="88" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" s="88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" s="88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" s="88" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" s="88" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" s="88" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" s="88" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" s="88" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" s="88" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" s="88" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="88" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="88" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="88" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52" s="88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53" s="88" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54" s="88" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55" s="88" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56" s="88" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57" s="88" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58" s="88" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59" s="88" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60" s="88" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61" s="88" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62" s="88" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="N63" s="81"/>
       <c r="O63" s="81"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="R63" s="81"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="84" t="s">
         <v>207</v>
       </c>
@@ -8571,7 +8680,7 @@
       <c r="I66" s="83"/>
       <c r="J66" s="83"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="84"/>
       <c r="B67" s="84" t="s">
         <v>203</v>
@@ -8591,7 +8700,7 @@
       <c r="I67" s="83"/>
       <c r="J67" s="83"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="84"/>
       <c r="B68" s="84">
         <v>20</v>
@@ -8611,7 +8720,7 @@
       <c r="I68" s="83"/>
       <c r="J68" s="83"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="83"/>
       <c r="B69" s="83"/>
       <c r="C69" s="83"/>
@@ -8623,7 +8732,7 @@
       <c r="I69" s="83"/>
       <c r="J69" s="83"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="83"/>
       <c r="B70" s="84" t="s">
         <v>206</v>
@@ -8652,16 +8761,16 @@
       <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="71"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="35"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" s="55" t="s">
         <v>106</v>
       </c>
@@ -8677,7 +8786,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8691,7 +8800,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8705,7 +8814,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8719,7 +8828,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8733,7 +8842,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8747,7 +8856,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8761,7 +8870,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8775,7 +8884,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8789,7 +8898,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8803,7 +8912,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8817,7 +8926,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8831,7 +8940,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8845,7 +8954,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8859,7 +8968,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8873,7 +8982,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8887,7 +8996,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8901,7 +9010,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -8915,7 +9024,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8929,7 +9038,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8943,7 +9052,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
@@ -8956,7 +9065,7 @@
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="28" customFormat="1">
       <c r="A23" s="36"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -8969,7 +9078,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="28" customFormat="1">
       <c r="A24" s="36"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8982,7 +9091,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="28" customFormat="1">
       <c r="A25" s="36"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8995,7 +9104,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="28" customFormat="1">
       <c r="A26" s="36"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9009,7 +9118,7 @@
       <c r="K26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -9018,7 +9127,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -9027,7 +9136,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9036,7 +9145,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -9045,7 +9154,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -9054,7 +9163,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -9068,7 +9177,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -9082,7 +9191,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" s="71" t="s">
         <v>107</v>
       </c>
@@ -9099,7 +9208,7 @@
       <c r="L34" s="23"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -9113,7 +9222,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -9127,7 +9236,7 @@
       <c r="L36" s="23"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -9141,7 +9250,7 @@
       <c r="L37" s="23"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -9155,7 +9264,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -9169,7 +9278,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -9183,7 +9292,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -9197,7 +9306,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9211,7 +9320,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9225,7 +9334,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9239,7 +9348,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -9253,7 +9362,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -9267,7 +9376,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -9279,7 +9388,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9291,7 +9400,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" s="55"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -9304,7 +9413,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" s="55"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -9317,7 +9426,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" s="55"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -9330,7 +9439,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" s="55"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9343,7 +9452,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11">
       <c r="A53" s="55"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -9356,7 +9465,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11">
       <c r="A54" s="55"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -9369,7 +9478,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11">
       <c r="A55" s="55"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -9382,7 +9491,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11">
       <c r="A56" s="55"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -9395,7 +9504,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11">
       <c r="A57" s="55"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -9408,7 +9517,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11">
       <c r="A58" s="55"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -9421,7 +9530,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11">
       <c r="A59" s="55"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9434,7 +9543,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11">
       <c r="A60" s="55"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9447,7 +9556,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11">
       <c r="A61" s="55"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9460,7 +9569,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11">
       <c r="A62" s="55"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9473,7 +9582,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11">
       <c r="A63" s="55"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9486,7 +9595,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11">
       <c r="A64" s="55"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9499,7 +9608,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15">
       <c r="A65" s="55"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9512,7 +9621,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15">
       <c r="A66" s="55"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9525,7 +9634,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15">
       <c r="A67" s="55"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9538,7 +9647,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -9550,7 +9659,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15">
       <c r="D69" s="8"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -9564,7 +9673,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15">
       <c r="D70" s="1"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
@@ -9578,7 +9687,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15">
       <c r="D71" s="1"/>
       <c r="E71" s="25"/>
       <c r="F71" s="8"/>
@@ -9592,7 +9701,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15">
       <c r="D72" s="1"/>
       <c r="E72" s="25"/>
       <c r="F72" s="26"/>
@@ -9606,7 +9715,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15">
       <c r="D73" s="1"/>
       <c r="E73" s="25"/>
       <c r="F73" s="27"/>
@@ -9620,7 +9729,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15">
       <c r="D74" s="1"/>
       <c r="E74" s="25"/>
       <c r="F74" s="27"/>
@@ -9634,7 +9743,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15">
       <c r="D75" s="1"/>
       <c r="E75" s="25"/>
       <c r="F75" s="27"/>
@@ -9648,7 +9757,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15">
       <c r="A76" s="71" t="s">
         <v>108</v>
       </c>
@@ -9665,7 +9774,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15">
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
@@ -9679,7 +9788,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15">
       <c r="D78" s="1"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -9693,7 +9802,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15">
       <c r="D79" s="1"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -9707,7 +9816,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15">
       <c r="D80" s="1"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
@@ -9721,7 +9830,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:15">
       <c r="D81" s="1"/>
       <c r="E81" s="25"/>
       <c r="F81" s="26"/>
@@ -9735,7 +9844,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:15">
       <c r="D82" s="1"/>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -9749,7 +9858,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:15">
       <c r="D83" s="1"/>
       <c r="E83" s="25"/>
       <c r="F83" s="26"/>
@@ -9763,7 +9872,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:15">
       <c r="D84" s="1"/>
       <c r="E84" s="25"/>
       <c r="F84" s="27"/>
@@ -9777,7 +9886,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:15">
       <c r="D85" s="1"/>
       <c r="E85" s="25"/>
       <c r="F85" s="27"/>
@@ -9791,7 +9900,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:15">
       <c r="D86" s="1"/>
       <c r="E86" s="25"/>
       <c r="F86" s="27"/>
@@ -9805,7 +9914,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:15">
       <c r="D87" s="1"/>
       <c r="E87" s="25"/>
       <c r="F87" s="27"/>
@@ -9819,7 +9928,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:15">
       <c r="D88" s="8"/>
       <c r="E88" s="1"/>
       <c r="F88" s="8"/>
@@ -9833,7 +9942,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:15">
       <c r="D89" s="1"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -9847,7 +9956,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:15">
       <c r="D90" s="1"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -9861,7 +9970,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:15">
       <c r="D91" s="1"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -9875,7 +9984,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:15">
       <c r="D92" s="1"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -9889,7 +9998,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:15">
       <c r="D93" s="1"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -9903,7 +10012,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:15">
       <c r="D94" s="1"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -9917,7 +10026,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:15">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="8"/>
@@ -9931,7 +10040,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:15">
       <c r="D96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -9941,7 +10050,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" ht="21">
       <c r="E97" s="54"/>
       <c r="F97" s="52"/>
       <c r="G97" s="52"/>
@@ -9954,7 +10063,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="8"/>
@@ -9968,7 +10077,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="8"/>
@@ -9982,7 +10091,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15">
       <c r="A100" s="55" t="s">
         <v>169</v>
       </c>
@@ -9999,7 +10108,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15">
       <c r="B101" s="78" t="s">
         <v>170</v>
       </c>
@@ -10016,7 +10125,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15">
       <c r="B102" s="78" t="s">
         <v>171</v>
       </c>
@@ -10033,7 +10142,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15">
       <c r="C103" s="28"/>
       <c r="D103" s="53"/>
       <c r="E103" s="51"/>
@@ -10048,7 +10157,7 @@
       <c r="N103" s="28"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15">
       <c r="C104" s="28"/>
       <c r="D104" s="32"/>
       <c r="E104" s="27"/>
@@ -10062,7 +10171,7 @@
       <c r="M104" s="28"/>
       <c r="N104" s="28"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15">
       <c r="C105" s="28"/>
       <c r="D105" s="32"/>
       <c r="E105" s="27"/>
@@ -10076,7 +10185,7 @@
       <c r="M105" s="28"/>
       <c r="N105" s="28"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15">
       <c r="C106" s="28"/>
       <c r="D106" s="32"/>
       <c r="E106" s="27"/>
@@ -10090,7 +10199,7 @@
       <c r="M106" s="28"/>
       <c r="N106" s="28"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15">
       <c r="C107" s="28"/>
       <c r="D107" s="32"/>
       <c r="E107" s="27"/>
@@ -10104,7 +10213,7 @@
       <c r="M107" s="28"/>
       <c r="N107" s="28"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15">
       <c r="C108" s="16"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -10118,7 +10227,7 @@
       <c r="M108" s="28"/>
       <c r="N108" s="28"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15">
       <c r="C109" s="8"/>
       <c r="D109" s="32"/>
       <c r="E109" s="27"/>
@@ -10132,7 +10241,7 @@
       <c r="M109" s="28"/>
       <c r="N109" s="28"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15">
       <c r="C110" s="8"/>
       <c r="D110" s="32"/>
       <c r="E110" s="27"/>
@@ -10146,7 +10255,7 @@
       <c r="M110" s="28"/>
       <c r="N110" s="28"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15">
       <c r="C111" s="8"/>
       <c r="D111" s="32"/>
       <c r="E111" s="27"/>
@@ -10160,7 +10269,7 @@
       <c r="M111" s="28"/>
       <c r="N111" s="28"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15">
       <c r="C112" s="8"/>
       <c r="D112" s="32"/>
       <c r="E112" s="27"/>
@@ -10174,7 +10283,7 @@
       <c r="M112" s="28"/>
       <c r="N112" s="28"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17">
       <c r="C113" s="8"/>
       <c r="D113" s="32"/>
       <c r="E113" s="27"/>
@@ -10188,18 +10297,18 @@
       <c r="M113" s="28"/>
       <c r="N113" s="28"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17">
       <c r="A115" s="71" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17">
       <c r="B116" s="78" t="s">
         <v>298</v>
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" ht="21">
       <c r="H117" s="54"/>
       <c r="I117" s="34"/>
       <c r="J117" s="34"/>
@@ -10207,10 +10316,10 @@
       <c r="L117" s="34"/>
       <c r="M117" s="34"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17">
       <c r="A124" s="35"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -10228,7 +10337,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -10246,7 +10355,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -10264,7 +10373,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:17">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -10282,7 +10391,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:17">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -10300,7 +10409,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:17">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -10318,7 +10427,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:17">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -10336,7 +10445,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:17">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -10354,7 +10463,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:17">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -10372,7 +10481,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:17">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -10390,7 +10499,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:17">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -10408,7 +10517,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:17">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -10426,7 +10535,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:17">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -10444,7 +10553,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:17">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -10462,7 +10571,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:17">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -10480,7 +10589,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:17">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -10498,7 +10607,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:17">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -10516,7 +10625,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:17">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -10534,7 +10643,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:17">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -10552,7 +10661,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:17">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -10570,7 +10679,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:17">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -10588,10 +10697,10 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:17">
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:17" ht="21">
       <c r="K151" s="54"/>
       <c r="L151" s="34"/>
     </row>
@@ -10611,7 +10720,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="24" customWidth="1"/>
     <col min="2" max="2" width="46" style="24" customWidth="1"/>
@@ -10623,7 +10732,7 @@
     <col min="10" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10642,7 +10751,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17">
       <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
@@ -10680,7 +10789,7 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="28"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="A3" s="30" t="s">
         <v>96</v>
       </c>
@@ -10702,7 +10811,7 @@
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -10714,7 +10823,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -10726,7 +10835,7 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -10738,7 +10847,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -10750,7 +10859,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -10762,7 +10871,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -10774,7 +10883,7 @@
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -10786,7 +10895,7 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -10798,7 +10907,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -10810,7 +10919,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -10822,7 +10931,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -10834,7 +10943,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10846,7 +10955,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -10858,7 +10967,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -10870,7 +10979,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -10896,7 +11005,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="11" width="9" style="24"/>
     <col min="12" max="12" width="20.875" style="24" customWidth="1"/>
@@ -10905,50 +11014,50 @@
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="40" customFormat="1">
       <c r="A1" s="39"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="B4" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="B5" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="B6" s="78" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="B12" s="24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="B13" s="24" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="78" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="B19" s="78" t="s">
         <v>337</v>
       </c>
@@ -10967,7 +11076,7 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="24"/>
     <col min="3" max="3" width="14.75" style="24" customWidth="1"/>
@@ -10976,7 +11085,7 @@
     <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="42" customFormat="1">
       <c r="A1" s="42" t="s">
         <v>40</v>
       </c>
@@ -10996,7 +11105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="45" customFormat="1">
       <c r="A2" s="46"/>
       <c r="B2" s="44"/>
     </row>
@@ -11014,7 +11123,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="24"/>
   </cols>

--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="348">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -249,30 +249,6 @@
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次验收内容</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体内容</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收结果</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1455,12 +1431,164 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>016-2-23</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.每日首次登录没有自动弹出签到界面</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.签到界面显示格式不正确</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.缺少当日签到的特效</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.签到奖励是道具时无法正确签到成功，需要重新登录后才能显示签到完成，未弹出奖励界面 </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.签到奖励为宠物时获得的宠物与显示的宠物不符，配置的蛙鬼，获得的凯瑞斯</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.进入宠物奖励界面前界面会白一下，不知道什么原因</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.签到奖励如果为宠物则没有显示tips</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.签到奖励是金钱或者钻石的情况下，奖励界面显示不正确</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.不可补签的时候仍然会出现补签按钮和次数说明</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.只有补签时，开关界面后签到图标仍然有红点显示</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,13 +1756,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2034,9 +2155,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2110,7 +2231,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2123,19 +2244,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2151,7 +2263,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2165,7 +2277,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2181,15 +2293,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2204,15 +2316,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2264,7 +2377,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4671,6 +4786,239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819978</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="828261"/>
+          <a:ext cx="2633869" cy="2027939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181444</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687458" y="3313043"/>
+          <a:ext cx="2995334" cy="1432892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2578327</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1374913" y="5797826"/>
+          <a:ext cx="3704762" cy="2295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2659243</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5441675" y="5797827"/>
+          <a:ext cx="2659242" cy="2261152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1906421</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441174" y="9997109"/>
+          <a:ext cx="2966595" cy="1954695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2258688</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1366631" y="12664109"/>
+          <a:ext cx="3393405" cy="2584174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -4966,71 +5314,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="55"/>
-    <col min="2" max="2" width="27.875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="57" customWidth="1"/>
-    <col min="5" max="7" width="11" style="57"/>
-    <col min="8" max="16384" width="11" style="56"/>
+    <col min="1" max="1" width="11" style="52"/>
+    <col min="2" max="2" width="27.875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="54" customWidth="1"/>
+    <col min="5" max="7" width="11" style="54"/>
+    <col min="8" max="16384" width="11" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>48</v>
+      <c r="B2" s="53" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="56"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>49</v>
+      <c r="B4" s="58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>50</v>
+      <c r="B8" s="53" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="G11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
@@ -5039,282 +5387,282 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="55">
         <v>42390</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="57" t="s">
+      <c r="D23" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="57" t="s">
-        <v>47</v>
+      <c r="F23" s="54" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="58">
+      <c r="B24" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="55">
         <v>42395</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>168</v>
+      <c r="D24" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="56"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
       <c r="H25" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="56"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55"/>
       <c r="H26" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="56"/>
-      <c r="C27" s="58"/>
-      <c r="H27" s="56" t="s">
-        <v>224</v>
+      <c r="B27" s="53"/>
+      <c r="C27" s="55"/>
+      <c r="H27" s="53" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="56"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="H28" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="53"/>
+      <c r="C29" s="55"/>
+      <c r="H29" s="53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
+      <c r="H30" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="53"/>
+      <c r="C31" s="55"/>
+      <c r="H31" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
+      <c r="H32" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="53"/>
+      <c r="C33" s="55"/>
+      <c r="H33" s="89" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="53"/>
+      <c r="C34" s="55"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="55">
+        <v>42402</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="53" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="56"/>
-      <c r="C29" s="58"/>
-      <c r="H29" s="56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
-      <c r="H30" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="56"/>
-      <c r="C31" s="58"/>
-      <c r="H31" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="56"/>
-      <c r="C32" s="58"/>
-      <c r="H32" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="56"/>
-      <c r="C33" s="58"/>
-      <c r="H33" s="109" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="56"/>
-      <c r="C34" s="58"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="56"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="58">
-        <v>42402</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" s="56"/>
+      <c r="F36" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" s="56"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="F38" s="91" t="s">
-        <v>314</v>
+      <c r="F38" s="88" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="F39" s="91" t="s">
-        <v>315</v>
+      <c r="F39" s="88" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="F40" s="91" t="s">
-        <v>316</v>
+      <c r="F40" s="88" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="F41" s="91" t="s">
-        <v>317</v>
+      <c r="F41" s="88" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="F42" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="F43" s="91" t="s">
-        <v>328</v>
+      <c r="F43" s="88" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5375,265 +5723,265 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="73"/>
+    <col min="1" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="75" customFormat="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:2" s="72" customFormat="1">
+      <c r="A1" s="71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="72" customFormat="1">
+      <c r="A6" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="72" customFormat="1">
+      <c r="A13" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="72" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="72" customFormat="1">
+      <c r="A18" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="69" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="72" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="75" customFormat="1">
-      <c r="A6" s="74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="72" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="72" t="s">
+    <row r="25" spans="1:2" s="72" customFormat="1">
+      <c r="A25" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="69" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="75" customFormat="1">
-      <c r="A13" s="74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="72" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="72" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="72" customFormat="1">
+      <c r="A36" s="71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="75" customFormat="1">
-      <c r="A18" s="74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="72" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="75" customFormat="1">
-      <c r="A25" s="74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="72" t="s">
+    <row r="41" spans="1:2" s="72" customFormat="1">
+      <c r="A41" s="71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="72" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="73"/>
+      <c r="B43" s="74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="72" customFormat="1">
+      <c r="A44" s="71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="69"/>
+      <c r="B46" s="74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="69"/>
+      <c r="B48" s="74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="75" customFormat="1">
-      <c r="A36" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="75" customFormat="1">
-      <c r="A41" s="74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="75" customFormat="1">
-      <c r="A44" s="74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="72" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="69"/>
+      <c r="B50" s="74" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="72"/>
-      <c r="B46" s="77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="72"/>
-      <c r="B50" s="77" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="51" spans="1:3">
-      <c r="C51" s="77"/>
+      <c r="C51" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5652,1322 +6000,1322 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="79" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="56"/>
-    <col min="4" max="4" width="8.625" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="56"/>
+    <col min="1" max="1" width="34.375" style="76" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="53"/>
+    <col min="4" max="4" width="8.625" style="53" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="C1" s="55"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="52"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="33">
+      <c r="A6" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="33">
+      <c r="A7" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="33">
+      <c r="A9" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="33">
-      <c r="A6" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="33">
-      <c r="A7" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="33">
-      <c r="A9" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="82" t="s">
-        <v>190</v>
+      <c r="A10" s="79" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="C13" s="55"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="C13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="5:22">
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="5:22">
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="5:22">
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
     </row>
     <row r="20" spans="5:22">
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="5:22">
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="5:22">
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
     </row>
     <row r="23" spans="5:22">
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
     </row>
     <row r="24" spans="5:22">
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
     </row>
     <row r="25" spans="5:22">
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
     </row>
     <row r="26" spans="5:22">
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
     </row>
     <row r="27" spans="5:22">
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
     </row>
     <row r="28" spans="5:22">
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
     </row>
     <row r="29" spans="5:22">
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
     </row>
     <row r="30" spans="5:22">
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
     </row>
     <row r="31" spans="5:22">
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
     </row>
     <row r="32" spans="5:22">
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
     </row>
     <row r="34" spans="4:22">
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
     </row>
     <row r="35" spans="4:22">
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
     </row>
     <row r="36" spans="4:22">
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
     </row>
     <row r="37" spans="4:22">
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
     </row>
     <row r="38" spans="4:22">
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
     </row>
     <row r="39" spans="4:22">
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
     </row>
     <row r="40" spans="4:22">
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
     </row>
     <row r="41" spans="4:22">
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
     </row>
     <row r="42" spans="4:22">
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
     </row>
     <row r="43" spans="4:22">
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
     </row>
     <row r="44" spans="4:22">
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
     </row>
     <row r="45" spans="4:22">
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
     </row>
     <row r="46" spans="4:22">
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
     </row>
     <row r="47" spans="4:22">
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
     </row>
     <row r="48" spans="4:22">
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
     </row>
     <row r="49" spans="4:22">
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
     </row>
     <row r="50" spans="4:22">
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
     </row>
     <row r="51" spans="4:22">
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
     </row>
     <row r="52" spans="4:22">
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
     </row>
     <row r="53" spans="4:22">
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
     </row>
     <row r="54" spans="4:22">
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
     </row>
     <row r="55" spans="4:22">
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
     </row>
     <row r="56" spans="4:22">
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
     </row>
     <row r="57" spans="4:22">
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
     </row>
     <row r="58" spans="4:22">
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
     </row>
     <row r="59" spans="4:22">
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
     </row>
     <row r="60" spans="4:22">
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
     </row>
     <row r="61" spans="4:22">
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
     </row>
     <row r="62" spans="4:22">
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
     </row>
     <row r="63" spans="4:22">
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
     </row>
     <row r="64" spans="4:22">
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
     </row>
     <row r="65" spans="3:22">
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
     </row>
     <row r="66" spans="3:22">
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
     </row>
     <row r="67" spans="3:22">
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
     </row>
     <row r="68" spans="3:22">
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
     </row>
     <row r="69" spans="3:22" ht="16.5" customHeight="1">
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
     </row>
     <row r="70" spans="3:22" ht="16.5" customHeight="1">
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
     </row>
     <row r="71" spans="3:22" ht="16.5" customHeight="1">
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
+      <c r="C72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
     </row>
     <row r="73" spans="3:22">
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="56"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
     </row>
     <row r="74" spans="3:22">
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
     </row>
     <row r="75" spans="3:22">
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
     </row>
     <row r="76" spans="3:22">
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="59"/>
-      <c r="V76" s="59"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
     </row>
     <row r="77" spans="3:22">
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="59"/>
-      <c r="V77" s="59"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
     </row>
     <row r="78" spans="3:22">
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-      <c r="T78" s="59"/>
-      <c r="U78" s="59"/>
-      <c r="V78" s="59"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
     </row>
     <row r="79" spans="3:22">
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59"/>
-      <c r="V79" s="59"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
     </row>
     <row r="80" spans="3:22">
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
     </row>
     <row r="81" spans="15:22">
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="59"/>
-      <c r="U81" s="59"/>
-      <c r="V81" s="59"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
     </row>
     <row r="82" spans="15:22">
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="59"/>
-      <c r="V82" s="59"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
     </row>
     <row r="83" spans="15:22">
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
     </row>
     <row r="84" spans="15:22">
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
     </row>
     <row r="85" spans="15:22">
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
     </row>
     <row r="86" spans="15:22">
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
     </row>
     <row r="87" spans="15:22">
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
     </row>
     <row r="88" spans="15:22">
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
+      <c r="T88" s="56"/>
+      <c r="U88" s="56"/>
+      <c r="V88" s="56"/>
     </row>
     <row r="89" spans="15:22">
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="59"/>
-      <c r="V89" s="59"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
     </row>
     <row r="90" spans="15:22">
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
-      <c r="V90" s="59"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
     </row>
     <row r="91" spans="15:22">
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="59"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="59"/>
-      <c r="V91" s="59"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="V91" s="56"/>
     </row>
     <row r="92" spans="15:22">
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
     </row>
     <row r="93" spans="15:22">
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="59"/>
-      <c r="S93" s="59"/>
-      <c r="T93" s="59"/>
-      <c r="U93" s="59"/>
-      <c r="V93" s="59"/>
+      <c r="O93" s="56"/>
+      <c r="P93" s="56"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="56"/>
+      <c r="T93" s="56"/>
+      <c r="U93" s="56"/>
+      <c r="V93" s="56"/>
     </row>
     <row r="94" spans="15:22">
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="59"/>
-      <c r="T94" s="59"/>
-      <c r="U94" s="59"/>
-      <c r="V94" s="59"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="56"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="56"/>
     </row>
     <row r="95" spans="15:22">
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="59"/>
-      <c r="S95" s="59"/>
-      <c r="T95" s="59"/>
-      <c r="U95" s="59"/>
-      <c r="V95" s="59"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="56"/>
     </row>
     <row r="96" spans="15:22">
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="59"/>
-      <c r="S96" s="59"/>
-      <c r="T96" s="59"/>
-      <c r="U96" s="59"/>
-      <c r="V96" s="59"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="56"/>
     </row>
     <row r="97" spans="2:18">
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="37"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="59"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
+      <c r="P98" s="56"/>
+      <c r="Q98" s="56"/>
+      <c r="R98" s="56"/>
     </row>
     <row r="99" spans="2:18">
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
+      <c r="P99" s="56"/>
+      <c r="Q99" s="56"/>
+      <c r="R99" s="56"/>
     </row>
     <row r="100" spans="2:18">
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="59"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="56"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
     </row>
     <row r="101" spans="2:18">
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="59"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="56"/>
+      <c r="Q101" s="56"/>
+      <c r="R101" s="56"/>
     </row>
     <row r="102" spans="2:18">
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="59"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="56"/>
+      <c r="P102" s="56"/>
+      <c r="Q102" s="56"/>
+      <c r="R102" s="56"/>
     </row>
     <row r="103" spans="2:18">
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="59"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="56"/>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="56"/>
+      <c r="R103" s="56"/>
     </row>
     <row r="104" spans="2:18">
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="59"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="56"/>
+      <c r="P104" s="56"/>
+      <c r="Q104" s="56"/>
+      <c r="R104" s="56"/>
     </row>
     <row r="105" spans="2:18">
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="59"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
     </row>
     <row r="106" spans="2:18">
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="59"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="56"/>
+      <c r="R106" s="56"/>
     </row>
     <row r="107" spans="2:18">
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="56"/>
+      <c r="R107" s="56"/>
     </row>
     <row r="108" spans="2:18">
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="59"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="56"/>
+      <c r="Q108" s="56"/>
+      <c r="R108" s="56"/>
     </row>
     <row r="109" spans="2:18">
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="59"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
+      <c r="P109" s="56"/>
+      <c r="Q109" s="56"/>
+      <c r="R109" s="56"/>
     </row>
     <row r="110" spans="2:18">
-      <c r="C110" s="55"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="59"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="59"/>
-      <c r="N110" s="59"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="59"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="56"/>
+      <c r="P110" s="56"/>
+      <c r="Q110" s="56"/>
+      <c r="R110" s="56"/>
     </row>
     <row r="131" spans="2:8">
       <c r="B131" s="37"/>
@@ -6988,307 +7336,307 @@
       <c r="B136" s="38"/>
     </row>
     <row r="137" spans="2:8">
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="59"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="56"/>
+      <c r="H137" s="56"/>
     </row>
     <row r="138" spans="2:8">
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59"/>
-      <c r="H138" s="59"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="56"/>
     </row>
     <row r="139" spans="2:8">
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="59"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="56"/>
     </row>
     <row r="145" spans="4:15">
-      <c r="H145" s="62"/>
-      <c r="I145" s="59"/>
-      <c r="J145" s="59"/>
-      <c r="K145" s="59"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="56"/>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="59"/>
-      <c r="K148" s="59"/>
-      <c r="L148" s="59"/>
-      <c r="M148" s="59"/>
-      <c r="N148" s="59"/>
-      <c r="O148" s="59"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="56"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
+      <c r="O148" s="56"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="59"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="59"/>
-      <c r="K149" s="59"/>
-      <c r="L149" s="59"/>
-      <c r="M149" s="59"/>
-      <c r="N149" s="59"/>
-      <c r="O149" s="59"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="56"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
+      <c r="O149" s="56"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="59"/>
-      <c r="L150" s="59"/>
-      <c r="M150" s="59"/>
-      <c r="N150" s="59"/>
-      <c r="O150" s="59"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="59"/>
-      <c r="L151" s="59"/>
-      <c r="M151" s="59"/>
-      <c r="N151" s="59"/>
-      <c r="O151" s="59"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="56"/>
+      <c r="O151" s="56"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="59"/>
-      <c r="K152" s="59"/>
-      <c r="L152" s="59"/>
-      <c r="M152" s="59"/>
-      <c r="N152" s="59"/>
-      <c r="O152" s="59"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="56"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="59"/>
-      <c r="J153" s="59"/>
-      <c r="K153" s="59"/>
-      <c r="L153" s="59"/>
-      <c r="M153" s="59"/>
-      <c r="N153" s="59"/>
-      <c r="O153" s="59"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="56"/>
+      <c r="O153" s="56"/>
     </row>
     <row r="154" spans="4:15">
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="59"/>
-      <c r="J154" s="59"/>
-      <c r="K154" s="59"/>
-      <c r="L154" s="59"/>
-      <c r="M154" s="59"/>
-      <c r="N154" s="59"/>
-      <c r="O154" s="59"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56"/>
+      <c r="H154" s="56"/>
+      <c r="I154" s="56"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="56"/>
+      <c r="L154" s="56"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="56"/>
+      <c r="O154" s="56"/>
     </row>
     <row r="155" spans="4:15">
-      <c r="D155" s="59"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59"/>
-      <c r="H155" s="59"/>
-      <c r="I155" s="59"/>
-      <c r="J155" s="59"/>
-      <c r="K155" s="59"/>
-      <c r="L155" s="59"/>
-      <c r="M155" s="59"/>
-      <c r="N155" s="59"/>
-      <c r="O155" s="59"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="56"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
+      <c r="O155" s="56"/>
     </row>
     <row r="156" spans="4:15">
-      <c r="D156" s="59"/>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59"/>
-      <c r="H156" s="59"/>
-      <c r="I156" s="59"/>
-      <c r="J156" s="59"/>
-      <c r="K156" s="59"/>
-      <c r="L156" s="59"/>
-      <c r="M156" s="59"/>
-      <c r="N156" s="59"/>
-      <c r="O156" s="59"/>
+      <c r="D156" s="56"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="56"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="56"/>
+      <c r="O156" s="56"/>
     </row>
     <row r="157" spans="4:15">
-      <c r="D157" s="59"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59"/>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
-      <c r="J157" s="59"/>
-      <c r="K157" s="59"/>
-      <c r="L157" s="59"/>
-      <c r="M157" s="59"/>
-      <c r="N157" s="59"/>
-      <c r="O157" s="59"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="56"/>
     </row>
     <row r="158" spans="4:15">
-      <c r="D158" s="59"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="59"/>
-      <c r="J158" s="59"/>
-      <c r="K158" s="59"/>
-      <c r="L158" s="59"/>
-      <c r="M158" s="59"/>
-      <c r="N158" s="59"/>
-      <c r="O158" s="59"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56"/>
+      <c r="H158" s="59"/>
+      <c r="I158" s="56"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56"/>
+      <c r="L158" s="56"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56"/>
+      <c r="O158" s="56"/>
     </row>
     <row r="159" spans="4:15">
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="59"/>
-      <c r="J159" s="59"/>
-      <c r="K159" s="59"/>
-      <c r="L159" s="59"/>
-      <c r="M159" s="59"/>
-      <c r="N159" s="59"/>
-      <c r="O159" s="59"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="56"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56"/>
+      <c r="O159" s="56"/>
     </row>
     <row r="160" spans="4:15">
-      <c r="D160" s="59"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="59"/>
-      <c r="J160" s="59"/>
-      <c r="K160" s="59"/>
-      <c r="L160" s="59"/>
-      <c r="M160" s="59"/>
-      <c r="N160" s="59"/>
-      <c r="O160" s="59"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="G160" s="56"/>
+      <c r="H160" s="59"/>
+      <c r="I160" s="56"/>
+      <c r="J160" s="56"/>
+      <c r="K160" s="56"/>
+      <c r="L160" s="56"/>
+      <c r="M160" s="56"/>
+      <c r="N160" s="56"/>
+      <c r="O160" s="56"/>
     </row>
     <row r="161" spans="3:23">
-      <c r="D161" s="59"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="59"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="59"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="59"/>
-      <c r="M161" s="59"/>
-      <c r="N161" s="59"/>
-      <c r="O161" s="59"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+      <c r="L161" s="56"/>
+      <c r="M161" s="56"/>
+      <c r="N161" s="56"/>
+      <c r="O161" s="56"/>
     </row>
     <row r="162" spans="3:23">
-      <c r="D162" s="59"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="59"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="59"/>
-      <c r="J162" s="59"/>
-      <c r="K162" s="59"/>
-      <c r="L162" s="59"/>
-      <c r="M162" s="59"/>
-      <c r="N162" s="59"/>
-      <c r="O162" s="59"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56"/>
+      <c r="H162" s="59"/>
+      <c r="I162" s="56"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
+      <c r="L162" s="56"/>
+      <c r="M162" s="56"/>
+      <c r="N162" s="56"/>
+      <c r="O162" s="56"/>
     </row>
     <row r="163" spans="3:23">
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="59"/>
-      <c r="J163" s="59"/>
-      <c r="K163" s="59"/>
-      <c r="L163" s="59"/>
-      <c r="M163" s="59"/>
-      <c r="N163" s="59"/>
-      <c r="O163" s="59"/>
+      <c r="D163" s="56"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="56"/>
+      <c r="G163" s="56"/>
+      <c r="H163" s="56"/>
+      <c r="I163" s="56"/>
+      <c r="J163" s="56"/>
+      <c r="K163" s="56"/>
+      <c r="L163" s="56"/>
+      <c r="M163" s="56"/>
+      <c r="N163" s="56"/>
+      <c r="O163" s="56"/>
     </row>
     <row r="164" spans="3:23">
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="59"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="59"/>
-      <c r="O164" s="59"/>
+      <c r="D164" s="56"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56"/>
+      <c r="H164" s="56"/>
+      <c r="I164" s="56"/>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="56"/>
+      <c r="O164" s="56"/>
     </row>
     <row r="165" spans="3:23">
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
+      <c r="D165" s="56"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
+      <c r="G165" s="56"/>
+      <c r="H165" s="56"/>
+      <c r="I165" s="56"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
     </row>
     <row r="166" spans="3:23">
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
+      <c r="D166" s="56"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="56"/>
+      <c r="J166" s="56"/>
+      <c r="K166" s="56"/>
     </row>
     <row r="169" spans="3:23">
-      <c r="H169" s="62"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="56"/>
+      <c r="J169" s="56"/>
+      <c r="K169" s="56"/>
     </row>
     <row r="173" spans="3:23">
-      <c r="C173" s="55"/>
+      <c r="C173" s="52"/>
     </row>
     <row r="176" spans="3:23">
-      <c r="T176" s="63"/>
-      <c r="V176" s="64"/>
+      <c r="T176" s="60"/>
+      <c r="V176" s="61"/>
       <c r="W176" s="9"/>
     </row>
     <row r="177" spans="2:25">
-      <c r="T177" s="65"/>
-      <c r="U177" s="47"/>
-      <c r="V177" s="47"/>
-      <c r="W177" s="59"/>
-      <c r="X177" s="59"/>
+      <c r="T177" s="62"/>
+      <c r="U177" s="44"/>
+      <c r="V177" s="44"/>
+      <c r="W177" s="56"/>
+      <c r="X177" s="56"/>
     </row>
     <row r="178" spans="2:25">
       <c r="S178" s="20"/>
@@ -7300,27 +7648,27 @@
     </row>
     <row r="179" spans="2:25">
       <c r="B179" s="37"/>
-      <c r="D179" s="66"/>
-      <c r="E179" s="67"/>
-      <c r="F179" s="68"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="60"/>
-      <c r="I179" s="67"/>
-      <c r="J179" s="60"/>
-      <c r="K179" s="67"/>
-      <c r="L179" s="68"/>
-      <c r="M179" s="68"/>
-      <c r="N179" s="68"/>
-      <c r="O179" s="68"/>
-      <c r="P179" s="68"/>
-      <c r="Q179" s="60"/>
-      <c r="R179" s="67"/>
-      <c r="S179" s="60"/>
-      <c r="T179" s="60"/>
-      <c r="U179" s="60"/>
-      <c r="V179" s="60"/>
-      <c r="W179" s="60"/>
-      <c r="X179" s="60"/>
+      <c r="D179" s="63"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="65"/>
+      <c r="G179" s="65"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="64"/>
+      <c r="J179" s="57"/>
+      <c r="K179" s="64"/>
+      <c r="L179" s="65"/>
+      <c r="M179" s="65"/>
+      <c r="N179" s="65"/>
+      <c r="O179" s="65"/>
+      <c r="P179" s="65"/>
+      <c r="Q179" s="57"/>
+      <c r="R179" s="64"/>
+      <c r="S179" s="57"/>
+      <c r="T179" s="57"/>
+      <c r="U179" s="57"/>
+      <c r="V179" s="57"/>
+      <c r="W179" s="57"/>
+      <c r="X179" s="57"/>
     </row>
     <row r="180" spans="2:25">
       <c r="B180" s="38"/>
@@ -7331,21 +7679,21 @@
       <c r="H180" s="12"/>
       <c r="I180" s="11"/>
       <c r="J180" s="12"/>
-      <c r="K180" s="106"/>
-      <c r="L180" s="107"/>
-      <c r="M180" s="107"/>
-      <c r="N180" s="107"/>
-      <c r="O180" s="107"/>
-      <c r="P180" s="107"/>
-      <c r="Q180" s="108"/>
-      <c r="R180" s="49"/>
-      <c r="S180" s="48"/>
-      <c r="T180" s="48"/>
-      <c r="U180" s="48"/>
-      <c r="V180" s="48"/>
-      <c r="W180" s="48"/>
-      <c r="X180" s="48"/>
-      <c r="Y180" s="59"/>
+      <c r="K180" s="104"/>
+      <c r="L180" s="105"/>
+      <c r="M180" s="105"/>
+      <c r="N180" s="105"/>
+      <c r="O180" s="105"/>
+      <c r="P180" s="105"/>
+      <c r="Q180" s="106"/>
+      <c r="R180" s="46"/>
+      <c r="S180" s="45"/>
+      <c r="T180" s="45"/>
+      <c r="U180" s="45"/>
+      <c r="V180" s="45"/>
+      <c r="W180" s="45"/>
+      <c r="X180" s="45"/>
+      <c r="Y180" s="56"/>
     </row>
     <row r="181" spans="2:25" ht="15.75" customHeight="1">
       <c r="B181" s="38"/>
@@ -7363,165 +7711,165 @@
       <c r="O181" s="14"/>
       <c r="P181" s="14"/>
       <c r="Q181" s="15"/>
-      <c r="R181" s="49"/>
-      <c r="S181" s="48"/>
-      <c r="T181" s="50"/>
-      <c r="U181" s="48"/>
-      <c r="V181" s="48"/>
-      <c r="W181" s="48"/>
-      <c r="X181" s="48"/>
-      <c r="Y181" s="59"/>
+      <c r="R181" s="46"/>
+      <c r="S181" s="45"/>
+      <c r="T181" s="47"/>
+      <c r="U181" s="45"/>
+      <c r="V181" s="45"/>
+      <c r="W181" s="45"/>
+      <c r="X181" s="45"/>
+      <c r="Y181" s="56"/>
     </row>
     <row r="182" spans="2:25">
       <c r="B182" s="38"/>
-      <c r="R182" s="59"/>
-      <c r="S182" s="59"/>
-      <c r="T182" s="59"/>
-      <c r="U182" s="59"/>
-      <c r="V182" s="59"/>
-      <c r="W182" s="59"/>
-      <c r="X182" s="59"/>
-      <c r="Y182" s="59"/>
+      <c r="R182" s="56"/>
+      <c r="S182" s="56"/>
+      <c r="T182" s="56"/>
+      <c r="U182" s="56"/>
+      <c r="V182" s="56"/>
+      <c r="W182" s="56"/>
+      <c r="X182" s="56"/>
+      <c r="Y182" s="56"/>
     </row>
     <row r="183" spans="2:25">
       <c r="B183" s="38"/>
     </row>
     <row r="184" spans="2:25">
-      <c r="E184" s="59"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
-      <c r="J184" s="59"/>
-      <c r="K184" s="59"/>
-      <c r="L184" s="59"/>
-      <c r="M184" s="59"/>
-      <c r="N184" s="59"/>
-      <c r="O184" s="59"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="56"/>
+      <c r="O184" s="56"/>
     </row>
     <row r="185" spans="2:25">
-      <c r="E185" s="59"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
-      <c r="J185" s="59"/>
-      <c r="K185" s="59"/>
-      <c r="L185" s="59"/>
-      <c r="M185" s="59"/>
-      <c r="N185" s="59"/>
-      <c r="O185" s="59"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="56"/>
+      <c r="I185" s="56"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="56"/>
+      <c r="L185" s="56"/>
+      <c r="M185" s="56"/>
+      <c r="N185" s="56"/>
+      <c r="O185" s="56"/>
     </row>
     <row r="186" spans="2:25">
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
-      <c r="L186" s="59"/>
-      <c r="M186" s="59"/>
-      <c r="N186" s="59"/>
-      <c r="O186" s="59"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="56"/>
+      <c r="G186" s="56"/>
+      <c r="H186" s="56"/>
+      <c r="I186" s="56"/>
+      <c r="J186" s="56"/>
+      <c r="K186" s="56"/>
+      <c r="L186" s="56"/>
+      <c r="M186" s="56"/>
+      <c r="N186" s="56"/>
+      <c r="O186" s="56"/>
     </row>
     <row r="187" spans="2:25">
-      <c r="E187" s="59"/>
+      <c r="E187" s="56"/>
       <c r="F187" s="16"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
-      <c r="L187" s="59"/>
-      <c r="M187" s="59"/>
-      <c r="N187" s="59"/>
-      <c r="O187" s="59"/>
+      <c r="G187" s="56"/>
+      <c r="H187" s="56"/>
+      <c r="I187" s="56"/>
+      <c r="J187" s="56"/>
+      <c r="K187" s="56"/>
+      <c r="L187" s="56"/>
+      <c r="M187" s="56"/>
+      <c r="N187" s="56"/>
+      <c r="O187" s="56"/>
     </row>
     <row r="188" spans="2:25">
-      <c r="E188" s="59"/>
+      <c r="E188" s="56"/>
       <c r="F188" s="16"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
-      <c r="J188" s="59"/>
-      <c r="K188" s="59"/>
-      <c r="L188" s="59"/>
-      <c r="M188" s="59"/>
-      <c r="N188" s="59"/>
-      <c r="O188" s="59"/>
+      <c r="G188" s="56"/>
+      <c r="H188" s="56"/>
+      <c r="I188" s="56"/>
+      <c r="J188" s="56"/>
+      <c r="K188" s="56"/>
+      <c r="L188" s="56"/>
+      <c r="M188" s="56"/>
+      <c r="N188" s="56"/>
+      <c r="O188" s="56"/>
     </row>
     <row r="189" spans="2:25">
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
-      <c r="J189" s="59"/>
-      <c r="K189" s="59"/>
-      <c r="L189" s="59"/>
-      <c r="M189" s="59"/>
-      <c r="N189" s="59"/>
-      <c r="O189" s="59"/>
+      <c r="E189" s="56"/>
+      <c r="F189" s="56"/>
+      <c r="G189" s="56"/>
+      <c r="H189" s="56"/>
+      <c r="I189" s="56"/>
+      <c r="J189" s="56"/>
+      <c r="K189" s="56"/>
+      <c r="L189" s="56"/>
+      <c r="M189" s="56"/>
+      <c r="N189" s="56"/>
+      <c r="O189" s="56"/>
     </row>
     <row r="190" spans="2:25">
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
-      <c r="G190" s="59"/>
-      <c r="H190" s="59"/>
-      <c r="I190" s="59"/>
-      <c r="J190" s="59"/>
-      <c r="K190" s="59"/>
-      <c r="L190" s="59"/>
-      <c r="M190" s="59"/>
-      <c r="N190" s="59"/>
-      <c r="O190" s="59"/>
+      <c r="E190" s="56"/>
+      <c r="F190" s="56"/>
+      <c r="G190" s="56"/>
+      <c r="H190" s="56"/>
+      <c r="I190" s="56"/>
+      <c r="J190" s="56"/>
+      <c r="K190" s="56"/>
+      <c r="L190" s="56"/>
+      <c r="M190" s="56"/>
+      <c r="N190" s="56"/>
+      <c r="O190" s="56"/>
     </row>
     <row r="191" spans="2:25">
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="59"/>
-      <c r="M191" s="59"/>
-      <c r="N191" s="59"/>
-      <c r="O191" s="59"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="56"/>
+      <c r="G191" s="56"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="56"/>
+      <c r="J191" s="56"/>
+      <c r="K191" s="56"/>
+      <c r="L191" s="56"/>
+      <c r="M191" s="56"/>
+      <c r="N191" s="56"/>
+      <c r="O191" s="56"/>
     </row>
     <row r="192" spans="2:25">
-      <c r="E192" s="59"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
-      <c r="J192" s="59"/>
-      <c r="K192" s="59"/>
-      <c r="L192" s="59"/>
-      <c r="M192" s="59"/>
-      <c r="N192" s="59"/>
-      <c r="O192" s="59"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="56"/>
+      <c r="G192" s="56"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56"/>
+      <c r="J192" s="56"/>
+      <c r="K192" s="56"/>
+      <c r="L192" s="56"/>
+      <c r="M192" s="56"/>
+      <c r="N192" s="56"/>
+      <c r="O192" s="56"/>
     </row>
     <row r="193" spans="5:15">
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
-      <c r="J193" s="59"/>
-      <c r="K193" s="59"/>
-      <c r="L193" s="59"/>
-      <c r="M193" s="59"/>
-      <c r="N193" s="59"/>
-      <c r="O193" s="59"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="56"/>
+      <c r="M193" s="56"/>
+      <c r="N193" s="56"/>
+      <c r="O193" s="56"/>
     </row>
     <row r="199" spans="5:15">
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
-      <c r="J199" s="59"/>
-      <c r="K199" s="59"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="56"/>
+      <c r="I199" s="56"/>
+      <c r="J199" s="56"/>
+      <c r="K199" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7542,757 +7890,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116"/>
+    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="9" style="55"/>
-    <col min="3" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="36.125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9" style="52"/>
+    <col min="3" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="86"/>
-      <c r="C6" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="E35" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="E36" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="E39" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="E40" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="E41" s="53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="E42" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="E43" s="53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="E46" s="53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="56" t="s">
+    <row r="47" spans="4:8">
+      <c r="E47" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
-      <c r="D34" s="56" t="s">
+    <row r="48" spans="4:8">
+      <c r="E48" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="4:8">
-      <c r="E35" s="87" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="E51" s="53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="E56" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="F60" s="53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="E62" s="53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11">
+      <c r="E67" s="53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11">
+      <c r="F68" s="53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11">
+      <c r="F74" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
+    </row>
+    <row r="75" spans="5:11">
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+    </row>
+    <row r="76" spans="5:11">
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+    </row>
+    <row r="77" spans="5:11">
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+    </row>
+    <row r="78" spans="5:11">
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+    </row>
+    <row r="79" spans="5:11">
+      <c r="E79" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="5:18">
+      <c r="E85" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18">
+      <c r="F86" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="5:18">
+      <c r="G87" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="5:18">
+      <c r="N89" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="O89" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+    </row>
+    <row r="90" spans="5:18">
+      <c r="O90" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="G100" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="F102" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="D104" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="E105" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="33">
+      <c r="A107" s="76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" s="84"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="84"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="79"/>
+      <c r="E109" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-    </row>
-    <row r="36" spans="4:8">
-      <c r="E36" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-    </row>
-    <row r="38" spans="4:8">
-      <c r="D38" s="56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="E39" s="87" t="s">
+      <c r="F109" s="84"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="84"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="E110" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F113" s="84"/>
+      <c r="G113" s="84"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="E114" s="84"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="84"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="E115" s="84"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="84"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="E116" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F116" s="84"/>
+      <c r="G116" s="84"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="53"/>
+      <c r="E117" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="E118" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="E119" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="E121" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="F133" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="G134" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H135" s="53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="H136" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="33">
+      <c r="A137" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="H137" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="33">
+      <c r="A138" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="H138" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="33">
+      <c r="A140" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="G141" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-    </row>
-    <row r="40" spans="4:8">
-      <c r="E40" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-    </row>
-    <row r="41" spans="4:8">
-      <c r="E41" s="56" t="s">
+    </row>
+    <row r="142" spans="1:8">
+      <c r="G142" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="H143" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="H144" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="F145" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="F147" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="G147" s="84"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="84"/>
+      <c r="J147" s="84"/>
+      <c r="K147" s="84"/>
+      <c r="L147" s="84"/>
+      <c r="M147" s="84"/>
+      <c r="N147" s="84"/>
+      <c r="O147" s="84"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="F148" s="84"/>
+      <c r="G148" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="H148" s="84"/>
+      <c r="I148" s="84"/>
+      <c r="J148" s="84"/>
+      <c r="K148" s="84"/>
+      <c r="L148" s="84"/>
+      <c r="M148" s="84"/>
+      <c r="N148" s="84"/>
+      <c r="O148" s="84"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="F149" s="84"/>
+      <c r="G149" s="84"/>
+      <c r="H149" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="I149" s="84"/>
+      <c r="J149" s="84"/>
+      <c r="K149" s="84"/>
+      <c r="L149" s="84"/>
+      <c r="M149" s="84"/>
+      <c r="N149" s="84"/>
+      <c r="O149" s="84"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="D152" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="33">
+      <c r="A153" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E153" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="49.5">
+      <c r="A156" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="33">
+      <c r="A157" s="79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="B159" s="52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="C160" s="53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="33">
+      <c r="A161" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D161" s="84"/>
+      <c r="E161" s="84"/>
+      <c r="F161" s="84"/>
+      <c r="G161" s="84"/>
+      <c r="H161" s="84"/>
+      <c r="I161" s="84"/>
+      <c r="J161" s="84"/>
+    </row>
+    <row r="162" spans="1:10" ht="33">
+      <c r="A162" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C162" s="84"/>
+      <c r="D162" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="E162" s="84"/>
+      <c r="F162" s="84"/>
+      <c r="G162" s="84"/>
+      <c r="H162" s="84"/>
+      <c r="I162" s="84"/>
+      <c r="J162" s="84"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="79"/>
+      <c r="C163" s="84"/>
+      <c r="D163" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="E163" s="84"/>
+      <c r="F163" s="84"/>
+      <c r="G163" s="84"/>
+      <c r="H163" s="84"/>
+      <c r="I163" s="84"/>
+      <c r="J163" s="84"/>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="79"/>
+      <c r="C164" s="84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="4:8">
-      <c r="E42" s="56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8">
-      <c r="E43" s="56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8">
-      <c r="D45" s="56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8">
-      <c r="E46" s="56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8">
-      <c r="E47" s="56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8">
-      <c r="E48" s="56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="82" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="E51" s="56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="E56" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="F60" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="E62" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="5:11">
-      <c r="E67" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="5:11">
-      <c r="F68" s="56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11">
-      <c r="F74" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-    </row>
-    <row r="75" spans="5:11">
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="87"/>
-    </row>
-    <row r="76" spans="5:11">
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-    </row>
-    <row r="77" spans="5:11">
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
-      <c r="J77" s="87"/>
-      <c r="K77" s="87"/>
-    </row>
-    <row r="78" spans="5:11">
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-    </row>
-    <row r="79" spans="5:11">
-      <c r="E79" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="5:18">
-      <c r="E85" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="5:18">
-      <c r="F86" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="5:18">
-      <c r="G87" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="5:18">
-      <c r="N89" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="O89" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="P89" s="87"/>
-      <c r="Q89" s="87"/>
-      <c r="R89" s="87"/>
-    </row>
-    <row r="90" spans="5:18">
-      <c r="O90" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="87"/>
-      <c r="R90" s="87"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="G100" s="56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="F102" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="D104" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="E105" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="33">
-      <c r="A107" s="79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="E108" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="F108" s="87"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="87"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="82"/>
-      <c r="E109" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="87"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="82" t="s">
-        <v>292</v>
-      </c>
-      <c r="E110" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="E111" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="E113" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="F113" s="87"/>
-      <c r="G113" s="87"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="E114" s="87"/>
-      <c r="F114" s="87"/>
-      <c r="G114" s="87"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="E115" s="87"/>
-      <c r="F115" s="87"/>
-      <c r="G115" s="87"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="E116" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="F116" s="87"/>
-      <c r="G116" s="87"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="56"/>
-      <c r="E117" s="87" t="s">
-        <v>341</v>
-      </c>
-      <c r="F117" s="87"/>
-      <c r="G117" s="87"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="E118" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="E119" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="E121" s="56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="F133" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="G134" s="56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="H135" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="H136" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="33">
-      <c r="A137" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="H137" s="56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="33">
-      <c r="A138" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="H138" s="56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="33">
-      <c r="A140" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="F140" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="G141" s="56" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="G142" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="H143" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="H144" s="56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="F145" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="F147" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G147" s="87"/>
-      <c r="H147" s="87"/>
-      <c r="I147" s="87"/>
-      <c r="J147" s="87"/>
-      <c r="K147" s="87"/>
-      <c r="L147" s="87"/>
-      <c r="M147" s="87"/>
-      <c r="N147" s="87"/>
-      <c r="O147" s="87"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="F148" s="87"/>
-      <c r="G148" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="H148" s="87"/>
-      <c r="I148" s="87"/>
-      <c r="J148" s="87"/>
-      <c r="K148" s="87"/>
-      <c r="L148" s="87"/>
-      <c r="M148" s="87"/>
-      <c r="N148" s="87"/>
-      <c r="O148" s="87"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="F149" s="87"/>
-      <c r="G149" s="87"/>
-      <c r="H149" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="I149" s="87"/>
-      <c r="J149" s="87"/>
-      <c r="K149" s="87"/>
-      <c r="L149" s="87"/>
-      <c r="M149" s="87"/>
-      <c r="N149" s="87"/>
-      <c r="O149" s="87"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="D152" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="33">
-      <c r="A153" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="E153" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E154" s="56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="49.5">
-      <c r="A156" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E156" s="56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="33">
-      <c r="A157" s="82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="B159" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="C160" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="33">
-      <c r="A161" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="C161" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D161" s="87"/>
-      <c r="E161" s="87"/>
-      <c r="F161" s="87"/>
-      <c r="G161" s="87"/>
-      <c r="H161" s="87"/>
-      <c r="I161" s="87"/>
-      <c r="J161" s="87"/>
-    </row>
-    <row r="162" spans="1:10" ht="33">
-      <c r="A162" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C162" s="87"/>
-      <c r="D162" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="E162" s="87"/>
-      <c r="F162" s="87"/>
-      <c r="G162" s="87"/>
-      <c r="H162" s="87"/>
-      <c r="I162" s="87"/>
-      <c r="J162" s="87"/>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="82"/>
-      <c r="C163" s="87"/>
-      <c r="D163" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="E163" s="87"/>
-      <c r="F163" s="87"/>
-      <c r="G163" s="87"/>
-      <c r="H163" s="87"/>
-      <c r="I163" s="87"/>
-      <c r="J163" s="87"/>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="82"/>
-      <c r="C164" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="D164" s="87"/>
-      <c r="E164" s="87"/>
-      <c r="F164" s="87"/>
-      <c r="G164" s="87"/>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
+      <c r="D164" s="84"/>
+      <c r="E164" s="84"/>
+      <c r="F164" s="84"/>
+      <c r="G164" s="84"/>
+      <c r="H164" s="84"/>
+      <c r="I164" s="84"/>
+      <c r="J164" s="84"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="82"/>
+      <c r="A165" s="79"/>
     </row>
     <row r="168" spans="1:10">
       <c r="B168" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" s="59"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="59"/>
+        <v>210</v>
+      </c>
+      <c r="C168" s="56"/>
+      <c r="D168" s="56"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56"/>
+      <c r="H168" s="56"/>
+      <c r="I168" s="56"/>
+      <c r="J168" s="56"/>
     </row>
     <row r="169" spans="1:10">
       <c r="B169" s="16"/>
-      <c r="C169" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="59"/>
+      <c r="C169" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D169" s="56"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="56"/>
+      <c r="G169" s="56"/>
+      <c r="H169" s="56"/>
+      <c r="I169" s="56"/>
+      <c r="J169" s="56"/>
     </row>
     <row r="170" spans="1:10">
       <c r="B170" s="16"/>
-      <c r="C170" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
-      <c r="J170" s="59"/>
+      <c r="C170" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D170" s="56"/>
+      <c r="E170" s="56"/>
+      <c r="F170" s="56"/>
+      <c r="G170" s="56"/>
+      <c r="H170" s="56"/>
+      <c r="I170" s="56"/>
+      <c r="J170" s="56"/>
     </row>
     <row r="171" spans="1:10">
       <c r="B171" s="16"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="56"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="56"/>
+      <c r="G171" s="56"/>
+      <c r="H171" s="56"/>
+      <c r="I171" s="56"/>
+      <c r="J171" s="56"/>
     </row>
     <row r="172" spans="1:10">
       <c r="B172" s="16"/>
-      <c r="C172" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
-      <c r="J172" s="59"/>
+      <c r="C172" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D172" s="56"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="56"/>
+      <c r="G172" s="56"/>
+      <c r="H172" s="56"/>
+      <c r="I172" s="56"/>
+      <c r="J172" s="56"/>
     </row>
     <row r="173" spans="1:10">
       <c r="B173" s="16"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="59"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E173" s="56"/>
+      <c r="F173" s="56"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="56"/>
+      <c r="I173" s="56"/>
+      <c r="J173" s="56"/>
     </row>
     <row r="174" spans="1:10">
       <c r="B174" s="16"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="E174" s="87"/>
-      <c r="F174" s="87"/>
-      <c r="G174" s="87"/>
-      <c r="H174" s="87"/>
-      <c r="I174" s="59"/>
-      <c r="J174" s="59"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="E174" s="84"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="56"/>
+      <c r="J174" s="56"/>
     </row>
     <row r="175" spans="1:10">
       <c r="B175" s="16"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="59"/>
-      <c r="J175" s="59"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="E175" s="56"/>
+      <c r="F175" s="56"/>
+      <c r="G175" s="56"/>
+      <c r="H175" s="56"/>
+      <c r="I175" s="56"/>
+      <c r="J175" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8317,434 +8665,434 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="69"/>
-    <col min="2" max="7" width="10.625" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="69"/>
+    <col min="1" max="1" width="9" style="66"/>
+    <col min="2" max="7" width="10.625" style="66" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>184</v>
+      <c r="M1" s="77" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="80" t="s">
-        <v>185</v>
+      <c r="B2" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="88" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="88" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="85" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="88" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="85" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="88" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="88" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="88" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="85" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="88" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="88" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="85" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="88" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="85" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="88" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="85" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="88" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="85" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="88" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="85" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="88" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="88" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="85" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="88" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="85" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="88" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="85" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="88" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="88" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="88" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="88" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="85" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="88" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="85" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="88" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="85" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="88" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="85" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="88" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="85" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="88" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="85" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="88" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="85" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="88" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="85" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="88" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="88" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="85" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="88" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="88" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="88" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="88" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="85" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="88" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="88" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="88" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="85" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="88" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="88" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="85" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="88" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="88" t="s">
+    <row r="49" spans="1:18">
+      <c r="A49" s="85" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="88" t="s">
+    <row r="50" spans="1:18">
+      <c r="A50" s="85" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="88" t="s">
+    <row r="51" spans="1:18">
+      <c r="A51" s="85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="88" t="s">
+    <row r="52" spans="1:18">
+      <c r="A52" s="85" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="88" t="s">
+    <row r="53" spans="1:18">
+      <c r="A53" s="85" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="88" t="s">
+    <row r="54" spans="1:18">
+      <c r="A54" s="85" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="88" t="s">
+    <row r="55" spans="1:18">
+      <c r="A55" s="85" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="88" t="s">
+    <row r="56" spans="1:18">
+      <c r="A56" s="85" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="88" t="s">
+    <row r="57" spans="1:18">
+      <c r="A57" s="85" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="88" t="s">
+    <row r="58" spans="1:18">
+      <c r="A58" s="85" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="88" t="s">
+    <row r="59" spans="1:18">
+      <c r="A59" s="85" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="88" t="s">
+    <row r="60" spans="1:18">
+      <c r="A60" s="85" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="88" t="s">
+    <row r="61" spans="1:18">
+      <c r="A61" s="85" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="88" t="s">
+    <row r="62" spans="1:18">
+      <c r="A62" s="85" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="88" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="88" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="88" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="88" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="88" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="88" t="s">
-        <v>284</v>
-      </c>
-    </row>
     <row r="63" spans="1:18">
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
+      <c r="A66" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84">
+      <c r="A68" s="81"/>
+      <c r="B68" s="81">
         <v>20</v>
       </c>
-      <c r="C68" s="84">
+      <c r="C68" s="81">
         <v>5</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="81">
         <v>3</v>
       </c>
-      <c r="E68" s="84">
+      <c r="E68" s="81">
         <v>200</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="83"/>
-      <c r="B70" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="83"/>
+      <c r="A70" s="80"/>
+      <c r="B70" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="80"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -8763,7 +9111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="71"/>
+    <col min="1" max="1" width="9" style="68"/>
     <col min="2" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -8771,8 +9119,8 @@
       <c r="A1" s="35"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="55" t="s">
-        <v>106</v>
+      <c r="A2" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9192,8 +9540,8 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="71" t="s">
-        <v>107</v>
+      <c r="A34" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9298,11 +9646,11 @@
       <c r="D41" s="1"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
       <c r="L41" s="23"/>
       <c r="M41" s="1"/>
     </row>
@@ -9401,7 +9749,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -9414,7 +9762,7 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -9427,7 +9775,7 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="55"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -9440,7 +9788,7 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="55"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -9453,7 +9801,7 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="55"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -9466,7 +9814,7 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="55"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -9479,7 +9827,7 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="55"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -9492,7 +9840,7 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="55"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -9505,7 +9853,7 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="55"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -9518,7 +9866,7 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="55"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -9531,7 +9879,7 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="55"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -9544,7 +9892,7 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="55"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -9557,7 +9905,7 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="55"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -9570,7 +9918,7 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="55"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -9583,7 +9931,7 @@
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="55"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -9596,7 +9944,7 @@
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="55"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -9609,7 +9957,7 @@
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="55"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9622,7 +9970,7 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="55"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9635,7 +9983,7 @@
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="55"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9758,8 +10106,8 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="71" t="s">
-        <v>108</v>
+      <c r="A76" s="68" t="s">
+        <v>102</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="1"/>
@@ -10051,10 +10399,10 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" ht="21">
-      <c r="E97" s="54"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -10092,8 +10440,8 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="55" t="s">
-        <v>169</v>
+      <c r="A100" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -10109,8 +10457,8 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="B101" s="78" t="s">
-        <v>170</v>
+      <c r="B101" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -10126,8 +10474,8 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="B102" s="78" t="s">
-        <v>171</v>
+      <c r="B102" s="75" t="s">
+        <v>165</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="8"/>
@@ -10144,8 +10492,8 @@
     </row>
     <row r="103" spans="1:15">
       <c r="C103" s="28"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="51"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="48"/>
       <c r="F103" s="8"/>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
@@ -10298,18 +10646,18 @@
       <c r="N113" s="28"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="71" t="s">
-        <v>297</v>
+      <c r="A115" s="68" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:17">
-      <c r="B116" s="78" t="s">
-        <v>298</v>
+      <c r="B116" s="75" t="s">
+        <v>292</v>
       </c>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:17" ht="21">
-      <c r="H117" s="54"/>
+      <c r="H117" s="51"/>
       <c r="I117" s="34"/>
       <c r="J117" s="34"/>
       <c r="K117" s="34"/>
@@ -10701,7 +11049,7 @@
       <c r="J150" s="1"/>
     </row>
     <row r="151" spans="2:17" ht="21">
-      <c r="K151" s="54"/>
+      <c r="K151" s="51"/>
       <c r="L151" s="34"/>
     </row>
   </sheetData>
@@ -10791,16 +11139,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>327</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>321</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -11018,48 +11366,48 @@
       <c r="A1" s="39"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="78" t="s">
-        <v>332</v>
+      <c r="A3" s="75" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="78" t="s">
-        <v>330</v>
+      <c r="B4" s="75" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="75" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="78" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="24" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="24" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
-        <v>336</v>
+      <c r="A18" s="75" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="78" t="s">
-        <v>337</v>
+      <c r="B19" s="75" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -11070,10 +11418,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11085,33 +11433,70 @@
     <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1">
-      <c r="A1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="45" customFormat="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
+    <row r="1" spans="1:5" s="43" customFormat="1">
+      <c r="A1" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="75"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="75" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="75" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="75" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/gd/活动相关/签到系统设计.xlsx
+++ b/gd/活动相关/签到系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="7"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="补签消耗上限">配置方式!$E$67:$E$68</definedName>
     <definedName name="此处聊天记录仅显示一条_显示不下时截断。">UI逻辑相关!#REF!</definedName>
     <definedName name="从上到下依次显示选项_邀请入会、屏蔽">#REF!</definedName>
-    <definedName name="当当前有可以进行的签到或者补签时_图标右上角有红点显示">UI逻辑相关!$C$161:$J$164</definedName>
+    <definedName name="当当前有可以进行的签到或者补签时_图标右上角有红点显示">UI逻辑相关!$C$164:$J$167</definedName>
     <definedName name="当提示方式选择为“系统提示”时_可以设定提示范围_包含玩家自己_玩家所在公会">整体说明!$F$192</definedName>
     <definedName name="当玩家没有加入公会时_点击公会页签_不会切换到公会页且弹出提示信息im_record_002">UI逻辑相关!#REF!</definedName>
     <definedName name="当新的信息出现时_顶替掉旧信息显示在基础聊天框">UI逻辑相关!#REF!</definedName>
@@ -43,6 +43,7 @@
     <definedName name="当有连续消息出现时_则不播放进入动画_新消息会直接显示">UI逻辑相关!#REF!</definedName>
     <definedName name="当有信息触发时_会显示走马灯底色及边框_文字信息由界面下方滑入界面">#REF!</definedName>
     <definedName name="当有信息触发时_会显示走马灯底色及边框_文字信息由界面右侧向左侧移动出现">#REF!</definedName>
+    <definedName name="当月可登陆日期数大于可签到日期数时的处理方式">UI逻辑相关!$F$151:$O$152</definedName>
     <definedName name="点击按钮_判断点击玩家是否已经加入了公会">#REF!</definedName>
     <definedName name="对应英文">整体说明!$R$179</definedName>
     <definedName name="二、聊天框玩家名称">#REF!</definedName>
@@ -56,12 +57,12 @@
     <definedName name="聊天记客户端">UI逻辑相关!#REF!</definedName>
     <definedName name="聊天内容保存在客户端即可_玩家退出游戏后_聊天内容消失_再次登录不会显示。">UI逻辑相关!#REF!</definedName>
     <definedName name="默认显示”请输入信息“">UI逻辑相关!#REF!</definedName>
-    <definedName name="签到刷新规则">UI逻辑相关!$B$168:$J$175</definedName>
+    <definedName name="签到刷新规则">UI逻辑相关!$B$171:$J$178</definedName>
     <definedName name="日常签到界面入口">UI逻辑相关!$B$1:$H$6</definedName>
     <definedName name="如果公会标签页不可用_则点击时会弹出提示信息im_record_004">UI逻辑相关!#REF!</definedName>
     <definedName name="如果为补签的则显示为彩色样式_同时奖励内容左上角显示可补签的图标">UI逻辑相关!$F$74:$K$78</definedName>
     <definedName name="若2行仍显示不下提示信息_则提示信息向两侧扩展_先扩充第二行_当第二行已达屏幕最长位置_则扩充第一行">#REF!</definedName>
-    <definedName name="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭">UI逻辑相关!$D$174:$H$174</definedName>
+    <definedName name="若玩家打开签到界面跨刷新点则界面在刷新点自动关闭">UI逻辑相关!$D$177:$H$177</definedName>
     <definedName name="若玩家手指拖动信息且手指未离开频幕_则信息会根据玩家手指拖动频幕的位置显示对应信息_信息不会刷新。">UI逻辑相关!#REF!</definedName>
     <definedName name="三、走马灯">#REF!</definedName>
     <definedName name="首次开服后_若不在自然月第一天_则根据玩家登录情况显示可补签相关内容">UI逻辑相关!$F$147:$O$149</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="351">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1580,6 +1581,28 @@
         <charset val="134"/>
       </rPr>
       <t>0.只有补签时，开关界面后签到图标仍然有红点显示</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月可登陆日期数大于可签到日期数时的处理方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当月共31天，可签到总次数为30，已签到29天，则第31天登录时，第30个签到格显示为“签到”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可登陆日期数大于可签到日期数的处理方式</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2326,6 +2349,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2376,9 +2402,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5308,8 +5331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -5368,17 +5391,17 @@
       <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
@@ -5387,76 +5410,76 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
     <row r="21" spans="1:8">
@@ -5586,7 +5609,9 @@
     <row r="34" spans="1:8">
       <c r="B34" s="53"/>
       <c r="C34" s="55"/>
-      <c r="H34" s="22"/>
+      <c r="H34" s="89" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
@@ -5708,8 +5733,10 @@
     <hyperlink ref="F43" location="补签消耗上限" display="翻译消耗增加一个上限限制"/>
     <hyperlink ref="H32" location="任务拆分!A1" display="补充任务拆分"/>
     <hyperlink ref="H33" location="补签按钮样式" display="添加补签按钮多语言"/>
+    <hyperlink ref="H34" location="当月可登陆日期数大于可签到日期数时的处理方式" display="可登陆日期数大于可签到日期数的处理方式"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5995,7 +6022,7 @@
   <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -7679,13 +7706,13 @@
       <c r="H180" s="12"/>
       <c r="I180" s="11"/>
       <c r="J180" s="12"/>
-      <c r="K180" s="104"/>
-      <c r="L180" s="105"/>
-      <c r="M180" s="105"/>
-      <c r="N180" s="105"/>
-      <c r="O180" s="105"/>
-      <c r="P180" s="105"/>
-      <c r="Q180" s="106"/>
+      <c r="K180" s="105"/>
+      <c r="L180" s="106"/>
+      <c r="M180" s="106"/>
+      <c r="N180" s="106"/>
+      <c r="O180" s="106"/>
+      <c r="P180" s="106"/>
+      <c r="Q180" s="107"/>
       <c r="R180" s="46"/>
       <c r="S180" s="45"/>
       <c r="T180" s="45"/>
@@ -7888,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151:O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8437,97 +8464,84 @@
       <c r="N149" s="84"/>
       <c r="O149" s="84"/>
     </row>
+    <row r="151" spans="1:15">
+      <c r="F151" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G151" s="84"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="84"/>
+      <c r="J151" s="84"/>
+      <c r="K151" s="84"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="84"/>
+      <c r="N151" s="84"/>
+      <c r="O151" s="84"/>
+    </row>
     <row r="152" spans="1:15">
-      <c r="D152" s="53" t="s">
+      <c r="F152" s="84"/>
+      <c r="G152" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H152" s="84"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="84"/>
+      <c r="K152" s="84"/>
+      <c r="L152" s="84"/>
+      <c r="M152" s="84"/>
+      <c r="N152" s="84"/>
+      <c r="O152" s="84"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="D155" s="53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="33">
-      <c r="A153" s="76" t="s">
+    <row r="156" spans="1:15" ht="33">
+      <c r="A156" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="E153" s="53" t="s">
+      <c r="E156" s="53" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="79" t="s">
+    <row r="157" spans="1:15">
+      <c r="A157" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="E154" s="53" t="s">
+      <c r="E157" s="53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="49.5">
-      <c r="A156" s="76" t="s">
+    <row r="159" spans="1:15" ht="49.5">
+      <c r="A159" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="E156" s="53" t="s">
+      <c r="E159" s="53" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="33">
-      <c r="A157" s="79" t="s">
+    <row r="160" spans="1:15" ht="33">
+      <c r="A160" s="79" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
-      <c r="B159" s="52" t="s">
+    <row r="162" spans="1:10">
+      <c r="B162" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
-      <c r="C160" s="53" t="s">
+    <row r="163" spans="1:10">
+      <c r="C163" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="33">
-      <c r="A161" s="76" t="s">
+    <row r="164" spans="1:10" ht="33">
+      <c r="A164" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="C161" s="84" t="s">
+      <c r="C164" s="84" t="s">
         <v>157</v>
-      </c>
-      <c r="D161" s="84"/>
-      <c r="E161" s="84"/>
-      <c r="F161" s="84"/>
-      <c r="G161" s="84"/>
-      <c r="H161" s="84"/>
-      <c r="I161" s="84"/>
-      <c r="J161" s="84"/>
-    </row>
-    <row r="162" spans="1:10" ht="33">
-      <c r="A162" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C162" s="84"/>
-      <c r="D162" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="E162" s="84"/>
-      <c r="F162" s="84"/>
-      <c r="G162" s="84"/>
-      <c r="H162" s="84"/>
-      <c r="I162" s="84"/>
-      <c r="J162" s="84"/>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="79"/>
-      <c r="C163" s="84"/>
-      <c r="D163" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="E163" s="84"/>
-      <c r="F163" s="84"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="84"/>
-      <c r="I163" s="84"/>
-      <c r="J163" s="84"/>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="79"/>
-      <c r="C164" s="84" t="s">
-        <v>158</v>
       </c>
       <c r="D164" s="84"/>
       <c r="E164" s="84"/>
@@ -8537,50 +8551,54 @@
       <c r="I164" s="84"/>
       <c r="J164" s="84"/>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="79"/>
+    <row r="165" spans="1:10" ht="33">
+      <c r="A165" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C165" s="84"/>
+      <c r="D165" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="E165" s="84"/>
+      <c r="F165" s="84"/>
+      <c r="G165" s="84"/>
+      <c r="H165" s="84"/>
+      <c r="I165" s="84"/>
+      <c r="J165" s="84"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="79"/>
+      <c r="C166" s="84"/>
+      <c r="D166" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="E166" s="84"/>
+      <c r="F166" s="84"/>
+      <c r="G166" s="84"/>
+      <c r="H166" s="84"/>
+      <c r="I166" s="84"/>
+      <c r="J166" s="84"/>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="79"/>
+      <c r="C167" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" s="84"/>
+      <c r="E167" s="84"/>
+      <c r="F167" s="84"/>
+      <c r="G167" s="84"/>
+      <c r="H167" s="84"/>
+      <c r="I167" s="84"/>
+      <c r="J167" s="84"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="B168" s="16" t="s">
+      <c r="A168" s="79"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="B171" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C168" s="56"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="56"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="56"/>
-      <c r="J168" s="56"/>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="B169" s="16"/>
-      <c r="C169" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D169" s="56"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="56"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="56"/>
-      <c r="J169" s="56"/>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="B170" s="16"/>
-      <c r="C170" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D170" s="56"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="56"/>
-      <c r="G170" s="56"/>
-      <c r="H170" s="56"/>
-      <c r="I170" s="56"/>
-      <c r="J170" s="56"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="B171" s="16"/>
       <c r="C171" s="56"/>
       <c r="D171" s="56"/>
       <c r="E171" s="56"/>
@@ -8593,7 +8611,7 @@
     <row r="172" spans="1:10">
       <c r="B172" s="16"/>
       <c r="C172" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D172" s="56"/>
       <c r="E172" s="56"/>
@@ -8605,10 +8623,10 @@
     </row>
     <row r="173" spans="1:10">
       <c r="B173" s="16"/>
-      <c r="C173" s="56"/>
-      <c r="D173" s="56" t="s">
-        <v>214</v>
-      </c>
+      <c r="C173" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D173" s="56"/>
       <c r="E173" s="56"/>
       <c r="F173" s="56"/>
       <c r="G173" s="56"/>
@@ -8619,28 +8637,65 @@
     <row r="174" spans="1:10">
       <c r="B174" s="16"/>
       <c r="C174" s="56"/>
-      <c r="D174" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="E174" s="84"/>
-      <c r="F174" s="84"/>
-      <c r="G174" s="84"/>
-      <c r="H174" s="84"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+      <c r="H174" s="56"/>
       <c r="I174" s="56"/>
       <c r="J174" s="56"/>
     </row>
     <row r="175" spans="1:10">
       <c r="B175" s="16"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="56" t="s">
-        <v>215</v>
-      </c>
+      <c r="C175" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D175" s="56"/>
       <c r="E175" s="56"/>
       <c r="F175" s="56"/>
       <c r="G175" s="56"/>
       <c r="H175" s="56"/>
       <c r="I175" s="56"/>
       <c r="J175" s="56"/>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="B176" s="16"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E176" s="56"/>
+      <c r="F176" s="56"/>
+      <c r="G176" s="56"/>
+      <c r="H176" s="56"/>
+      <c r="I176" s="56"/>
+      <c r="J176" s="56"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="16"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="E177" s="84"/>
+      <c r="F177" s="84"/>
+      <c r="G177" s="84"/>
+      <c r="H177" s="84"/>
+      <c r="I177" s="56"/>
+      <c r="J177" s="56"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="16"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="E178" s="56"/>
+      <c r="F178" s="56"/>
+      <c r="G178" s="56"/>
+      <c r="H178" s="56"/>
+      <c r="I178" s="56"/>
+      <c r="J178" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -11420,7 +11475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -11434,7 +11489,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="90" t="s">
         <v>337</v>
       </c>
       <c r="B1" s="42"/>
